--- a/TRACK.xlsx
+++ b/TRACK.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="315">
   <si>
     <t>refrence</t>
   </si>
@@ -27,15 +27,9 @@
     <t>COMPANY NAME</t>
   </si>
   <si>
-    <t>CO.Name</t>
-  </si>
-  <si>
     <t>SOURCE COMPANY</t>
   </si>
   <si>
-    <t>SourceCo.name</t>
-  </si>
-  <si>
     <t>TYPE OF TRANSACTION</t>
   </si>
   <si>
@@ -886,6 +880,90 @@
   </si>
   <si>
     <t>ZHONGSHAN YUANAN IMPORT AND EXPORT CO.-</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>SWITZERLAND</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>DUBAI, UAE</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>UNITED KINGDOM</t>
+  </si>
+  <si>
+    <t>HONGKONG</t>
+  </si>
+  <si>
+    <t>HONGKONG, CHINA</t>
+  </si>
+  <si>
+    <t>THAILAND</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t>BRAZIL</t>
+  </si>
+  <si>
+    <t>BANGALADESH</t>
+  </si>
+  <si>
+    <t>AUSTRIA</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>SRILANKA</t>
+  </si>
+  <si>
+    <t>MUMBAI, INDIA</t>
+  </si>
+  <si>
+    <t>U S A</t>
+  </si>
+  <si>
+    <t>NORWAY</t>
+  </si>
+  <si>
+    <t>BELGIUM</t>
+  </si>
+  <si>
+    <t>SLOVENIA</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>MALAYSIA</t>
+  </si>
+  <si>
+    <t>KOREA</t>
+  </si>
+  <si>
+    <t>NETHERLANDS</t>
+  </si>
+  <si>
+    <t>SOUTH KOREA</t>
+  </si>
+  <si>
+    <t>POLAND</t>
+  </si>
+  <si>
+    <t>CO.City</t>
+  </si>
+  <si>
+    <t>SourceCo.City</t>
   </si>
 </sst>
 </file>
@@ -1693,13 +1771,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="67.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1707,133 +1790,142 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
       </c>
       <c r="J2">
         <v>16953</v>
       </c>
       <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
       </c>
       <c r="J3">
         <v>120670</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1845,33 +1937,36 @@
         <v>192051</v>
       </c>
       <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1883,109 +1978,118 @@
         <v>37514</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
       </c>
       <c r="J6">
         <v>1557</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
       </c>
       <c r="J7">
         <v>8502</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1997,33 +2101,36 @@
         <v>73515</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -2035,71 +2142,77 @@
         <v>37000</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
       </c>
       <c r="J10">
         <v>106243</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="M10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2111,71 +2224,77 @@
         <v>29120</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>44</v>
       </c>
       <c r="J12">
         <v>37700</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="M12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2187,33 +2306,36 @@
         <v>29940</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="M13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2225,33 +2347,36 @@
         <v>16885</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2263,223 +2388,241 @@
         <v>20190</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="M15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J16">
         <v>14551</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>54</v>
       </c>
       <c r="J17">
         <v>173267</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="M17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J18">
         <v>214222</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L18" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J19">
         <v>213244</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="M19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>24472</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="M20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2491,71 +2634,77 @@
         <v>31739</v>
       </c>
       <c r="K21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>65</v>
       </c>
       <c r="J22">
         <v>43190</v>
       </c>
       <c r="K22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="M22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2567,33 +2716,36 @@
         <v>28000</v>
       </c>
       <c r="K23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="M23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2605,147 +2757,159 @@
         <v>36996</v>
       </c>
       <c r="K24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="M24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J25">
         <v>340710</v>
       </c>
       <c r="K25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="M25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
         <v>17</v>
-      </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>19</v>
       </c>
       <c r="J26">
         <v>2799</v>
       </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="M26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J27">
         <v>34345</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="M27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2757,109 +2921,118 @@
         <v>63860</v>
       </c>
       <c r="K28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="M28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J29">
         <v>375966</v>
       </c>
       <c r="K29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="M29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J30">
         <v>375966</v>
       </c>
       <c r="K30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>81</v>
-      </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -2871,109 +3044,118 @@
         <v>51760</v>
       </c>
       <c r="K31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="M31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>30000</v>
       </c>
       <c r="K32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="M32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J33">
         <v>13112</v>
       </c>
       <c r="K33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="M33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -2985,109 +3167,118 @@
         <v>60630</v>
       </c>
       <c r="K34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="M34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J35">
         <v>13000</v>
       </c>
       <c r="K35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="M35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J36">
         <v>12019</v>
       </c>
       <c r="K36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="M36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3099,33 +3290,36 @@
         <v>29820</v>
       </c>
       <c r="K37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="M37" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3137,33 +3331,36 @@
         <v>37897</v>
       </c>
       <c r="K38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="M38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3175,33 +3372,36 @@
         <v>1149512</v>
       </c>
       <c r="K39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="M39" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -3213,33 +3413,36 @@
         <v>95551</v>
       </c>
       <c r="K40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="M40" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -3251,109 +3454,118 @@
         <v>76440</v>
       </c>
       <c r="K41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L41" t="s">
+        <v>98</v>
+      </c>
+      <c r="M41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>102</v>
-      </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>28098</v>
       </c>
       <c r="K42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L42" t="s">
+        <v>101</v>
+      </c>
+      <c r="M42" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
-        <v>105</v>
       </c>
       <c r="J43">
         <v>474407</v>
       </c>
       <c r="K43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="M43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -3365,223 +3577,241 @@
         <v>9250</v>
       </c>
       <c r="K44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="M44" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J45">
         <v>72028</v>
       </c>
       <c r="K45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L45" t="s">
+        <v>108</v>
+      </c>
+      <c r="M45" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46" t="s">
-        <v>112</v>
       </c>
       <c r="J46">
         <v>1785241</v>
       </c>
       <c r="K46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="M46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J47">
         <v>1563018</v>
       </c>
       <c r="K47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L47" t="s">
+        <v>111</v>
+      </c>
+      <c r="M47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>115</v>
-      </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J48">
         <v>1651741</v>
       </c>
       <c r="K48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="M48" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J49">
         <v>27800</v>
       </c>
       <c r="K49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="M49" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -3593,71 +3823,74 @@
         <v>165972</v>
       </c>
       <c r="K50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
         <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>19</v>
       </c>
       <c r="J51">
         <v>12411</v>
       </c>
       <c r="K51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="M51" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -3669,33 +3902,36 @@
         <v>70000</v>
       </c>
       <c r="K52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L52" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="M52" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -3707,33 +3943,36 @@
         <v>70000</v>
       </c>
       <c r="K53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L53" t="s">
+        <v>121</v>
+      </c>
+      <c r="M53" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>125</v>
-      </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -3745,147 +3984,159 @@
         <v>69488</v>
       </c>
       <c r="K54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L54" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="M54" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
         <v>17</v>
-      </c>
-      <c r="G55" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55" t="s">
-        <v>19</v>
       </c>
       <c r="J55">
         <v>11053</v>
       </c>
       <c r="K55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L55" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="M55" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J56">
         <v>223108</v>
       </c>
       <c r="K56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L56" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="M56" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
         <v>17</v>
-      </c>
-      <c r="G57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>19</v>
       </c>
       <c r="J57">
         <v>224350</v>
       </c>
       <c r="K57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L57" t="s">
+        <v>127</v>
+      </c>
+      <c r="M57" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>131</v>
-      </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -3897,147 +4148,159 @@
         <v>4573</v>
       </c>
       <c r="K58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L58" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="M58" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
         <v>17</v>
-      </c>
-      <c r="G59" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59" t="s">
-        <v>19</v>
       </c>
       <c r="J59">
         <v>6963</v>
       </c>
       <c r="K59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L59" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="M59" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
         <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>19</v>
       </c>
       <c r="J60">
         <v>22173</v>
       </c>
       <c r="K60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L60" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="M60" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J61">
         <v>40376</v>
       </c>
       <c r="K61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L61" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="M61" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -4049,71 +4312,77 @@
         <v>39063</v>
       </c>
       <c r="K62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L62" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="M62" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
         <v>17</v>
-      </c>
-      <c r="G63" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>19</v>
       </c>
       <c r="J63">
         <v>4144</v>
       </c>
       <c r="K63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L63" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="M63" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -4125,33 +4394,36 @@
         <v>7400</v>
       </c>
       <c r="K64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L64" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="M64" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -4163,33 +4435,36 @@
         <v>64440</v>
       </c>
       <c r="K65" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="M65" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -4201,109 +4476,118 @@
         <v>21487</v>
       </c>
       <c r="K66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L66" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="M66" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J67">
         <v>200982</v>
       </c>
       <c r="K67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="M67" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J68">
         <v>283798</v>
       </c>
       <c r="K68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L68" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="M68" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -4315,71 +4599,77 @@
         <v>14520</v>
       </c>
       <c r="K69" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L69" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="M69" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J70">
         <v>294895</v>
       </c>
       <c r="K70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L70" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="M70" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -4391,185 +4681,200 @@
         <v>115000</v>
       </c>
       <c r="K71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L71" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="M71" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
         <v>17</v>
-      </c>
-      <c r="G72" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72" t="s">
-        <v>19</v>
       </c>
       <c r="J72">
         <v>8535</v>
       </c>
       <c r="K72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L72" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="M72" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J73">
         <v>136235</v>
       </c>
       <c r="K73" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="M73" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J74">
         <v>280217</v>
       </c>
       <c r="K74" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L74" t="s">
+        <v>160</v>
+      </c>
+      <c r="M74" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>164</v>
-      </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J75">
         <v>22689</v>
       </c>
       <c r="K75" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L75" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="M75" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -4581,147 +4886,159 @@
         <v>5488</v>
       </c>
       <c r="K76" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L76" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="M76" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G77" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J77">
         <v>37226</v>
       </c>
       <c r="K77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L77" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="M77" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J78">
         <v>35303</v>
       </c>
       <c r="K78" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L78" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="M78" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G79" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J79">
         <v>682287</v>
       </c>
       <c r="K79" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L79" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="M79" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -4733,33 +5050,36 @@
         <v>277500</v>
       </c>
       <c r="K80" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L80" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="M80" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G81" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -4771,337 +5091,364 @@
         <v>1739653</v>
       </c>
       <c r="K81" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L81" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="M81" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J82">
         <v>225456</v>
       </c>
       <c r="K82" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L82" t="s">
+        <v>177</v>
+      </c>
+      <c r="M82" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>180</v>
-      </c>
-      <c r="B83" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s">
-        <v>18</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83" t="s">
-        <v>181</v>
       </c>
       <c r="J83">
         <v>200124</v>
       </c>
       <c r="K83" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L83" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="M83" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J84">
         <v>220460</v>
       </c>
       <c r="K84" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L84" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="M84" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H85">
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J85">
         <v>325444</v>
       </c>
       <c r="K85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L85" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="M85" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J86">
         <v>250300</v>
       </c>
       <c r="K86" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L86" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="M86" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J87">
         <v>211125</v>
       </c>
       <c r="K87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L87" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="M87" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J88">
         <v>330428</v>
       </c>
       <c r="K88" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L88" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="M88" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J89">
         <v>274321</v>
       </c>
       <c r="K89" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L89" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="M89" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -5113,33 +5460,36 @@
         <v>37252</v>
       </c>
       <c r="K90" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L90" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="M90" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G91" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -5151,223 +5501,241 @@
         <v>28667</v>
       </c>
       <c r="K91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L91" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="M91" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G92" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J92">
         <v>247314</v>
       </c>
       <c r="K92" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L92" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="M92" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J93">
         <v>13000</v>
       </c>
       <c r="K93" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L93" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="M93" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J94">
         <v>63480</v>
       </c>
       <c r="K94" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L94" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="M94" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J95">
         <v>347985</v>
       </c>
       <c r="K95" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L95" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="M95" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G96" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J96">
         <v>347985</v>
       </c>
       <c r="K96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L96" t="s">
+        <v>201</v>
+      </c>
+      <c r="M96" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>205</v>
-      </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G97" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -5379,33 +5747,36 @@
         <v>63912</v>
       </c>
       <c r="K97" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L97" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="M97" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G98" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -5417,71 +5788,77 @@
         <v>41905</v>
       </c>
       <c r="K98" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L98" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="M98" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G99" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J99">
         <v>12927</v>
       </c>
       <c r="K99" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L99" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="M99" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G100" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -5493,109 +5870,118 @@
         <v>5000</v>
       </c>
       <c r="K100" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L100" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="M100" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G101" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J101">
         <v>162554</v>
       </c>
       <c r="K101" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L101" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="M101" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G102" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J102">
         <v>39930</v>
       </c>
       <c r="K102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L102" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="M102" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G103" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -5607,33 +5993,36 @@
         <v>3132</v>
       </c>
       <c r="K103" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L103" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="M103" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -5645,71 +6034,77 @@
         <v>95000</v>
       </c>
       <c r="K104" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L104" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="M104" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G105" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J105">
         <v>8949</v>
       </c>
       <c r="K105" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L105" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="M105" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -5721,71 +6116,77 @@
         <v>7568</v>
       </c>
       <c r="K106" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L106" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="M106" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G107" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J107">
         <v>32414</v>
       </c>
       <c r="K107" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L107" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="M107" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G108" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -5797,71 +6198,77 @@
         <v>375108</v>
       </c>
       <c r="K108" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L108" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="M108" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G109" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J109">
         <v>376403</v>
       </c>
       <c r="K109" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L109" t="s">
+        <v>226</v>
+      </c>
+      <c r="M109" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>230</v>
-      </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G110" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -5873,147 +6280,159 @@
         <v>2694875</v>
       </c>
       <c r="K110" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L110" t="s">
+        <v>229</v>
+      </c>
+      <c r="M110" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>230</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>232</v>
-      </c>
-      <c r="B111" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" t="s">
-        <v>16</v>
-      </c>
-      <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" t="s">
-        <v>18</v>
-      </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="I111" t="s">
-        <v>233</v>
       </c>
       <c r="J111">
         <v>2500000</v>
       </c>
       <c r="K111" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L111" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="M111" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G112" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J112">
         <v>17173</v>
       </c>
       <c r="K112" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L112" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="M112" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E113" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J113">
         <v>63100</v>
       </c>
       <c r="K113" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L113" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="M113" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -6025,147 +6444,159 @@
         <v>121500</v>
       </c>
       <c r="K114" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L114" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="M114" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E115" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G115" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J115">
         <v>2543259</v>
       </c>
       <c r="K115" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L115" t="s">
+        <v>240</v>
+      </c>
+      <c r="M115" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>241</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>16</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>243</v>
-      </c>
-      <c r="B116" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116" t="s">
-        <v>16</v>
-      </c>
-      <c r="F116" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" t="s">
-        <v>18</v>
-      </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116" t="s">
-        <v>244</v>
       </c>
       <c r="J116">
         <v>1601706</v>
       </c>
       <c r="K116" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L116" t="s">
+        <v>240</v>
+      </c>
+      <c r="M116" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>16</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>245</v>
-      </c>
-      <c r="B117" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117" t="s">
-        <v>16</v>
-      </c>
-      <c r="F117" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" t="s">
-        <v>18</v>
-      </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117" t="s">
-        <v>244</v>
       </c>
       <c r="J117">
         <v>1398294</v>
       </c>
       <c r="K117" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L117" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="M117" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E118" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G118" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -6177,261 +6608,282 @@
         <v>34320</v>
       </c>
       <c r="K118" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L118" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="M118" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E119" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G119" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J119">
         <v>50000</v>
       </c>
       <c r="K119" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L119" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="M119" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G120" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J120">
         <v>30432</v>
       </c>
       <c r="K120" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L120" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="M120" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G121" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J121">
         <v>501284</v>
       </c>
       <c r="K121" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L121" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="M121" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F122" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122" t="s">
         <v>17</v>
-      </c>
-      <c r="G122" t="s">
-        <v>18</v>
-      </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-      <c r="I122" t="s">
-        <v>19</v>
       </c>
       <c r="J122">
         <v>225556</v>
       </c>
       <c r="K122" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L122" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="M122" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E123" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" t="s">
+        <v>16</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123" t="s">
         <v>17</v>
-      </c>
-      <c r="G123" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-      <c r="I123" t="s">
-        <v>19</v>
       </c>
       <c r="J123">
         <v>226653</v>
       </c>
       <c r="K123" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L123" t="s">
+        <v>253</v>
+      </c>
+      <c r="M123" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>257</v>
-      </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J124">
         <v>247458</v>
       </c>
       <c r="K124" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L124" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="M124" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G125" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -6443,71 +6895,77 @@
         <v>73900</v>
       </c>
       <c r="K125" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L125" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="M125" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E126" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G126" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J126">
         <v>700000</v>
       </c>
       <c r="K126" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L126" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="M126" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D127" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -6519,33 +6977,36 @@
         <v>11850</v>
       </c>
       <c r="K127" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L127" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="M127" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G128" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -6557,33 +7018,36 @@
         <v>1924745</v>
       </c>
       <c r="K128" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L128" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="M128" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D129" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -6595,33 +7059,36 @@
         <v>2075255</v>
       </c>
       <c r="K129" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L129" t="s">
+        <v>263</v>
+      </c>
+      <c r="M129" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>267</v>
-      </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -6633,185 +7100,200 @@
         <v>3000000</v>
       </c>
       <c r="K130" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L130" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="M130" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J131">
         <v>170200</v>
       </c>
       <c r="K131" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L131" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="M131" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G132" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J132">
         <v>2245741</v>
       </c>
       <c r="K132" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L132" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="M132" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H133">
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J133">
         <v>11225</v>
       </c>
       <c r="K133" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L133" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="M133" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J134">
         <v>212700</v>
       </c>
       <c r="K134" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L134" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="M134" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F135" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -6823,71 +7305,77 @@
         <v>30362</v>
       </c>
       <c r="K135" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L135" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="M135" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G136" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J136">
         <v>63566</v>
       </c>
       <c r="K136" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L136" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="M136" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G137" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -6899,33 +7387,36 @@
         <v>59682</v>
       </c>
       <c r="K137" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L137" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M137" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G138" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -6937,33 +7428,36 @@
         <v>59680</v>
       </c>
       <c r="K138" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L138" t="s">
+        <v>280</v>
+      </c>
+      <c r="M138" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>284</v>
-      </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G139" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -6975,71 +7469,77 @@
         <v>26082</v>
       </c>
       <c r="K139" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L139" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="M139" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G140" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J140">
         <v>65205</v>
       </c>
       <c r="K140" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L140" t="s">
+        <v>283</v>
+      </c>
+      <c r="M140" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>287</v>
-      </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G141" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -7051,10 +7551,13 @@
         <v>30029</v>
       </c>
       <c r="K141" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L141" t="s">
-        <v>288</v>
+        <v>286</v>
+      </c>
+      <c r="M141" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/TRACK.xlsx
+++ b/TRACK.xlsx
@@ -36,9 +36,6 @@
     <t>MONTH</t>
   </si>
   <si>
-    <t>TYPE OF ‌Products</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -964,6 +961,9 @@
   </si>
   <si>
     <t>SourceCo.City</t>
+  </si>
+  <si>
+    <t>TYPE OFProducts</t>
   </si>
 </sst>
 </file>
@@ -1774,11 +1774,12 @@
   <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="H11" sqref="A1:M141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="67.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1790,13 +1791,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1805,127 +1806,127 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
       <c r="M1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
       <c r="J2">
         <v>16953</v>
       </c>
       <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
       <c r="M2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
       </c>
       <c r="J3">
         <v>120670</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1937,36 +1938,36 @@
         <v>192051</v>
       </c>
       <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
       <c r="M4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1978,118 +1979,118 @@
         <v>37514</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>16</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
       </c>
       <c r="J6">
         <v>1557</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>16</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
       </c>
       <c r="J7">
         <v>8502</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -2101,36 +2102,36 @@
         <v>73515</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -2142,77 +2143,77 @@
         <v>37000</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
       </c>
       <c r="J10">
         <v>106243</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2224,77 +2225,77 @@
         <v>29120</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>42</v>
       </c>
       <c r="J12">
         <v>37700</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2306,36 +2307,36 @@
         <v>29940</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2347,36 +2348,36 @@
         <v>16885</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2388,241 +2389,241 @@
         <v>20190</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
         <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>49</v>
       </c>
       <c r="J16">
         <v>14551</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>52</v>
       </c>
       <c r="J17">
         <v>173267</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J18">
         <v>214222</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>56</v>
       </c>
       <c r="J19">
         <v>213244</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <v>24472</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2634,77 +2635,77 @@
         <v>31739</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
         <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>63</v>
       </c>
       <c r="J22">
         <v>43190</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2716,36 +2717,36 @@
         <v>28000</v>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2757,159 +2758,159 @@
         <v>36996</v>
       </c>
       <c r="K24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25">
         <v>340710</v>
       </c>
       <c r="K25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
         <v>16</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>17</v>
       </c>
       <c r="J26">
         <v>2799</v>
       </c>
       <c r="K26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27">
         <v>34345</v>
       </c>
       <c r="K27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2921,118 +2922,118 @@
         <v>63860</v>
       </c>
       <c r="K28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J29">
         <v>375966</v>
       </c>
       <c r="K29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J30">
         <v>375966</v>
       </c>
       <c r="K30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3044,118 +3045,118 @@
         <v>51760</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J32">
         <v>30000</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J33">
         <v>13112</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3167,118 +3168,118 @@
         <v>60630</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J35">
         <v>13000</v>
       </c>
       <c r="K35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J36">
         <v>12019</v>
       </c>
       <c r="K36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3290,36 +3291,36 @@
         <v>29820</v>
       </c>
       <c r="K37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3331,36 +3332,36 @@
         <v>37897</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3372,36 +3373,36 @@
         <v>1149512</v>
       </c>
       <c r="K39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -3413,36 +3414,36 @@
         <v>95551</v>
       </c>
       <c r="K40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -3454,118 +3455,118 @@
         <v>76440</v>
       </c>
       <c r="K41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>28098</v>
       </c>
       <c r="K42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
         <v>102</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
-        <v>103</v>
       </c>
       <c r="J43">
         <v>474407</v>
       </c>
       <c r="K43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -3577,241 +3578,241 @@
         <v>9250</v>
       </c>
       <c r="K44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J45">
         <v>72028</v>
       </c>
       <c r="K45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
         <v>109</v>
-      </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46" t="s">
-        <v>110</v>
       </c>
       <c r="J46">
         <v>1785241</v>
       </c>
       <c r="K46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J47">
         <v>1563018</v>
       </c>
       <c r="K47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J48">
         <v>1651741</v>
       </c>
       <c r="K48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J49">
         <v>27800</v>
       </c>
       <c r="K49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -3823,74 +3824,74 @@
         <v>165972</v>
       </c>
       <c r="K50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
         <v>16</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>17</v>
       </c>
       <c r="J51">
         <v>12411</v>
       </c>
       <c r="K51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -3902,36 +3903,36 @@
         <v>70000</v>
       </c>
       <c r="K52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M52" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -3943,36 +3944,36 @@
         <v>70000</v>
       </c>
       <c r="K53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -3984,159 +3985,159 @@
         <v>69488</v>
       </c>
       <c r="K54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M54" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
         <v>16</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55" t="s">
-        <v>17</v>
       </c>
       <c r="J55">
         <v>11053</v>
       </c>
       <c r="K55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J56">
         <v>223108</v>
       </c>
       <c r="K56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
         <v>16</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>17</v>
       </c>
       <c r="J57">
         <v>224350</v>
       </c>
       <c r="K57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -4148,159 +4149,159 @@
         <v>4573</v>
       </c>
       <c r="K58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
         <v>16</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59" t="s">
-        <v>17</v>
       </c>
       <c r="J59">
         <v>6963</v>
       </c>
       <c r="K59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
         <v>16</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>17</v>
       </c>
       <c r="J60">
         <v>22173</v>
       </c>
       <c r="K60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J61">
         <v>40376</v>
       </c>
       <c r="K61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -4312,77 +4313,77 @@
         <v>39063</v>
       </c>
       <c r="K62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
         <v>16</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>17</v>
       </c>
       <c r="J63">
         <v>4144</v>
       </c>
       <c r="K63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -4394,36 +4395,36 @@
         <v>7400</v>
       </c>
       <c r="K64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M64" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -4435,36 +4436,36 @@
         <v>64440</v>
       </c>
       <c r="K65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M65" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -4476,118 +4477,118 @@
         <v>21487</v>
       </c>
       <c r="K66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M66" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J67">
         <v>200982</v>
       </c>
       <c r="K67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M67" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J68">
         <v>283798</v>
       </c>
       <c r="K68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -4599,77 +4600,77 @@
         <v>14520</v>
       </c>
       <c r="K69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M69" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J70">
         <v>294895</v>
       </c>
       <c r="K70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -4681,200 +4682,200 @@
         <v>115000</v>
       </c>
       <c r="K71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
         <v>16</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72" t="s">
-        <v>17</v>
       </c>
       <c r="J72">
         <v>8535</v>
       </c>
       <c r="K72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M72" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J73">
         <v>136235</v>
       </c>
       <c r="K73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J74">
         <v>280217</v>
       </c>
       <c r="K74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M74" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J75">
         <v>22689</v>
       </c>
       <c r="K75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -4886,159 +4887,159 @@
         <v>5488</v>
       </c>
       <c r="K76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J77">
         <v>37226</v>
       </c>
       <c r="K77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J78">
         <v>35303</v>
       </c>
       <c r="K78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J79">
         <v>682287</v>
       </c>
       <c r="K79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -5050,36 +5051,36 @@
         <v>277500</v>
       </c>
       <c r="K80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -5091,364 +5092,364 @@
         <v>1739653</v>
       </c>
       <c r="K81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M81" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J82">
         <v>225456</v>
       </c>
       <c r="K82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M82" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
         <v>178</v>
-      </c>
-      <c r="B83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83" t="s">
-        <v>179</v>
       </c>
       <c r="J83">
         <v>200124</v>
       </c>
       <c r="K83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M83" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J84">
         <v>220460</v>
       </c>
       <c r="K84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M84" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
         <v>181</v>
-      </c>
-      <c r="B85" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85" t="s">
-        <v>182</v>
       </c>
       <c r="J85">
         <v>325444</v>
       </c>
       <c r="K85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J86">
         <v>250300</v>
       </c>
       <c r="K86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M86" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J87">
         <v>211125</v>
       </c>
       <c r="K87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L87" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M87" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J88">
         <v>330428</v>
       </c>
       <c r="K88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M88" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J89">
         <v>274321</v>
       </c>
       <c r="K89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -5460,36 +5461,36 @@
         <v>37252</v>
       </c>
       <c r="K90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M90" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -5501,241 +5502,241 @@
         <v>28667</v>
       </c>
       <c r="K91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J92">
         <v>247314</v>
       </c>
       <c r="K92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M92" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J93">
         <v>13000</v>
       </c>
       <c r="K93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M93" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J94">
         <v>63480</v>
       </c>
       <c r="K94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M94" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J95">
         <v>347985</v>
       </c>
       <c r="K95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M95" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J96">
         <v>347985</v>
       </c>
       <c r="K96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M96" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -5747,36 +5748,36 @@
         <v>63912</v>
       </c>
       <c r="K97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M97" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -5788,77 +5789,77 @@
         <v>41905</v>
       </c>
       <c r="K98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M98" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J99">
         <v>12927</v>
       </c>
       <c r="K99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L99" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M99" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -5870,118 +5871,118 @@
         <v>5000</v>
       </c>
       <c r="K100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M100" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J101">
         <v>162554</v>
       </c>
       <c r="K101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L101" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M101" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J102">
         <v>39930</v>
       </c>
       <c r="K102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M102" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -5993,36 +5994,36 @@
         <v>3132</v>
       </c>
       <c r="K103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M103" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -6034,77 +6035,77 @@
         <v>95000</v>
       </c>
       <c r="K104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M104" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J105">
         <v>8949</v>
       </c>
       <c r="K105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L105" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M105" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -6116,77 +6117,77 @@
         <v>7568</v>
       </c>
       <c r="K106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L106" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M106" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J107">
         <v>32414</v>
       </c>
       <c r="K107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L107" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M107" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -6198,77 +6199,77 @@
         <v>375108</v>
       </c>
       <c r="K108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L108" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M108" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J109">
         <v>376403</v>
       </c>
       <c r="K109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M109" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -6280,159 +6281,159 @@
         <v>2694875</v>
       </c>
       <c r="K110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L110" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M110" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>229</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
         <v>230</v>
-      </c>
-      <c r="B111" t="s">
-        <v>11</v>
-      </c>
-      <c r="C111" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" t="s">
-        <v>16</v>
-      </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="I111" t="s">
-        <v>231</v>
       </c>
       <c r="J111">
         <v>2500000</v>
       </c>
       <c r="K111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L111" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M111" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J112">
         <v>17173</v>
       </c>
       <c r="K112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L112" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M112" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J113">
         <v>63100</v>
       </c>
       <c r="K113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L113" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M113" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -6444,159 +6445,159 @@
         <v>121500</v>
       </c>
       <c r="K114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M114" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J115">
         <v>2543259</v>
       </c>
       <c r="K115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L115" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M115" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>240</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116" t="s">
         <v>241</v>
-      </c>
-      <c r="B116" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" t="s">
-        <v>13</v>
-      </c>
-      <c r="E116" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" t="s">
-        <v>16</v>
-      </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116" t="s">
-        <v>242</v>
       </c>
       <c r="J116">
         <v>1601706</v>
       </c>
       <c r="K116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M116" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J117">
         <v>1398294</v>
       </c>
       <c r="K117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L117" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M117" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -6608,282 +6609,282 @@
         <v>34320</v>
       </c>
       <c r="K118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L118" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M118" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H119">
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J119">
         <v>50000</v>
       </c>
       <c r="K119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L119" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M119" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J120">
         <v>30432</v>
       </c>
       <c r="K120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M120" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J121">
         <v>501284</v>
       </c>
       <c r="K121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L121" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M121" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G122" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122" t="s">
         <v>16</v>
-      </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-      <c r="I122" t="s">
-        <v>17</v>
       </c>
       <c r="J122">
         <v>225556</v>
       </c>
       <c r="K122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L122" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123" t="s">
         <v>16</v>
-      </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-      <c r="I123" t="s">
-        <v>17</v>
       </c>
       <c r="J123">
         <v>226653</v>
       </c>
       <c r="K123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L123" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M123" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J124">
         <v>247458</v>
       </c>
       <c r="K124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L124" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M124" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -6895,77 +6896,77 @@
         <v>73900</v>
       </c>
       <c r="K125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L125" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M125" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J126">
         <v>700000</v>
       </c>
       <c r="K126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L126" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M126" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -6977,36 +6978,36 @@
         <v>11850</v>
       </c>
       <c r="K127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M127" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -7018,36 +7019,36 @@
         <v>1924745</v>
       </c>
       <c r="K128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L128" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M128" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -7059,36 +7060,36 @@
         <v>2075255</v>
       </c>
       <c r="K129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L129" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M129" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -7100,200 +7101,200 @@
         <v>3000000</v>
       </c>
       <c r="K130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L130" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M130" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J131">
         <v>170200</v>
       </c>
       <c r="K131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L131" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M131" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J132">
         <v>2245741</v>
       </c>
       <c r="K132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L132" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M132" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H133">
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J133">
         <v>11225</v>
       </c>
       <c r="K133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L133" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M133" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J134">
         <v>212700</v>
       </c>
       <c r="K134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L134" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M134" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -7305,77 +7306,77 @@
         <v>30362</v>
       </c>
       <c r="K135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L135" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M135" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J136">
         <v>63566</v>
       </c>
       <c r="K136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L136" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M136" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -7387,36 +7388,36 @@
         <v>59682</v>
       </c>
       <c r="K137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L137" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M137" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -7428,36 +7429,36 @@
         <v>59680</v>
       </c>
       <c r="K138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L138" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M138" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -7469,77 +7470,77 @@
         <v>26082</v>
       </c>
       <c r="K139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L139" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M139" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J140">
         <v>65205</v>
       </c>
       <c r="K140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L140" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M140" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -7551,13 +7552,13 @@
         <v>30029</v>
       </c>
       <c r="K141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L141" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M141" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/TRACK.xlsx
+++ b/TRACK.xlsx
@@ -525,9 +525,6 @@
     <t>JANURARY  2063</t>
   </si>
   <si>
-    <t xml:space="preserve">EUR  </t>
-  </si>
-  <si>
     <t>A.C INTERNATIONAL TRADING COMPANY LIMITED</t>
   </si>
   <si>
@@ -657,9 +654,6 @@
     <t>JANURARY  2075</t>
   </si>
   <si>
-    <t>EUR</t>
-  </si>
-  <si>
     <t>PECUNION CHEMICALS DMCC</t>
   </si>
   <si>
@@ -811,6 +805,12 @@
   </si>
   <si>
     <t>ASAD HUSSAIN ALI KIKHA GENERAL TRADING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EURO  </t>
+  </si>
+  <si>
+    <t>EURO</t>
   </si>
 </sst>
 </file>
@@ -1619,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="A1:M74"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K37" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3506,36 +3506,36 @@
         <v>584040</v>
       </c>
       <c r="K46" t="s">
+        <v>262</v>
+      </c>
+      <c r="L46" t="s">
         <v>168</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>169</v>
-      </c>
-      <c r="M46" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
         <v>171</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>172</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -3547,36 +3547,36 @@
         <v>31087</v>
       </c>
       <c r="K47" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="L47" t="s">
+        <v>172</v>
+      </c>
+      <c r="M47" t="s">
         <v>173</v>
-      </c>
-      <c r="M47" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
         <v>175</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>176</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -3588,10 +3588,10 @@
         <v>87858</v>
       </c>
       <c r="K48" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="L48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M48" t="s">
         <v>67</v>
@@ -3599,25 +3599,25 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
         <v>178</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>179</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -3629,36 +3629,36 @@
         <v>74289</v>
       </c>
       <c r="K49" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="L49" t="s">
+        <v>179</v>
+      </c>
+      <c r="M49" t="s">
         <v>180</v>
-      </c>
-      <c r="M49" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
         <v>182</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>183</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -3670,36 +3670,36 @@
         <v>291100</v>
       </c>
       <c r="K50" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="L50" t="s">
+        <v>183</v>
+      </c>
+      <c r="M50" t="s">
         <v>184</v>
-      </c>
-      <c r="M50" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
         <v>186</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>187</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -3711,36 +3711,36 @@
         <v>142218</v>
       </c>
       <c r="K51" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="L51" t="s">
+        <v>183</v>
+      </c>
+      <c r="M51" t="s">
         <v>184</v>
-      </c>
-      <c r="M51" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
         <v>188</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>189</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -3752,36 +3752,36 @@
         <v>6670</v>
       </c>
       <c r="K52" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="L52" t="s">
+        <v>189</v>
+      </c>
+      <c r="M52" t="s">
         <v>190</v>
-      </c>
-      <c r="M52" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s">
         <v>192</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>193</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -3793,36 +3793,36 @@
         <v>114600</v>
       </c>
       <c r="K53" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="L53" t="s">
+        <v>193</v>
+      </c>
+      <c r="M53" t="s">
         <v>194</v>
-      </c>
-      <c r="M53" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
         <v>196</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>197</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -3834,36 +3834,36 @@
         <v>56800</v>
       </c>
       <c r="K54" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="L54" t="s">
+        <v>197</v>
+      </c>
+      <c r="M54" t="s">
         <v>198</v>
-      </c>
-      <c r="M54" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
         <v>200</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>201</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -3875,36 +3875,36 @@
         <v>104030</v>
       </c>
       <c r="K55" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="L55" t="s">
+        <v>201</v>
+      </c>
+      <c r="M55" t="s">
         <v>202</v>
-      </c>
-      <c r="M55" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
         <v>204</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>205</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -3916,36 +3916,36 @@
         <v>57920</v>
       </c>
       <c r="K56" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="L56" t="s">
+        <v>201</v>
+      </c>
+      <c r="M56" t="s">
         <v>202</v>
-      </c>
-      <c r="M56" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s">
         <v>206</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>207</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -3957,36 +3957,36 @@
         <v>29178</v>
       </c>
       <c r="K57" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="L57" t="s">
+        <v>207</v>
+      </c>
+      <c r="M57" t="s">
         <v>208</v>
-      </c>
-      <c r="M57" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>209</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
         <v>210</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>211</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -3998,10 +3998,10 @@
         <v>990000</v>
       </c>
       <c r="K58" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="L58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M58" t="s">
         <v>15</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -4027,7 +4027,7 @@
         <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -4039,18 +4039,18 @@
         <v>122444</v>
       </c>
       <c r="K59" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="L59" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M59" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -4068,7 +4068,7 @@
         <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -4080,10 +4080,10 @@
         <v>1045377</v>
       </c>
       <c r="K60" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M60" t="s">
         <v>15</v>
@@ -4091,7 +4091,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -4109,7 +4109,7 @@
         <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -4121,10 +4121,10 @@
         <v>2040212</v>
       </c>
       <c r="K61" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L61" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M61" t="s">
         <v>15</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -4150,7 +4150,7 @@
         <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -4162,10 +4162,10 @@
         <v>756108</v>
       </c>
       <c r="K62" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M62" t="s">
         <v>15</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -4191,7 +4191,7 @@
         <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -4203,10 +4203,10 @@
         <v>2000000</v>
       </c>
       <c r="K63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L63" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M63" t="s">
         <v>15</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
@@ -4232,7 +4232,7 @@
         <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -4244,10 +4244,10 @@
         <v>5000000</v>
       </c>
       <c r="K64" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L64" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M64" t="s">
         <v>15</v>
@@ -4255,37 +4255,37 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
+        <v>233</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
         <v>234</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>235</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65" t="s">
-        <v>236</v>
       </c>
       <c r="J65">
         <v>6338438</v>
       </c>
       <c r="K65" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L65" t="s">
         <v>112</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -4314,7 +4314,7 @@
         <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -4326,10 +4326,10 @@
         <v>520777</v>
       </c>
       <c r="K66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L66" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M66" t="s">
         <v>15</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -4355,7 +4355,7 @@
         <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -4367,10 +4367,10 @@
         <v>1320860</v>
       </c>
       <c r="K67" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M67" t="s">
         <v>15</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -4396,7 +4396,7 @@
         <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -4408,10 +4408,10 @@
         <v>964698</v>
       </c>
       <c r="K68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L68" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M68" t="s">
         <v>15</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -4437,7 +4437,7 @@
         <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -4449,18 +4449,18 @@
         <v>1106358.5</v>
       </c>
       <c r="K69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L69" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M69" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -4478,7 +4478,7 @@
         <v>18</v>
       </c>
       <c r="G70" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -4490,10 +4490,10 @@
         <v>722933</v>
       </c>
       <c r="K70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L70" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M70" t="s">
         <v>15</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
@@ -4519,7 +4519,7 @@
         <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -4531,18 +4531,18 @@
         <v>764516</v>
       </c>
       <c r="K71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L71" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M71" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -4560,7 +4560,7 @@
         <v>18</v>
       </c>
       <c r="G72" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -4572,10 +4572,10 @@
         <v>618578</v>
       </c>
       <c r="K72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L72" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M72" t="s">
         <v>15</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
@@ -4601,30 +4601,30 @@
         <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J73">
         <v>6835656</v>
       </c>
       <c r="K73" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L73" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M73" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
@@ -4642,7 +4642,7 @@
         <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -4654,10 +4654,10 @@
         <v>771809</v>
       </c>
       <c r="K74" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L74" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M74" t="s">
         <v>15</v>

--- a/TRACK.xlsx
+++ b/TRACK.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="262">
   <si>
     <t>refrence</t>
   </si>
@@ -84,9 +84,6 @@
     <t>17/01/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">AED  </t>
-  </si>
-  <si>
     <t>A T S HEAVY EQUIPMENT AND MACHINERY SPARE PARTS TRADING LLC</t>
   </si>
   <si>
@@ -805,9 +802,6 @@
   </si>
   <si>
     <t>ASAD HUSSAIN ALI KIKHA GENERAL TRADING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EURO  </t>
   </si>
   <si>
     <t>EURO</t>
@@ -1294,8 +1288,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1620,13 +1615,14 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K37" sqref="K1:K1048576"/>
+      <selection activeCell="I37" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1654,7 +1650,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1695,17 +1691,17 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J2">
         <v>55000</v>
       </c>
       <c r="K2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L2" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -1713,40 +1709,40 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J3">
         <v>248671</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
         <v>15</v>
@@ -1754,40 +1750,40 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
       </c>
       <c r="H4">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
-        <v>28</v>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J4">
         <v>1828466</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
@@ -1795,40 +1791,40 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
       </c>
       <c r="J5">
         <v>288801</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
         <v>15</v>
@@ -1836,40 +1832,40 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
       </c>
       <c r="H6">
         <v>45</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>43709</v>
       </c>
       <c r="J6">
         <v>266550</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
         <v>15</v>
@@ -1877,40 +1873,40 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
       </c>
       <c r="J7">
         <v>1000000</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
         <v>15</v>
@@ -1918,40 +1914,40 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
-        <v>39</v>
+      <c r="I8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="J8">
         <v>250000</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
@@ -1959,40 +1955,40 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
       </c>
       <c r="H9">
         <v>45</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>43678</v>
       </c>
       <c r="J9">
         <v>1480000</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s">
         <v>15</v>
@@ -2000,40 +1996,40 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>49</v>
       </c>
       <c r="J10">
         <v>2457216</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
@@ -2041,40 +2037,40 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
       </c>
       <c r="J11">
         <v>121446</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M11" t="s">
         <v>15</v>
@@ -2082,40 +2078,40 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
         <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
       </c>
       <c r="H12">
         <v>35</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>43647</v>
       </c>
       <c r="J12">
         <v>995793</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M12" t="s">
         <v>15</v>
@@ -2123,40 +2119,40 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
-        <v>39</v>
+      <c r="I13" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="J13">
         <v>1000000</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M13" t="s">
         <v>15</v>
@@ -2164,163 +2160,163 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
         <v>60</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
-      </c>
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" t="s">
-        <v>28</v>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J14">
         <v>360000</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" t="s">
         <v>62</v>
-      </c>
-      <c r="M14" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
         <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
       </c>
       <c r="H15">
         <v>45</v>
       </c>
-      <c r="I15" t="s">
-        <v>52</v>
+      <c r="I15" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="J15">
         <v>126247</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" t="s">
         <v>66</v>
-      </c>
-      <c r="M15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
         <v>68</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>70</v>
       </c>
       <c r="J16">
         <v>384213</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" t="s">
         <v>71</v>
-      </c>
-      <c r="M16" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>43647</v>
       </c>
       <c r="J17">
         <v>657000</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M17" t="s">
         <v>15</v>
@@ -2328,40 +2324,40 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
         <v>76</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>77</v>
       </c>
       <c r="H18">
         <v>35</v>
       </c>
-      <c r="I18" t="s">
-        <v>78</v>
+      <c r="I18" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="J18">
         <v>373125</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" t="s">
         <v>15</v>
@@ -2369,40 +2365,40 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
         <v>80</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>82</v>
       </c>
       <c r="J19">
         <v>33087</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M19" t="s">
         <v>15</v>
@@ -2410,40 +2406,40 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
         <v>84</v>
       </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>85</v>
-      </c>
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" t="s">
-        <v>49</v>
+      <c r="I20" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="J20">
         <v>438900</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M20" t="s">
         <v>15</v>
@@ -2451,40 +2447,40 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
         <v>87</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>89</v>
       </c>
       <c r="J21">
         <v>684540</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M21" t="s">
         <v>15</v>
@@ -2492,40 +2488,40 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
         <v>91</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>92</v>
-      </c>
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22" t="s">
-        <v>39</v>
+      <c r="I22" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="J22">
         <v>332608</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M22" t="s">
         <v>15</v>
@@ -2533,40 +2529,40 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
         <v>94</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>95</v>
-      </c>
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>43586</v>
       </c>
       <c r="J23">
         <v>71397</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M23" t="s">
         <v>15</v>
@@ -2574,40 +2570,40 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
         <v>97</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>98</v>
-      </c>
       <c r="H24">
         <v>1</v>
       </c>
-      <c r="I24" t="s">
-        <v>39</v>
+      <c r="I24" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="J24">
         <v>1433783</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M24" t="s">
         <v>15</v>
@@ -2615,81 +2611,81 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
         <v>100</v>
       </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>101</v>
-      </c>
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" t="s">
-        <v>28</v>
+      <c r="I25" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J25">
         <v>802763</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
         <v>103</v>
       </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>105</v>
       </c>
       <c r="J26">
         <v>663407</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M26" t="s">
         <v>15</v>
@@ -2697,81 +2693,81 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
         <v>107</v>
       </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>108</v>
-      </c>
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>43709</v>
       </c>
       <c r="J27">
         <v>211674</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
         <v>110</v>
       </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>111</v>
-      </c>
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <v>43647</v>
       </c>
       <c r="J28">
         <v>1000000</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M28" t="s">
         <v>15</v>
@@ -2779,40 +2775,40 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
         <v>113</v>
       </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>114</v>
-      </c>
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>43800</v>
       </c>
       <c r="J29">
         <v>387613</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M29" t="s">
         <v>15</v>
@@ -2820,40 +2816,40 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
         <v>116</v>
       </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>117</v>
-      </c>
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J30">
         <v>538450</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M30" t="s">
         <v>15</v>
@@ -2861,40 +2857,40 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
         <v>119</v>
       </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>120</v>
-      </c>
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <v>43647</v>
       </c>
       <c r="J31">
         <v>404000</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M31" t="s">
         <v>15</v>
@@ -2902,40 +2898,40 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
         <v>122</v>
       </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>123</v>
-      </c>
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32" t="s">
-        <v>32</v>
+      <c r="I32" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="J32">
         <v>1600000</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M32" t="s">
         <v>15</v>
@@ -2943,40 +2939,40 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
         <v>124</v>
       </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>126</v>
       </c>
       <c r="J33">
         <v>1000000</v>
       </c>
       <c r="K33" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M33" t="s">
         <v>15</v>
@@ -2984,40 +2980,40 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
         <v>128</v>
       </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>129</v>
-      </c>
       <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1">
         <v>43586</v>
       </c>
       <c r="J34">
         <v>290164</v>
       </c>
       <c r="K34" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M34" t="s">
         <v>15</v>
@@ -3025,40 +3021,40 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
         <v>131</v>
       </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>132</v>
-      </c>
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="1">
         <v>43497</v>
       </c>
       <c r="J35">
         <v>559050</v>
       </c>
       <c r="K35" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M35" t="s">
         <v>15</v>
@@ -3066,40 +3062,40 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
         <v>134</v>
       </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>135</v>
-      </c>
       <c r="H36">
         <v>1</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>43497</v>
       </c>
       <c r="J36">
         <v>525340</v>
       </c>
       <c r="K36" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M36" t="s">
         <v>15</v>
@@ -3107,40 +3103,40 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
         <v>136</v>
       </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>137</v>
-      </c>
       <c r="H37">
         <v>1</v>
       </c>
-      <c r="I37" t="s">
-        <v>78</v>
+      <c r="I37" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="J37">
         <v>60960</v>
       </c>
       <c r="K37" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M37" t="s">
         <v>15</v>
@@ -3148,40 +3144,40 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
         <v>139</v>
       </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>140</v>
-      </c>
       <c r="H38">
         <v>1</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="1">
         <v>43647</v>
       </c>
       <c r="J38">
         <v>2000000</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M38" t="s">
         <v>15</v>
@@ -3189,81 +3185,81 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
         <v>142</v>
       </c>
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>143</v>
-      </c>
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39" t="s">
-        <v>49</v>
+      <c r="I39" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="J39">
         <v>341860</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L39" t="s">
+        <v>143</v>
+      </c>
+      <c r="M39" t="s">
         <v>144</v>
-      </c>
-      <c r="M39" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
         <v>146</v>
       </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>147</v>
-      </c>
       <c r="H40">
         <v>1</v>
       </c>
-      <c r="I40" t="s">
-        <v>78</v>
+      <c r="I40" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="J40">
         <v>1100000</v>
       </c>
       <c r="K40" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M40" t="s">
         <v>15</v>
@@ -3271,81 +3267,81 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
         <v>149</v>
       </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>150</v>
-      </c>
       <c r="H41">
         <v>1</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1">
         <v>43586</v>
       </c>
       <c r="J41">
         <v>137190</v>
       </c>
       <c r="K41" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
         <v>152</v>
       </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42" t="s">
-        <v>154</v>
       </c>
       <c r="J42">
         <v>1279987</v>
       </c>
       <c r="K42" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M42" t="s">
         <v>15</v>
@@ -3353,81 +3349,81 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
         <v>156</v>
       </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>157</v>
-      </c>
       <c r="H43">
         <v>1</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="1">
         <v>43647</v>
       </c>
       <c r="J43">
         <v>201321</v>
       </c>
       <c r="K43" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s">
+        <v>157</v>
+      </c>
+      <c r="M43" t="s">
         <v>158</v>
-      </c>
-      <c r="M43" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
         <v>160</v>
       </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>161</v>
-      </c>
       <c r="H44">
         <v>1</v>
       </c>
-      <c r="I44" t="s">
-        <v>28</v>
+      <c r="I44" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J44">
         <v>378999</v>
       </c>
       <c r="K44" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M44" t="s">
         <v>15</v>
@@ -3435,40 +3431,40 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
         <v>163</v>
       </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>164</v>
-      </c>
       <c r="H45">
         <v>1</v>
       </c>
-      <c r="I45" t="s">
-        <v>105</v>
+      <c r="I45" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="J45">
         <v>7376</v>
       </c>
       <c r="K45" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="L45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M45" t="s">
         <v>15</v>
@@ -3476,532 +3472,532 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
         <v>166</v>
       </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>167</v>
-      </c>
       <c r="H46">
         <v>1</v>
       </c>
-      <c r="I46" t="s">
-        <v>126</v>
+      <c r="I46" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="J46">
         <v>584040</v>
       </c>
       <c r="K46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L46" t="s">
+        <v>167</v>
+      </c>
+      <c r="M46" t="s">
         <v>168</v>
-      </c>
-      <c r="M46" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
         <v>170</v>
       </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>171</v>
-      </c>
       <c r="H47">
         <v>1</v>
       </c>
-      <c r="I47" t="s">
-        <v>28</v>
+      <c r="I47" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J47">
         <v>31087</v>
       </c>
       <c r="K47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L47" t="s">
+        <v>171</v>
+      </c>
+      <c r="M47" t="s">
         <v>172</v>
-      </c>
-      <c r="M47" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
         <v>174</v>
       </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>175</v>
-      </c>
       <c r="H48">
         <v>1</v>
       </c>
-      <c r="I48" t="s">
-        <v>82</v>
+      <c r="I48" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="J48">
         <v>87858</v>
       </c>
       <c r="K48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
         <v>177</v>
       </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>178</v>
-      </c>
       <c r="H49">
         <v>1</v>
       </c>
-      <c r="I49" t="s">
-        <v>28</v>
+      <c r="I49" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J49">
         <v>74289</v>
       </c>
       <c r="K49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L49" t="s">
+        <v>178</v>
+      </c>
+      <c r="M49" t="s">
         <v>179</v>
-      </c>
-      <c r="M49" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
         <v>181</v>
       </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>182</v>
-      </c>
       <c r="H50">
         <v>1</v>
       </c>
-      <c r="I50" t="s">
-        <v>89</v>
+      <c r="I50" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J50">
         <v>291100</v>
       </c>
       <c r="K50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L50" t="s">
+        <v>182</v>
+      </c>
+      <c r="M50" t="s">
         <v>183</v>
-      </c>
-      <c r="M50" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
         <v>185</v>
       </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>186</v>
-      </c>
       <c r="H51">
         <v>1</v>
       </c>
-      <c r="I51" t="s">
-        <v>89</v>
+      <c r="I51" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J51">
         <v>142218</v>
       </c>
       <c r="K51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L51" t="s">
+        <v>182</v>
+      </c>
+      <c r="M51" t="s">
         <v>183</v>
-      </c>
-      <c r="M51" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
         <v>187</v>
       </c>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>188</v>
-      </c>
       <c r="H52">
         <v>1</v>
       </c>
-      <c r="I52" t="s">
-        <v>82</v>
+      <c r="I52" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="J52">
         <v>6670</v>
       </c>
       <c r="K52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L52" t="s">
+        <v>188</v>
+      </c>
+      <c r="M52" t="s">
         <v>189</v>
-      </c>
-      <c r="M52" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s">
         <v>191</v>
       </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>192</v>
-      </c>
       <c r="H53">
         <v>1</v>
       </c>
-      <c r="I53" t="s">
-        <v>126</v>
+      <c r="I53" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="J53">
         <v>114600</v>
       </c>
       <c r="K53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L53" t="s">
+        <v>192</v>
+      </c>
+      <c r="M53" t="s">
         <v>193</v>
-      </c>
-      <c r="M53" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
         <v>195</v>
       </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>196</v>
-      </c>
       <c r="H54">
         <v>1</v>
       </c>
-      <c r="I54" t="s">
-        <v>28</v>
+      <c r="I54" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J54">
         <v>56800</v>
       </c>
       <c r="K54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L54" t="s">
+        <v>196</v>
+      </c>
+      <c r="M54" t="s">
         <v>197</v>
-      </c>
-      <c r="M54" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
         <v>199</v>
       </c>
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>200</v>
-      </c>
       <c r="H55">
         <v>1</v>
       </c>
-      <c r="I55" t="s">
-        <v>89</v>
+      <c r="I55" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J55">
         <v>104030</v>
       </c>
       <c r="K55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L55" t="s">
+        <v>200</v>
+      </c>
+      <c r="M55" t="s">
         <v>201</v>
-      </c>
-      <c r="M55" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
         <v>203</v>
       </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>204</v>
-      </c>
       <c r="H56">
         <v>1</v>
       </c>
-      <c r="I56" t="s">
-        <v>82</v>
+      <c r="I56" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="J56">
         <v>57920</v>
       </c>
       <c r="K56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L56" t="s">
+        <v>200</v>
+      </c>
+      <c r="M56" t="s">
         <v>201</v>
-      </c>
-      <c r="M56" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s">
         <v>205</v>
       </c>
-      <c r="B57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>206</v>
-      </c>
       <c r="H57">
         <v>1</v>
       </c>
-      <c r="I57" t="s">
-        <v>28</v>
+      <c r="I57" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J57">
         <v>29178</v>
       </c>
       <c r="K57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L57" t="s">
+        <v>206</v>
+      </c>
+      <c r="M57" t="s">
         <v>207</v>
-      </c>
-      <c r="M57" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
         <v>209</v>
       </c>
-      <c r="B58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>210</v>
-      </c>
       <c r="H58">
         <v>1</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="1">
         <v>43647</v>
       </c>
       <c r="J58">
         <v>990000</v>
       </c>
       <c r="K58" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M58" t="s">
         <v>15</v>
@@ -4009,81 +4005,81 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s">
         <v>212</v>
       </c>
-      <c r="B59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>213</v>
-      </c>
       <c r="H59">
         <v>1</v>
       </c>
-      <c r="I59" t="s">
-        <v>28</v>
+      <c r="I59" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J59">
         <v>122444</v>
       </c>
       <c r="K59" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L59" t="s">
+        <v>213</v>
+      </c>
+      <c r="M59" t="s">
         <v>214</v>
-      </c>
-      <c r="M59" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>215</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s">
         <v>216</v>
       </c>
-      <c r="B60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>217</v>
-      </c>
       <c r="H60">
         <v>1</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J60">
         <v>1045377</v>
       </c>
       <c r="K60" t="s">
+        <v>217</v>
+      </c>
+      <c r="L60" t="s">
         <v>218</v>
-      </c>
-      <c r="L60" t="s">
-        <v>219</v>
       </c>
       <c r="M60" t="s">
         <v>15</v>
@@ -4091,40 +4087,40 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>219</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s">
         <v>220</v>
       </c>
-      <c r="B61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>221</v>
-      </c>
       <c r="H61">
         <v>1</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="1">
         <v>43617</v>
       </c>
       <c r="J61">
         <v>2040212</v>
       </c>
       <c r="K61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M61" t="s">
         <v>15</v>
@@ -4132,40 +4128,40 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s">
         <v>223</v>
       </c>
-      <c r="B62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>224</v>
-      </c>
       <c r="H62">
         <v>1</v>
       </c>
-      <c r="I62" t="s">
-        <v>28</v>
+      <c r="I62" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J62">
         <v>756108</v>
       </c>
       <c r="K62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M62" t="s">
         <v>15</v>
@@ -4173,40 +4169,40 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s">
         <v>226</v>
       </c>
-      <c r="B63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>227</v>
-      </c>
       <c r="H63">
         <v>1</v>
       </c>
-      <c r="I63" t="s">
-        <v>78</v>
+      <c r="I63" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="J63">
         <v>2000000</v>
       </c>
       <c r="K63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M63" t="s">
         <v>15</v>
@@ -4214,40 +4210,40 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>228</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s">
         <v>229</v>
       </c>
-      <c r="B64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>230</v>
-      </c>
       <c r="H64">
         <v>1</v>
       </c>
-      <c r="I64" t="s">
-        <v>32</v>
+      <c r="I64" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="J64">
         <v>5000000</v>
       </c>
       <c r="K64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M64" t="s">
         <v>15</v>
@@ -4255,40 +4251,40 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>231</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
         <v>232</v>
       </c>
-      <c r="B65" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65" t="s">
-        <v>234</v>
       </c>
       <c r="J65">
         <v>6338438</v>
       </c>
       <c r="K65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M65" t="s">
         <v>15</v>
@@ -4296,40 +4292,40 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>234</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s">
         <v>235</v>
       </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>236</v>
-      </c>
       <c r="H66">
         <v>1</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="1">
         <v>43525</v>
       </c>
       <c r="J66">
         <v>520777</v>
       </c>
       <c r="K66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M66" t="s">
         <v>15</v>
@@ -4337,40 +4333,40 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s">
         <v>238</v>
       </c>
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>239</v>
-      </c>
       <c r="H67">
         <v>1</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="1">
         <v>43647</v>
       </c>
       <c r="J67">
         <v>1320860</v>
       </c>
       <c r="K67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M67" t="s">
         <v>15</v>
@@ -4378,40 +4374,40 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>240</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s">
         <v>241</v>
       </c>
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>242</v>
-      </c>
       <c r="H68">
         <v>1</v>
       </c>
-      <c r="I68" t="s">
-        <v>82</v>
+      <c r="I68" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="J68">
         <v>964698</v>
       </c>
       <c r="K68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M68" t="s">
         <v>15</v>
@@ -4419,81 +4415,81 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>243</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s">
         <v>244</v>
       </c>
-      <c r="B69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>245</v>
-      </c>
       <c r="H69">
         <v>1</v>
       </c>
-      <c r="I69" t="s">
-        <v>39</v>
+      <c r="I69" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="J69">
         <v>1106358.5</v>
       </c>
       <c r="K69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L69" t="s">
+        <v>245</v>
+      </c>
+      <c r="M69" t="s">
         <v>246</v>
-      </c>
-      <c r="M69" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>247</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s">
         <v>248</v>
       </c>
-      <c r="B70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>249</v>
-      </c>
       <c r="H70">
         <v>1</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="1">
         <v>43800</v>
       </c>
       <c r="J70">
         <v>722933</v>
       </c>
       <c r="K70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M70" t="s">
         <v>15</v>
@@ -4501,81 +4497,81 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>250</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s">
         <v>251</v>
       </c>
-      <c r="B71" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>252</v>
-      </c>
       <c r="H71">
         <v>1</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="1">
         <v>43647</v>
       </c>
       <c r="J71">
         <v>764516</v>
       </c>
       <c r="K71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L71" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>253</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s">
         <v>254</v>
       </c>
-      <c r="B72" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>255</v>
-      </c>
       <c r="H72">
         <v>1</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="1">
         <v>43525</v>
       </c>
       <c r="J72">
         <v>618578</v>
       </c>
       <c r="K72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L72" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M72" t="s">
         <v>15</v>
@@ -4583,81 +4579,81 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>255</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s">
         <v>256</v>
       </c>
-      <c r="B73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>257</v>
-      </c>
       <c r="H73">
         <v>1</v>
       </c>
-      <c r="I73" t="s">
-        <v>234</v>
+      <c r="I73" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="J73">
         <v>6835656</v>
       </c>
       <c r="K73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L73" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>258</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s">
         <v>259</v>
       </c>
-      <c r="B74" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>260</v>
-      </c>
       <c r="H74">
         <v>1</v>
       </c>
-      <c r="I74" t="s">
-        <v>82</v>
+      <c r="I74" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="J74">
         <v>771809</v>
       </c>
       <c r="K74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M74" t="s">
         <v>15</v>

--- a/TRACK.xlsx
+++ b/TRACK.xlsx
@@ -1614,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I37" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,7 +1689,7 @@
         <v>19</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>20</v>
@@ -1730,7 +1730,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -1812,7 +1812,7 @@
         <v>30</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>31</v>
@@ -1853,7 +1853,7 @@
         <v>34</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I6" s="1">
         <v>43709</v>
@@ -1894,7 +1894,7 @@
         <v>37</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>38</v>
@@ -1935,7 +1935,7 @@
         <v>41</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>38</v>
@@ -1976,7 +1976,7 @@
         <v>44</v>
       </c>
       <c r="H9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I9" s="1">
         <v>43678</v>
@@ -2017,7 +2017,7 @@
         <v>47</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>48</v>
@@ -2058,7 +2058,7 @@
         <v>50</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>51</v>
@@ -2140,7 +2140,7 @@
         <v>57</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>38</v>
@@ -2181,7 +2181,7 @@
         <v>60</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>27</v>
@@ -2222,7 +2222,7 @@
         <v>64</v>
       </c>
       <c r="H15">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>51</v>
@@ -2263,7 +2263,7 @@
         <v>68</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>69</v>
@@ -2304,7 +2304,7 @@
         <v>73</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I17" s="1">
         <v>43647</v>
@@ -2386,7 +2386,7 @@
         <v>80</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>81</v>
@@ -2427,7 +2427,7 @@
         <v>84</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>48</v>
@@ -2468,7 +2468,7 @@
         <v>87</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>88</v>
@@ -2509,7 +2509,7 @@
         <v>91</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>38</v>
@@ -2550,7 +2550,7 @@
         <v>94</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I23" s="1">
         <v>43586</v>
@@ -2591,7 +2591,7 @@
         <v>97</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>38</v>
@@ -2632,7 +2632,7 @@
         <v>100</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>27</v>
@@ -2673,7 +2673,7 @@
         <v>103</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>104</v>
@@ -2714,7 +2714,7 @@
         <v>107</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I27" s="1">
         <v>43709</v>
@@ -2755,7 +2755,7 @@
         <v>110</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I28" s="1">
         <v>43647</v>
@@ -2796,7 +2796,7 @@
         <v>113</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I29" s="1">
         <v>43800</v>
@@ -2837,7 +2837,7 @@
         <v>116</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>20</v>
@@ -2878,7 +2878,7 @@
         <v>119</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I31" s="1">
         <v>43647</v>
@@ -2919,7 +2919,7 @@
         <v>122</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>31</v>
@@ -2960,7 +2960,7 @@
         <v>124</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>125</v>
@@ -3001,7 +3001,7 @@
         <v>128</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I34" s="1">
         <v>43586</v>
@@ -3042,7 +3042,7 @@
         <v>131</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I35" s="1">
         <v>43497</v>
@@ -3083,7 +3083,7 @@
         <v>134</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I36" s="1">
         <v>43497</v>
@@ -3124,7 +3124,7 @@
         <v>136</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>77</v>
@@ -3165,7 +3165,7 @@
         <v>139</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I38" s="1">
         <v>43647</v>
@@ -3206,7 +3206,7 @@
         <v>142</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>48</v>
@@ -3247,7 +3247,7 @@
         <v>146</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>77</v>
@@ -3288,7 +3288,7 @@
         <v>149</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I41" s="1">
         <v>43586</v>
@@ -3329,7 +3329,7 @@
         <v>152</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>153</v>
@@ -3370,7 +3370,7 @@
         <v>156</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I43" s="1">
         <v>43647</v>
@@ -3411,7 +3411,7 @@
         <v>160</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>27</v>
@@ -3452,7 +3452,7 @@
         <v>163</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>104</v>
@@ -3493,7 +3493,7 @@
         <v>166</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>125</v>
@@ -3534,7 +3534,7 @@
         <v>170</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>27</v>
@@ -3575,7 +3575,7 @@
         <v>174</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>81</v>
@@ -3616,7 +3616,7 @@
         <v>177</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>27</v>
@@ -3657,7 +3657,7 @@
         <v>181</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>88</v>
@@ -3698,7 +3698,7 @@
         <v>185</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>88</v>
@@ -3739,7 +3739,7 @@
         <v>187</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>81</v>
@@ -3780,7 +3780,7 @@
         <v>191</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>125</v>
@@ -3821,7 +3821,7 @@
         <v>195</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>27</v>
@@ -3862,7 +3862,7 @@
         <v>199</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>88</v>
@@ -3903,7 +3903,7 @@
         <v>203</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>81</v>
@@ -3944,7 +3944,7 @@
         <v>205</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>27</v>
@@ -3985,7 +3985,7 @@
         <v>209</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I58" s="1">
         <v>43647</v>
@@ -4026,7 +4026,7 @@
         <v>212</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>27</v>
@@ -4067,7 +4067,7 @@
         <v>216</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>20</v>
@@ -4108,7 +4108,7 @@
         <v>220</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I61" s="1">
         <v>43617</v>
@@ -4149,7 +4149,7 @@
         <v>223</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>27</v>
@@ -4190,7 +4190,7 @@
         <v>226</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>77</v>
@@ -4231,7 +4231,7 @@
         <v>229</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>31</v>
@@ -4272,7 +4272,7 @@
         <v>232</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>233</v>
@@ -4313,7 +4313,7 @@
         <v>235</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I66" s="1">
         <v>43525</v>
@@ -4354,7 +4354,7 @@
         <v>238</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I67" s="1">
         <v>43647</v>
@@ -4395,7 +4395,7 @@
         <v>241</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>81</v>
@@ -4436,7 +4436,7 @@
         <v>244</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>38</v>
@@ -4477,7 +4477,7 @@
         <v>248</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I70" s="1">
         <v>43800</v>
@@ -4518,7 +4518,7 @@
         <v>251</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I71" s="1">
         <v>43647</v>
@@ -4559,7 +4559,7 @@
         <v>254</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I72" s="1">
         <v>43525</v>
@@ -4600,7 +4600,7 @@
         <v>256</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>233</v>
@@ -4641,7 +4641,7 @@
         <v>259</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>81</v>

--- a/TRACK.xlsx
+++ b/TRACK.xlsx
@@ -1689,7 +1689,7 @@
         <v>19</v>
       </c>
       <c r="H2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>20</v>
@@ -1730,7 +1730,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -1771,7 +1771,7 @@
         <v>26</v>
       </c>
       <c r="H4">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>27</v>
@@ -1812,7 +1812,7 @@
         <v>30</v>
       </c>
       <c r="H5">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>31</v>
@@ -1853,7 +1853,7 @@
         <v>34</v>
       </c>
       <c r="H6">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I6" s="1">
         <v>43709</v>
@@ -1894,7 +1894,7 @@
         <v>37</v>
       </c>
       <c r="H7">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>38</v>
@@ -1935,7 +1935,7 @@
         <v>41</v>
       </c>
       <c r="H8">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>38</v>
@@ -1976,7 +1976,7 @@
         <v>44</v>
       </c>
       <c r="H9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I9" s="1">
         <v>43678</v>
@@ -2017,7 +2017,7 @@
         <v>47</v>
       </c>
       <c r="H10">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>48</v>
@@ -2058,7 +2058,7 @@
         <v>50</v>
       </c>
       <c r="H11">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>51</v>
@@ -2099,7 +2099,7 @@
         <v>54</v>
       </c>
       <c r="H12">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I12" s="1">
         <v>43647</v>
@@ -2140,7 +2140,7 @@
         <v>57</v>
       </c>
       <c r="H13">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>38</v>
@@ -2181,7 +2181,7 @@
         <v>60</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>27</v>
@@ -2222,7 +2222,7 @@
         <v>64</v>
       </c>
       <c r="H15">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>51</v>
@@ -2263,7 +2263,7 @@
         <v>68</v>
       </c>
       <c r="H16">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>69</v>
@@ -2304,7 +2304,7 @@
         <v>73</v>
       </c>
       <c r="H17">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I17" s="1">
         <v>43647</v>
@@ -2345,7 +2345,7 @@
         <v>76</v>
       </c>
       <c r="H18">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>77</v>
@@ -2386,7 +2386,7 @@
         <v>80</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>81</v>
@@ -2427,7 +2427,7 @@
         <v>84</v>
       </c>
       <c r="H20">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>48</v>
@@ -2468,7 +2468,7 @@
         <v>87</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>88</v>
@@ -2509,7 +2509,7 @@
         <v>91</v>
       </c>
       <c r="H22">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>38</v>
@@ -2550,7 +2550,7 @@
         <v>94</v>
       </c>
       <c r="H23">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I23" s="1">
         <v>43586</v>
@@ -2591,7 +2591,7 @@
         <v>97</v>
       </c>
       <c r="H24">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>38</v>
@@ -2632,7 +2632,7 @@
         <v>100</v>
       </c>
       <c r="H25">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>27</v>
@@ -2673,7 +2673,7 @@
         <v>103</v>
       </c>
       <c r="H26">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>104</v>
@@ -2714,7 +2714,7 @@
         <v>107</v>
       </c>
       <c r="H27">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I27" s="1">
         <v>43709</v>
@@ -2755,7 +2755,7 @@
         <v>110</v>
       </c>
       <c r="H28">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I28" s="1">
         <v>43647</v>
@@ -2796,7 +2796,7 @@
         <v>113</v>
       </c>
       <c r="H29">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I29" s="1">
         <v>43800</v>
@@ -2837,7 +2837,7 @@
         <v>116</v>
       </c>
       <c r="H30">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>20</v>
@@ -2878,7 +2878,7 @@
         <v>119</v>
       </c>
       <c r="H31">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I31" s="1">
         <v>43647</v>
@@ -2919,7 +2919,7 @@
         <v>122</v>
       </c>
       <c r="H32">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>31</v>
@@ -2960,7 +2960,7 @@
         <v>124</v>
       </c>
       <c r="H33">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>125</v>
@@ -3001,7 +3001,7 @@
         <v>128</v>
       </c>
       <c r="H34">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I34" s="1">
         <v>43586</v>
@@ -3042,7 +3042,7 @@
         <v>131</v>
       </c>
       <c r="H35">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I35" s="1">
         <v>43497</v>
@@ -3083,7 +3083,7 @@
         <v>134</v>
       </c>
       <c r="H36">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I36" s="1">
         <v>43497</v>
@@ -3124,7 +3124,7 @@
         <v>136</v>
       </c>
       <c r="H37">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>77</v>
@@ -3165,7 +3165,7 @@
         <v>139</v>
       </c>
       <c r="H38">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I38" s="1">
         <v>43647</v>
@@ -3206,7 +3206,7 @@
         <v>142</v>
       </c>
       <c r="H39">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>48</v>
@@ -3247,7 +3247,7 @@
         <v>146</v>
       </c>
       <c r="H40">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>77</v>
@@ -3288,7 +3288,7 @@
         <v>149</v>
       </c>
       <c r="H41">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I41" s="1">
         <v>43586</v>
@@ -3329,7 +3329,7 @@
         <v>152</v>
       </c>
       <c r="H42">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>153</v>
@@ -3370,7 +3370,7 @@
         <v>156</v>
       </c>
       <c r="H43">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I43" s="1">
         <v>43647</v>
@@ -3411,7 +3411,7 @@
         <v>160</v>
       </c>
       <c r="H44">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>27</v>
@@ -3452,7 +3452,7 @@
         <v>163</v>
       </c>
       <c r="H45">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>104</v>
@@ -3493,7 +3493,7 @@
         <v>166</v>
       </c>
       <c r="H46">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>125</v>
@@ -3534,7 +3534,7 @@
         <v>170</v>
       </c>
       <c r="H47">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>27</v>
@@ -3575,7 +3575,7 @@
         <v>174</v>
       </c>
       <c r="H48">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>81</v>
@@ -3616,7 +3616,7 @@
         <v>177</v>
       </c>
       <c r="H49">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>27</v>
@@ -3657,7 +3657,7 @@
         <v>181</v>
       </c>
       <c r="H50">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>88</v>
@@ -3698,7 +3698,7 @@
         <v>185</v>
       </c>
       <c r="H51">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>88</v>
@@ -3739,7 +3739,7 @@
         <v>187</v>
       </c>
       <c r="H52">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>81</v>
@@ -3780,7 +3780,7 @@
         <v>191</v>
       </c>
       <c r="H53">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>125</v>
@@ -3821,7 +3821,7 @@
         <v>195</v>
       </c>
       <c r="H54">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>27</v>
@@ -3862,7 +3862,7 @@
         <v>199</v>
       </c>
       <c r="H55">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>88</v>
@@ -3903,7 +3903,7 @@
         <v>203</v>
       </c>
       <c r="H56">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>81</v>
@@ -3944,7 +3944,7 @@
         <v>205</v>
       </c>
       <c r="H57">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>27</v>
@@ -3985,7 +3985,7 @@
         <v>209</v>
       </c>
       <c r="H58">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I58" s="1">
         <v>43647</v>
@@ -4026,7 +4026,7 @@
         <v>212</v>
       </c>
       <c r="H59">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>27</v>
@@ -4067,7 +4067,7 @@
         <v>216</v>
       </c>
       <c r="H60">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>20</v>
@@ -4108,7 +4108,7 @@
         <v>220</v>
       </c>
       <c r="H61">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I61" s="1">
         <v>43617</v>
@@ -4149,7 +4149,7 @@
         <v>223</v>
       </c>
       <c r="H62">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>27</v>
@@ -4190,7 +4190,7 @@
         <v>226</v>
       </c>
       <c r="H63">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>77</v>
@@ -4231,7 +4231,7 @@
         <v>229</v>
       </c>
       <c r="H64">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>31</v>
@@ -4272,7 +4272,7 @@
         <v>232</v>
       </c>
       <c r="H65">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>233</v>
@@ -4313,7 +4313,7 @@
         <v>235</v>
       </c>
       <c r="H66">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I66" s="1">
         <v>43525</v>
@@ -4354,7 +4354,7 @@
         <v>238</v>
       </c>
       <c r="H67">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I67" s="1">
         <v>43647</v>
@@ -4395,7 +4395,7 @@
         <v>241</v>
       </c>
       <c r="H68">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>81</v>
@@ -4436,7 +4436,7 @@
         <v>244</v>
       </c>
       <c r="H69">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>38</v>
@@ -4477,7 +4477,7 @@
         <v>248</v>
       </c>
       <c r="H70">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I70" s="1">
         <v>43800</v>
@@ -4518,7 +4518,7 @@
         <v>251</v>
       </c>
       <c r="H71">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I71" s="1">
         <v>43647</v>
@@ -4559,7 +4559,7 @@
         <v>254</v>
       </c>
       <c r="H72">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I72" s="1">
         <v>43525</v>
@@ -4600,7 +4600,7 @@
         <v>256</v>
       </c>
       <c r="H73">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>233</v>
@@ -4641,7 +4641,7 @@
         <v>259</v>
       </c>
       <c r="H74">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>81</v>

--- a/TRACK.xlsx
+++ b/TRACK.xlsx
@@ -1689,7 +1689,7 @@
         <v>19</v>
       </c>
       <c r="H2">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>20</v>
@@ -1730,7 +1730,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -1771,7 +1771,7 @@
         <v>26</v>
       </c>
       <c r="H4">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>27</v>
@@ -1812,7 +1812,7 @@
         <v>30</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>31</v>
@@ -1853,7 +1853,7 @@
         <v>34</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1">
         <v>43709</v>
@@ -1894,7 +1894,7 @@
         <v>37</v>
       </c>
       <c r="H7">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>38</v>
@@ -1935,7 +1935,7 @@
         <v>41</v>
       </c>
       <c r="H8">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>38</v>
@@ -1976,7 +1976,7 @@
         <v>44</v>
       </c>
       <c r="H9">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1">
         <v>43678</v>
@@ -2017,7 +2017,7 @@
         <v>47</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>48</v>
@@ -2058,7 +2058,7 @@
         <v>50</v>
       </c>
       <c r="H11">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>51</v>
@@ -2099,7 +2099,7 @@
         <v>54</v>
       </c>
       <c r="H12">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I12" s="1">
         <v>43647</v>
@@ -2140,7 +2140,7 @@
         <v>57</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>38</v>
@@ -2181,7 +2181,7 @@
         <v>60</v>
       </c>
       <c r="H14">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>27</v>
@@ -2222,7 +2222,7 @@
         <v>64</v>
       </c>
       <c r="H15">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>51</v>
@@ -2263,7 +2263,7 @@
         <v>68</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>69</v>
@@ -2304,7 +2304,7 @@
         <v>73</v>
       </c>
       <c r="H17">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1">
         <v>43647</v>
@@ -2345,7 +2345,7 @@
         <v>76</v>
       </c>
       <c r="H18">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>77</v>
@@ -2386,7 +2386,7 @@
         <v>80</v>
       </c>
       <c r="H19">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>81</v>
@@ -2427,7 +2427,7 @@
         <v>84</v>
       </c>
       <c r="H20">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>48</v>
@@ -2468,7 +2468,7 @@
         <v>87</v>
       </c>
       <c r="H21">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>88</v>
@@ -2509,7 +2509,7 @@
         <v>91</v>
       </c>
       <c r="H22">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>38</v>
@@ -2550,7 +2550,7 @@
         <v>94</v>
       </c>
       <c r="H23">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I23" s="1">
         <v>43586</v>
@@ -2591,7 +2591,7 @@
         <v>97</v>
       </c>
       <c r="H24">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>38</v>
@@ -2632,7 +2632,7 @@
         <v>100</v>
       </c>
       <c r="H25">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>27</v>
@@ -2673,7 +2673,7 @@
         <v>103</v>
       </c>
       <c r="H26">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>104</v>
@@ -2714,7 +2714,7 @@
         <v>107</v>
       </c>
       <c r="H27">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I27" s="1">
         <v>43709</v>
@@ -2755,7 +2755,7 @@
         <v>110</v>
       </c>
       <c r="H28">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I28" s="1">
         <v>43647</v>
@@ -2796,7 +2796,7 @@
         <v>113</v>
       </c>
       <c r="H29">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I29" s="1">
         <v>43800</v>
@@ -2837,7 +2837,7 @@
         <v>116</v>
       </c>
       <c r="H30">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>20</v>
@@ -2878,7 +2878,7 @@
         <v>119</v>
       </c>
       <c r="H31">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I31" s="1">
         <v>43647</v>
@@ -2919,7 +2919,7 @@
         <v>122</v>
       </c>
       <c r="H32">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>31</v>
@@ -2960,7 +2960,7 @@
         <v>124</v>
       </c>
       <c r="H33">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>125</v>
@@ -3001,7 +3001,7 @@
         <v>128</v>
       </c>
       <c r="H34">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I34" s="1">
         <v>43586</v>
@@ -3042,7 +3042,7 @@
         <v>131</v>
       </c>
       <c r="H35">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I35" s="1">
         <v>43497</v>
@@ -3083,7 +3083,7 @@
         <v>134</v>
       </c>
       <c r="H36">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I36" s="1">
         <v>43497</v>
@@ -3124,7 +3124,7 @@
         <v>136</v>
       </c>
       <c r="H37">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>77</v>
@@ -3165,7 +3165,7 @@
         <v>139</v>
       </c>
       <c r="H38">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I38" s="1">
         <v>43647</v>
@@ -3206,7 +3206,7 @@
         <v>142</v>
       </c>
       <c r="H39">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>48</v>
@@ -3247,7 +3247,7 @@
         <v>146</v>
       </c>
       <c r="H40">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>77</v>
@@ -3288,7 +3288,7 @@
         <v>149</v>
       </c>
       <c r="H41">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I41" s="1">
         <v>43586</v>
@@ -3329,7 +3329,7 @@
         <v>152</v>
       </c>
       <c r="H42">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>153</v>
@@ -3370,7 +3370,7 @@
         <v>156</v>
       </c>
       <c r="H43">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I43" s="1">
         <v>43647</v>
@@ -3411,7 +3411,7 @@
         <v>160</v>
       </c>
       <c r="H44">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>27</v>
@@ -3452,7 +3452,7 @@
         <v>163</v>
       </c>
       <c r="H45">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>104</v>
@@ -3493,7 +3493,7 @@
         <v>166</v>
       </c>
       <c r="H46">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>125</v>
@@ -3534,7 +3534,7 @@
         <v>170</v>
       </c>
       <c r="H47">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>27</v>
@@ -3575,7 +3575,7 @@
         <v>174</v>
       </c>
       <c r="H48">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>81</v>
@@ -3616,7 +3616,7 @@
         <v>177</v>
       </c>
       <c r="H49">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>27</v>
@@ -3657,7 +3657,7 @@
         <v>181</v>
       </c>
       <c r="H50">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>88</v>
@@ -3698,7 +3698,7 @@
         <v>185</v>
       </c>
       <c r="H51">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>88</v>
@@ -3739,7 +3739,7 @@
         <v>187</v>
       </c>
       <c r="H52">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>81</v>
@@ -3780,7 +3780,7 @@
         <v>191</v>
       </c>
       <c r="H53">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>125</v>
@@ -3821,7 +3821,7 @@
         <v>195</v>
       </c>
       <c r="H54">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>27</v>
@@ -3862,7 +3862,7 @@
         <v>199</v>
       </c>
       <c r="H55">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>88</v>
@@ -3903,7 +3903,7 @@
         <v>203</v>
       </c>
       <c r="H56">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>81</v>
@@ -3944,7 +3944,7 @@
         <v>205</v>
       </c>
       <c r="H57">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>27</v>
@@ -3985,7 +3985,7 @@
         <v>209</v>
       </c>
       <c r="H58">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I58" s="1">
         <v>43647</v>
@@ -4026,7 +4026,7 @@
         <v>212</v>
       </c>
       <c r="H59">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>27</v>
@@ -4067,7 +4067,7 @@
         <v>216</v>
       </c>
       <c r="H60">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>20</v>
@@ -4108,7 +4108,7 @@
         <v>220</v>
       </c>
       <c r="H61">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I61" s="1">
         <v>43617</v>
@@ -4149,7 +4149,7 @@
         <v>223</v>
       </c>
       <c r="H62">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>27</v>
@@ -4190,7 +4190,7 @@
         <v>226</v>
       </c>
       <c r="H63">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>77</v>
@@ -4231,7 +4231,7 @@
         <v>229</v>
       </c>
       <c r="H64">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>31</v>
@@ -4272,7 +4272,7 @@
         <v>232</v>
       </c>
       <c r="H65">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>233</v>
@@ -4313,7 +4313,7 @@
         <v>235</v>
       </c>
       <c r="H66">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I66" s="1">
         <v>43525</v>
@@ -4354,7 +4354,7 @@
         <v>238</v>
       </c>
       <c r="H67">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I67" s="1">
         <v>43647</v>
@@ -4395,7 +4395,7 @@
         <v>241</v>
       </c>
       <c r="H68">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>81</v>
@@ -4436,7 +4436,7 @@
         <v>244</v>
       </c>
       <c r="H69">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>38</v>
@@ -4477,7 +4477,7 @@
         <v>248</v>
       </c>
       <c r="H70">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I70" s="1">
         <v>43800</v>
@@ -4518,7 +4518,7 @@
         <v>251</v>
       </c>
       <c r="H71">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I71" s="1">
         <v>43647</v>
@@ -4559,7 +4559,7 @@
         <v>254</v>
       </c>
       <c r="H72">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I72" s="1">
         <v>43525</v>
@@ -4600,7 +4600,7 @@
         <v>256</v>
       </c>
       <c r="H73">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>233</v>
@@ -4641,7 +4641,7 @@
         <v>259</v>
       </c>
       <c r="H74">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>81</v>

--- a/TRACK.xlsx
+++ b/TRACK.xlsx
@@ -1614,7 +1614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H74"/>
     </sheetView>
   </sheetViews>
@@ -1689,7 +1689,7 @@
         <v>19</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>20</v>
@@ -1730,7 +1730,7 @@
         <v>23</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -1771,7 +1771,7 @@
         <v>26</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>27</v>
@@ -1812,7 +1812,7 @@
         <v>30</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>31</v>
@@ -1853,7 +1853,7 @@
         <v>34</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>43709</v>
@@ -1894,7 +1894,7 @@
         <v>37</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>38</v>
@@ -1935,7 +1935,7 @@
         <v>41</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>38</v>
@@ -1976,7 +1976,7 @@
         <v>44</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>43678</v>
@@ -2017,7 +2017,7 @@
         <v>47</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>48</v>
@@ -2058,7 +2058,7 @@
         <v>50</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>51</v>
@@ -2099,7 +2099,7 @@
         <v>54</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>43647</v>
@@ -2140,7 +2140,7 @@
         <v>57</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>38</v>
@@ -2181,7 +2181,7 @@
         <v>60</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>27</v>
@@ -2222,7 +2222,7 @@
         <v>64</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>51</v>
@@ -2263,7 +2263,7 @@
         <v>68</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>69</v>
@@ -2304,7 +2304,7 @@
         <v>73</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
         <v>43647</v>
@@ -2345,7 +2345,7 @@
         <v>76</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>77</v>
@@ -2386,7 +2386,7 @@
         <v>80</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>81</v>
@@ -2427,7 +2427,7 @@
         <v>84</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>48</v>
@@ -2468,7 +2468,7 @@
         <v>87</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>88</v>
@@ -2509,7 +2509,7 @@
         <v>91</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>38</v>
@@ -2550,7 +2550,7 @@
         <v>94</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1">
         <v>43586</v>
@@ -2591,7 +2591,7 @@
         <v>97</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>38</v>
@@ -2632,7 +2632,7 @@
         <v>100</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>27</v>
@@ -2673,7 +2673,7 @@
         <v>103</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>104</v>
@@ -2714,7 +2714,7 @@
         <v>107</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1">
         <v>43709</v>
@@ -2755,7 +2755,7 @@
         <v>110</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="1">
         <v>43647</v>
@@ -2796,7 +2796,7 @@
         <v>113</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1">
         <v>43800</v>
@@ -2837,7 +2837,7 @@
         <v>116</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>20</v>
@@ -2878,7 +2878,7 @@
         <v>119</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1">
         <v>43647</v>
@@ -2919,7 +2919,7 @@
         <v>122</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>31</v>
@@ -2960,7 +2960,7 @@
         <v>124</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>125</v>
@@ -3001,7 +3001,7 @@
         <v>128</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1">
         <v>43586</v>
@@ -3042,7 +3042,7 @@
         <v>131</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1">
         <v>43497</v>
@@ -3083,7 +3083,7 @@
         <v>134</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="1">
         <v>43497</v>
@@ -3124,7 +3124,7 @@
         <v>136</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>77</v>
@@ -3165,7 +3165,7 @@
         <v>139</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" s="1">
         <v>43647</v>
@@ -3206,7 +3206,7 @@
         <v>142</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>48</v>
@@ -3247,7 +3247,7 @@
         <v>146</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>77</v>
@@ -3288,7 +3288,7 @@
         <v>149</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" s="1">
         <v>43586</v>
@@ -3329,7 +3329,7 @@
         <v>152</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>153</v>
@@ -3370,7 +3370,7 @@
         <v>156</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" s="1">
         <v>43647</v>
@@ -3411,7 +3411,7 @@
         <v>160</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>27</v>
@@ -3452,7 +3452,7 @@
         <v>163</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>104</v>
@@ -3493,7 +3493,7 @@
         <v>166</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>125</v>
@@ -3534,7 +3534,7 @@
         <v>170</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>27</v>
@@ -3575,7 +3575,7 @@
         <v>174</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>81</v>
@@ -3616,7 +3616,7 @@
         <v>177</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>27</v>
@@ -3657,7 +3657,7 @@
         <v>181</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>88</v>
@@ -3698,7 +3698,7 @@
         <v>185</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>88</v>
@@ -3739,7 +3739,7 @@
         <v>187</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>81</v>
@@ -3780,7 +3780,7 @@
         <v>191</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>125</v>
@@ -3821,7 +3821,7 @@
         <v>195</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>27</v>
@@ -3862,7 +3862,7 @@
         <v>199</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>88</v>
@@ -3903,7 +3903,7 @@
         <v>203</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>81</v>
@@ -3944,7 +3944,7 @@
         <v>205</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>27</v>
@@ -3985,7 +3985,7 @@
         <v>209</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" s="1">
         <v>43647</v>
@@ -4026,7 +4026,7 @@
         <v>212</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>27</v>
@@ -4067,7 +4067,7 @@
         <v>216</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>20</v>
@@ -4108,7 +4108,7 @@
         <v>220</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" s="1">
         <v>43617</v>
@@ -4149,7 +4149,7 @@
         <v>223</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>27</v>
@@ -4190,7 +4190,7 @@
         <v>226</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>77</v>
@@ -4231,7 +4231,7 @@
         <v>229</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>31</v>
@@ -4272,7 +4272,7 @@
         <v>232</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>233</v>
@@ -4313,7 +4313,7 @@
         <v>235</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" s="1">
         <v>43525</v>
@@ -4354,7 +4354,7 @@
         <v>238</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" s="1">
         <v>43647</v>
@@ -4395,7 +4395,7 @@
         <v>241</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>81</v>
@@ -4436,7 +4436,7 @@
         <v>244</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>38</v>
@@ -4477,7 +4477,7 @@
         <v>248</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" s="1">
         <v>43800</v>
@@ -4518,7 +4518,7 @@
         <v>251</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" s="1">
         <v>43647</v>
@@ -4559,7 +4559,7 @@
         <v>254</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="1">
         <v>43525</v>
@@ -4600,7 +4600,7 @@
         <v>256</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>233</v>
@@ -4641,7 +4641,7 @@
         <v>259</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>81</v>

--- a/TRACK.xlsx
+++ b/TRACK.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="TRACK" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="168">
   <si>
     <t>refrence</t>
   </si>
@@ -60,751 +60,469 @@
     <t>country</t>
   </si>
   <si>
-    <t>SB1429</t>
-  </si>
-  <si>
-    <t>STIRLING BRIDGE CHEMICALS TRADING L.L.C</t>
+    <t>GOODS IN TRUST</t>
   </si>
   <si>
     <t>Dubai- UAE</t>
   </si>
   <si>
-    <t>STIRLING BRIDGE GENERAL TRADING</t>
-  </si>
-  <si>
-    <t>Haikou- China</t>
-  </si>
-  <si>
-    <t>GOODS IN TRUST</t>
-  </si>
-  <si>
-    <t>JANURARY  2019</t>
-  </si>
-  <si>
-    <t>17/01/2019</t>
-  </si>
-  <si>
-    <t>A T S HEAVY EQUIPMENT AND MACHINERY SPARE PARTS TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1430</t>
-  </si>
-  <si>
-    <t>JANURARY  2020</t>
-  </si>
-  <si>
-    <t>ANA GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1463</t>
-  </si>
-  <si>
-    <t>JANURARY  2021</t>
-  </si>
-  <si>
-    <t>27/01/2019</t>
-  </si>
-  <si>
-    <t>APEX TECHNOLOGY FZCO</t>
-  </si>
-  <si>
-    <t>SB1447</t>
-  </si>
-  <si>
-    <t>JANURARY  2022</t>
-  </si>
-  <si>
-    <t>23/01/2019</t>
-  </si>
-  <si>
-    <t>AVRASYA TRADING FZE</t>
-  </si>
-  <si>
-    <t>SB1416</t>
-  </si>
-  <si>
-    <t>JANURARY  2023</t>
-  </si>
-  <si>
-    <t>BEAUTY SKY SERVICES LLC</t>
-  </si>
-  <si>
-    <t>SB1453</t>
-  </si>
-  <si>
-    <t>JANURARY  2024</t>
-  </si>
-  <si>
-    <t>24/01/2019</t>
-  </si>
-  <si>
-    <t>BEYZADE PETRA OLIUM EQUIPMENT FZE</t>
-  </si>
-  <si>
-    <t>SB1454</t>
-  </si>
-  <si>
-    <t>JANURARY  2025</t>
-  </si>
-  <si>
-    <t>C STAR GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1415</t>
-  </si>
-  <si>
-    <t>JANURARY  2026</t>
-  </si>
-  <si>
-    <t>CHEMI TECHNO FZE</t>
-  </si>
-  <si>
-    <t>SB1475</t>
-  </si>
-  <si>
-    <t>JANURARY  2027</t>
-  </si>
-  <si>
-    <t>31/01/2019</t>
-  </si>
-  <si>
-    <t>SB1469</t>
-  </si>
-  <si>
-    <t>JANURARY  2028</t>
-  </si>
-  <si>
-    <t>28/01/2019</t>
-  </si>
-  <si>
-    <t>CIS PETRO LLC</t>
-  </si>
-  <si>
-    <t>SB1405</t>
-  </si>
-  <si>
-    <t>JANURARY  2029</t>
-  </si>
-  <si>
-    <t>DELTACHEM MIDDLE EAST LLC</t>
-  </si>
-  <si>
-    <t>SB1455</t>
-  </si>
-  <si>
-    <t>JANURARY  2030</t>
-  </si>
-  <si>
-    <t>DIAGRAM GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1464</t>
-  </si>
-  <si>
-    <t>JANURARY  2031</t>
-  </si>
-  <si>
-    <t>ENDEAVOR TRADING FZE</t>
-  </si>
-  <si>
-    <t>Ajman- UAE</t>
-  </si>
-  <si>
-    <t>SB1470</t>
-  </si>
-  <si>
-    <t>JANURARY  2032</t>
-  </si>
-  <si>
-    <t>FIVE STARS ELECTRICAL AND MECHANICAL EQUIPMENTS CO LLC</t>
-  </si>
-  <si>
-    <t>Sharjah- UAE</t>
-  </si>
-  <si>
-    <t>SB1443</t>
-  </si>
-  <si>
-    <t>JANURARY  2033</t>
-  </si>
-  <si>
-    <t>21/01/2019</t>
-  </si>
-  <si>
-    <t>FNSA FUEL LTD FZC</t>
-  </si>
-  <si>
-    <t>Fujairah- UAE</t>
-  </si>
-  <si>
-    <t>SB1406</t>
-  </si>
-  <si>
-    <t>JANURARY  2034</t>
-  </si>
-  <si>
-    <t>GERMAN COMMODITY TRADING DMCC</t>
-  </si>
-  <si>
-    <t>SB1423</t>
-  </si>
-  <si>
-    <t>JANURARY  2035</t>
-  </si>
-  <si>
-    <t>16/01/2019</t>
-  </si>
-  <si>
-    <t>GOLDEN TRUST BUILDING MATERIALS TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1461</t>
-  </si>
-  <si>
-    <t>JANURARY  2036</t>
-  </si>
-  <si>
-    <t>26/01/2019</t>
-  </si>
-  <si>
-    <t>GULF TURBO REPAIR &amp; SERVICES FZC</t>
-  </si>
-  <si>
-    <t>SB1476</t>
-  </si>
-  <si>
-    <t>JANURARY  2037</t>
-  </si>
-  <si>
-    <t>INTERTRADE GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1444</t>
-  </si>
-  <si>
-    <t>JANURARY  2038</t>
-  </si>
-  <si>
-    <t>22/01/2019</t>
-  </si>
-  <si>
-    <t>KONG STAR FZE</t>
-  </si>
-  <si>
-    <t>SB1457</t>
-  </si>
-  <si>
-    <t>JANURARY  2039</t>
-  </si>
-  <si>
-    <t>LIFE PHARMA GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1400</t>
-  </si>
-  <si>
-    <t>JANURARY  2040</t>
-  </si>
-  <si>
-    <t>LIGHT SHINE MIDDLE EAST SAFETY EQUIPMENT TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1458</t>
-  </si>
-  <si>
-    <t>JANURARY  2041</t>
-  </si>
-  <si>
-    <t>MAPLE LEAF GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1465</t>
-  </si>
-  <si>
-    <t>JANURARY  2042</t>
-  </si>
-  <si>
-    <t>METACHEM FZE</t>
-  </si>
-  <si>
-    <t>SB1472</t>
-  </si>
-  <si>
-    <t>JANURARY  2043</t>
-  </si>
-  <si>
-    <t>29/01/2019</t>
-  </si>
-  <si>
-    <t>METROMAC MARINE AUTOMATION</t>
-  </si>
-  <si>
-    <t>SB1417</t>
-  </si>
-  <si>
-    <t>JANURARY  2044</t>
-  </si>
-  <si>
-    <t>MYRILGULF INTERNATIONAL FZE</t>
-  </si>
-  <si>
-    <t>SB1411</t>
-  </si>
-  <si>
-    <t>JANURARY  2045</t>
-  </si>
-  <si>
-    <t>NOBLEFU GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1420</t>
-  </si>
-  <si>
-    <t>JANURARY  2046</t>
-  </si>
-  <si>
-    <t>ONTRACKING FZCO</t>
-  </si>
-  <si>
-    <t>SB1431</t>
-  </si>
-  <si>
-    <t>JANURARY  2047</t>
-  </si>
-  <si>
-    <t>OROPAY TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1412</t>
-  </si>
-  <si>
-    <t>JANURARY  2048</t>
-  </si>
-  <si>
-    <t>ORTA ASIA GENERAL TRADING FZE</t>
-  </si>
-  <si>
-    <t>SB1449</t>
-  </si>
-  <si>
-    <t>JANURARY  2049</t>
-  </si>
-  <si>
-    <t>SB1442</t>
-  </si>
-  <si>
-    <t>JANURARY  2050</t>
-  </si>
-  <si>
-    <t>20/01/2019</t>
-  </si>
-  <si>
-    <t>POLY CHEMICALS TRADING DMCC</t>
-  </si>
-  <si>
-    <t>SB1401</t>
-  </si>
-  <si>
-    <t>JANURARY  2051</t>
-  </si>
-  <si>
-    <t>SILICONPLAST COMPOUNDING SOLUTIONS FZE</t>
-  </si>
-  <si>
-    <t>SB1392</t>
-  </si>
-  <si>
-    <t>JANURARY  2052</t>
-  </si>
-  <si>
-    <t>STAR INTERNATIONAL FZE</t>
-  </si>
-  <si>
-    <t>SB1393</t>
-  </si>
-  <si>
-    <t>JANURARY  2053</t>
-  </si>
-  <si>
-    <t>SB1427</t>
-  </si>
-  <si>
-    <t>JANURARY  2054</t>
-  </si>
-  <si>
-    <t>SUCCESS TOOL TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1413</t>
-  </si>
-  <si>
-    <t>JANURARY  2055</t>
-  </si>
-  <si>
-    <t>SUROOH TRADING FZE</t>
-  </si>
-  <si>
-    <t>SB1477</t>
-  </si>
-  <si>
-    <t>JANURARY  2056</t>
-  </si>
-  <si>
-    <t>THAI HUA RUBBER PUBLIC COMPANY LIMITED</t>
-  </si>
-  <si>
-    <t>Bangkok- Thailand</t>
-  </si>
-  <si>
-    <t>SB1428</t>
-  </si>
-  <si>
-    <t>JANURARY  2057</t>
-  </si>
-  <si>
-    <t>TOP GRADE GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1402</t>
-  </si>
-  <si>
-    <t>JANURARY  2058</t>
-  </si>
-  <si>
-    <t>TOURANTO FLAVOURS &amp; FRAGRANCES FZE</t>
-  </si>
-  <si>
-    <t>SB1421</t>
-  </si>
-  <si>
-    <t>JANURARY  2059</t>
-  </si>
-  <si>
-    <t>13/01/2019</t>
-  </si>
-  <si>
-    <t>ULTIMATE PRIDE PAPER TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1414</t>
-  </si>
-  <si>
-    <t>JANURARY  2060</t>
-  </si>
-  <si>
-    <t>UNICA FZE</t>
-  </si>
-  <si>
-    <t>RAK- UAE</t>
-  </si>
-  <si>
-    <t>SB1468</t>
-  </si>
-  <si>
-    <t>JANURARY  2061</t>
-  </si>
-  <si>
-    <t>WATRIN TRADING DWC LLC</t>
-  </si>
-  <si>
-    <t>SB1473</t>
-  </si>
-  <si>
-    <t>JANURARY  2062</t>
-  </si>
-  <si>
-    <t>WORLD MARINE FZE</t>
-  </si>
-  <si>
-    <t>SB1480</t>
-  </si>
-  <si>
-    <t>JANURARY  2063</t>
-  </si>
-  <si>
-    <t>A.C INTERNATIONAL TRADING COMPANY LIMITED</t>
-  </si>
-  <si>
-    <t>Hong Kong- China</t>
-  </si>
-  <si>
-    <t>SB1488</t>
-  </si>
-  <si>
-    <t>JANURARY  2064</t>
-  </si>
-  <si>
-    <t>AGT ITALIA SAS</t>
-  </si>
-  <si>
-    <t>Bergamo BG- Italy</t>
-  </si>
-  <si>
-    <t>SB1485</t>
-  </si>
-  <si>
-    <t>JANURARY  2065</t>
-  </si>
-  <si>
-    <t>BEHTA TRADING FZE</t>
-  </si>
-  <si>
-    <t>SB1492</t>
-  </si>
-  <si>
-    <t>JANURARY  2066</t>
-  </si>
-  <si>
-    <t>DURKO اEVRE ENERJI TEKNIGI VE TICARET A.S.</t>
-  </si>
-  <si>
-    <t>Istanbul- Turkey</t>
-  </si>
-  <si>
-    <t>SB1482</t>
-  </si>
-  <si>
-    <t>JANURARY  2067</t>
-  </si>
-  <si>
-    <t>EPOKA A/S</t>
-  </si>
-  <si>
-    <t>Svenstrup- Denmark</t>
-  </si>
-  <si>
-    <t>SB1483</t>
-  </si>
-  <si>
-    <t>JANURARY  2068</t>
-  </si>
-  <si>
-    <t>SB1486</t>
-  </si>
-  <si>
-    <t>JANURARY  2069</t>
-  </si>
-  <si>
-    <t>ISHA FOUNDATION</t>
-  </si>
-  <si>
-    <t>Tamil Nadu- India</t>
-  </si>
-  <si>
-    <t>SB1481</t>
-  </si>
-  <si>
-    <t>JANURARY  2070</t>
-  </si>
-  <si>
-    <t>LOVATO GAS SPA</t>
-  </si>
-  <si>
-    <t>Vicenza- Italy</t>
-  </si>
-  <si>
-    <t>SB1493</t>
-  </si>
-  <si>
-    <t>JANURARY  2071</t>
-  </si>
-  <si>
-    <t>ROBEMA NV</t>
-  </si>
-  <si>
-    <t>Antwerp- Belgium</t>
-  </si>
-  <si>
-    <t>SB1484</t>
-  </si>
-  <si>
-    <t>JANURARY  2072</t>
-  </si>
-  <si>
-    <t>SIVANTOS PTE LTD</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>SB1487</t>
-  </si>
-  <si>
-    <t>JANURARY  2073</t>
-  </si>
-  <si>
-    <t>SB1494</t>
-  </si>
-  <si>
-    <t>JANURARY  2074</t>
-  </si>
-  <si>
-    <t>TBIO CROP SCIENCE</t>
-  </si>
-  <si>
-    <t>Xi An- China</t>
-  </si>
-  <si>
-    <t>SB1479-CL</t>
-  </si>
-  <si>
-    <t>JANURARY  2075</t>
-  </si>
-  <si>
-    <t>PECUNION CHEMICALS DMCC</t>
-  </si>
-  <si>
-    <t>SB1491-CL</t>
-  </si>
-  <si>
-    <t>JANURARY  2076</t>
-  </si>
-  <si>
-    <t>APPLIED INNOVATION MANAGEMENT IN SWEDEN AB</t>
-  </si>
-  <si>
-    <t>Stockholm- Sweden</t>
-  </si>
-  <si>
-    <t>SB1452-CL</t>
-  </si>
-  <si>
-    <t>JANURARY  2077</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>ZK TECO SECURITY LLC</t>
-  </si>
-  <si>
-    <t>SB1404-CL</t>
-  </si>
-  <si>
-    <t>JANURARY  2078</t>
-  </si>
-  <si>
-    <t>TAICHI HOLDINGS MIDDLE EAST FZE</t>
-  </si>
-  <si>
-    <t>SB1467-CL</t>
-  </si>
-  <si>
-    <t>JANURARY  2079</t>
-  </si>
-  <si>
-    <t>SYED NAEEM GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1441-CL</t>
-  </si>
-  <si>
-    <t>JANURARY  2080</t>
-  </si>
-  <si>
-    <t>SBC COOPERATION DMCC</t>
-  </si>
-  <si>
-    <t>SB1451-CL</t>
-  </si>
-  <si>
-    <t>JANURARY  2081</t>
-  </si>
-  <si>
-    <t>RHV INTERNATIONAL GENERAL TRADING FZE</t>
-  </si>
-  <si>
-    <t>SB1448-CL</t>
-  </si>
-  <si>
-    <t>JANURARY  2082</t>
-  </si>
-  <si>
-    <t>19/01/2019</t>
-  </si>
-  <si>
-    <t>SB1425-CL</t>
-  </si>
-  <si>
-    <t>JANURARY  2083</t>
-  </si>
-  <si>
-    <t>NIOLIT INDUSTRIAL EQUIPMENT AND SPARE PARTS TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1445-CL</t>
-  </si>
-  <si>
-    <t>JANURARY  2084</t>
-  </si>
-  <si>
-    <t>NIA LIMITED</t>
-  </si>
-  <si>
-    <t>SB1474-CL</t>
-  </si>
-  <si>
-    <t>JANURARY  2085</t>
-  </si>
-  <si>
-    <t>J.O (M.E) ENGINEERING LLC</t>
-  </si>
-  <si>
-    <t>SB1471-CL</t>
-  </si>
-  <si>
-    <t>JANURARY  2086</t>
-  </si>
-  <si>
-    <t>HYK TRADING ENTERPRISES LTD</t>
-  </si>
-  <si>
-    <t>Labuan- Malaysia</t>
-  </si>
-  <si>
-    <t>SB1419-CL</t>
-  </si>
-  <si>
-    <t>JANURARY  2087</t>
-  </si>
-  <si>
-    <t>HAPPY MINT GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1422-CL</t>
-  </si>
-  <si>
-    <t>JANURARY  2088</t>
-  </si>
-  <si>
-    <t>GOLDEN TRUST BUILDING MATERIALS TRADING</t>
-  </si>
-  <si>
-    <t>SB1397-CL</t>
-  </si>
-  <si>
-    <t>JANURARY  2089</t>
-  </si>
-  <si>
-    <t>SB1438-CL</t>
-  </si>
-  <si>
-    <t>JANURARY  2090</t>
-  </si>
-  <si>
-    <t>GOLDEN LEAF GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>SB1460-CL</t>
-  </si>
-  <si>
-    <t>JANURARY  2091</t>
-  </si>
-  <si>
-    <t>ASAD HUSSAIN ALI KIKHA GENERAL TRADING</t>
+    <t>TANGSHAN YIFEI TRADING CO.</t>
+  </si>
+  <si>
+    <t>TANGSHAN CITY-CHINA</t>
+  </si>
+  <si>
+    <t>HORIZONE LINE GENERAL TRADING LLC</t>
+  </si>
+  <si>
+    <t>HLG-0586</t>
+  </si>
+  <si>
+    <t>05/03/2019</t>
   </si>
   <si>
     <t>EURO</t>
+  </si>
+  <si>
+    <t>AGM JACTEX AG</t>
+  </si>
+  <si>
+    <t>SWITZERLAND</t>
+  </si>
+  <si>
+    <t>HLG-0587</t>
+  </si>
+  <si>
+    <t>ANHUAI CO LTD</t>
+  </si>
+  <si>
+    <t>HLG-0638</t>
+  </si>
+  <si>
+    <t>18/03/2019</t>
+  </si>
+  <si>
+    <t>ANTOLINI LUIGI &amp; C  SPA</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>HLG-0624</t>
+  </si>
+  <si>
+    <t>14/03/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZOL GAS,SL </t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t>HLG-0644</t>
+  </si>
+  <si>
+    <t>19/03/2019</t>
+  </si>
+  <si>
+    <t>BIOTECHRABBIT GMBH</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>HLG-0610</t>
+  </si>
+  <si>
+    <t>06/03/2019</t>
+  </si>
+  <si>
+    <t>BIOZYM GESELLSCHAFT FUR ENZYMTECHNOLOGIE MBH</t>
+  </si>
+  <si>
+    <t>HLG-0614</t>
+  </si>
+  <si>
+    <t>07/03/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCS INNOVATIVE DIAGNOSTIK SYSTEME </t>
+  </si>
+  <si>
+    <t>HLG-0637</t>
+  </si>
+  <si>
+    <t>DUTCH QUALITY PRODUCTS BV</t>
+  </si>
+  <si>
+    <t>NETHERLAND</t>
+  </si>
+  <si>
+    <t>HLG-0633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-KICOM HB    </t>
+  </si>
+  <si>
+    <t>SWEDEN</t>
+  </si>
+  <si>
+    <t>HLG-0585</t>
+  </si>
+  <si>
+    <t>ELECATIS TRADING AND ENGINEERING</t>
+  </si>
+  <si>
+    <t>HLG-0613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERWEKA GMBH  </t>
+  </si>
+  <si>
+    <t>HLG-0601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETI ELEKTROELEMENT DO O </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLOVENIA </t>
+  </si>
+  <si>
+    <t>HLG-0630</t>
+  </si>
+  <si>
+    <t>EXCISS GMBH</t>
+  </si>
+  <si>
+    <t>HLG-0582</t>
+  </si>
+  <si>
+    <t>04/03/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEDEV CONSULTING  </t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>HLG-0584</t>
+  </si>
+  <si>
+    <t>FERTIPLANT BV</t>
+  </si>
+  <si>
+    <t>HLG-0588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORBO SARLINO SAS  </t>
+  </si>
+  <si>
+    <t>HLG-0622</t>
+  </si>
+  <si>
+    <t>13/03/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRONIUS INTERNATIONAL GMBH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUSTRIA </t>
+  </si>
+  <si>
+    <t>HLG-0616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAW GMBH   </t>
+  </si>
+  <si>
+    <t>HLG-0597</t>
+  </si>
+  <si>
+    <t>11/03/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEOCLIMA S.R.L  </t>
+  </si>
+  <si>
+    <t>HLG-0611</t>
+  </si>
+  <si>
+    <t>GLASS MOULD SERVICE BVBA</t>
+  </si>
+  <si>
+    <t>BELGIUM</t>
+  </si>
+  <si>
+    <t>HLG-0580</t>
+  </si>
+  <si>
+    <t>GREENTECH SA- BIOPOLE CHERIMONT</t>
+  </si>
+  <si>
+    <t>HLG-0602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBERCHEM S.A    </t>
+  </si>
+  <si>
+    <t>HLG-0599</t>
+  </si>
+  <si>
+    <t>INCO SRL INDUSTRIAL COLORI SPA</t>
+  </si>
+  <si>
+    <t>HLG-0628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INNOVACIO TECNOLOGICA CATALANA SL </t>
+  </si>
+  <si>
+    <t>HLG-0615</t>
+  </si>
+  <si>
+    <t>INTERSHIP EURPOPE N V</t>
+  </si>
+  <si>
+    <t>HLG-0598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITM S.R.L    </t>
+  </si>
+  <si>
+    <t>HLG-0594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KETTLITZ -CHEMIE GMBH AND CO </t>
+  </si>
+  <si>
+    <t>HLG-0600</t>
+  </si>
+  <si>
+    <t>MAHA MASCHINENBAU H</t>
+  </si>
+  <si>
+    <t>HLG-0607</t>
+  </si>
+  <si>
+    <t>MICHEL VAN DE WIELE NV</t>
+  </si>
+  <si>
+    <t>HLG-0612</t>
+  </si>
+  <si>
+    <t>MIDDLE EAST CONSULTING AND TRADING GMBH</t>
+  </si>
+  <si>
+    <t>HLG-0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOL GUMMIVERARBEITUNG GMBH AND CO KG </t>
+  </si>
+  <si>
+    <t>HLG-0593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEXIRA      </t>
+  </si>
+  <si>
+    <t>HLG-0648</t>
+  </si>
+  <si>
+    <t>21/03/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOREVO GMBH  </t>
+  </si>
+  <si>
+    <t>HLG-0606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUREL SA      </t>
+  </si>
+  <si>
+    <t>HLG-0627</t>
+  </si>
+  <si>
+    <t>OXYTOP.SP.ZO.O</t>
+  </si>
+  <si>
+    <t>POLAND</t>
+  </si>
+  <si>
+    <t>HLG-0605</t>
+  </si>
+  <si>
+    <t>PETRONYX  GMBH</t>
+  </si>
+  <si>
+    <t>HLG-0591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREMIER S.R.L    </t>
+  </si>
+  <si>
+    <t>HLG-0617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVITAL S.A </t>
+  </si>
+  <si>
+    <t>HLG-0631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REINERS +FURST GMBH U CO KG </t>
+  </si>
+  <si>
+    <t>HLG-0646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REISLAGER GMBH   </t>
+  </si>
+  <si>
+    <t>HLG-0642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIPOLL CONSULTING DE INGENIERIA SL </t>
+  </si>
+  <si>
+    <t>HLG-0618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROECHLING ENGINEERING PLASTICS SE AND CO KG </t>
+  </si>
+  <si>
+    <t>HLG-0636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMACO KILIAN GMBH </t>
+  </si>
+  <si>
+    <t>HLG-0629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROYAL INGREDIENTS GROUP BV </t>
+  </si>
+  <si>
+    <t>HLG-0590</t>
+  </si>
+  <si>
+    <t>SAMA MASCHINENBAU GMBH</t>
+  </si>
+  <si>
+    <t>HLG-0649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAS CAPELEC   </t>
+  </si>
+  <si>
+    <t>HLG-0621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAYOP GMBH   </t>
+  </si>
+  <si>
+    <t>HLG-0640</t>
+  </si>
+  <si>
+    <t>SUTHEE UNITRD CARBON CO LTD</t>
+  </si>
+  <si>
+    <t>THAILAND</t>
+  </si>
+  <si>
+    <t>HLG-0592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECHNICARTON   </t>
+  </si>
+  <si>
+    <t>HLG-0583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEM SRL    </t>
+  </si>
+  <si>
+    <t>HLG-0609</t>
+  </si>
+  <si>
+    <t>TRADEX HANDELSGESELLSCHAFT GMBH</t>
+  </si>
+  <si>
+    <t>HLG-0635</t>
+  </si>
+  <si>
+    <t>TS TESTING SERVICES GMBH</t>
+  </si>
+  <si>
+    <t>HLG-0581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VACUTEST KIMA SRL </t>
+  </si>
+  <si>
+    <t>HLG-0634</t>
+  </si>
+  <si>
+    <t>VACUTEST KIMA SRL   -</t>
+  </si>
+  <si>
+    <t>HLG-0647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEXXION INTERNATIONAL BV </t>
+  </si>
+  <si>
+    <t>HLG-0620</t>
+  </si>
+  <si>
+    <t>VONROLL HYDRO SUISSE AG</t>
+  </si>
+  <si>
+    <t>HLG-0651-CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMURFIT KAPPA  NERVION SA </t>
+  </si>
+  <si>
+    <t>HLG-0625-CL</t>
+  </si>
+  <si>
+    <t>RHEIN SCHMIERSTOFFE GMBH</t>
+  </si>
+  <si>
+    <t>HLG-0619-CL</t>
+  </si>
+  <si>
+    <t>PENTAX SPA</t>
+  </si>
+  <si>
+    <t>HLG-0641-CL</t>
+  </si>
+  <si>
+    <t>GRODAB CHEMIE HANDES GMBH</t>
+  </si>
+  <si>
+    <t>HLG-0645-CL</t>
+  </si>
+  <si>
+    <t>GREGOR ZIEGLER GMBH-</t>
+  </si>
+  <si>
+    <t>HLG-0626-CL</t>
+  </si>
+  <si>
+    <t>HLG-0643-CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRALON GMBH  </t>
+  </si>
+  <si>
+    <t>MARCH 2019</t>
+  </si>
+  <si>
+    <t>FOSHAN - CHINA</t>
   </si>
 </sst>
 </file>
@@ -1612,17 +1330,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H74"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1668,84 +1391,84 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2">
-        <v>55000</v>
+        <v>16058</v>
       </c>
       <c r="K2" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
         <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3">
-        <v>248671</v>
+        <v>9864</v>
       </c>
       <c r="K3" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1753,40 +1476,40 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <v>46608</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="J4">
-        <v>1828466</v>
-      </c>
-      <c r="K4" t="s">
-        <v>217</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1794,40 +1517,40 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5">
+        <v>29424</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
         <v>31</v>
       </c>
-      <c r="J5">
-        <v>288801</v>
-      </c>
-      <c r="K5" t="s">
-        <v>217</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1835,81 +1558,81 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>43709</v>
-      </c>
       <c r="J6">
-        <v>266550</v>
+        <v>20000</v>
       </c>
       <c r="K6" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
         <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J7">
-        <v>1000000</v>
+        <v>37000</v>
       </c>
       <c r="K7" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
         <v>39</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1917,40 +1640,40 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="J8">
-        <v>250000</v>
+        <v>9335</v>
       </c>
       <c r="K8" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
         <v>42</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1958,40 +1681,40 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9">
+        <v>34320</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
         <v>44</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>43678</v>
-      </c>
-      <c r="J9">
-        <v>1480000</v>
-      </c>
-      <c r="K9" t="s">
-        <v>217</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>45</v>
-      </c>
-      <c r="M9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1999,40 +1722,40 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <v>39078</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
         <v>47</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="M10" t="s">
         <v>48</v>
-      </c>
-      <c r="J10">
-        <v>2457216</v>
-      </c>
-      <c r="K10" t="s">
-        <v>217</v>
-      </c>
-      <c r="L10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2040,1454 +1763,1454 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J11">
-        <v>121446</v>
+        <v>22840</v>
       </c>
       <c r="K11" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>43647</v>
+        <v>13</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J12">
-        <v>995793</v>
+        <v>27800</v>
       </c>
       <c r="K12" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J13">
-        <v>1000000</v>
+        <v>186310</v>
       </c>
       <c r="K13" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M13" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14">
-        <v>360000</v>
+        <v>15316</v>
       </c>
       <c r="K14" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M14" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J15">
-        <v>126247</v>
+        <v>7447</v>
       </c>
       <c r="K15" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J16">
-        <v>384213</v>
+        <v>2413</v>
       </c>
       <c r="K16" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M16" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" s="1">
-        <v>43647</v>
+      <c r="I17" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J17">
-        <v>657000</v>
+        <v>23780</v>
       </c>
       <c r="K17" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M17" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J18">
-        <v>373125</v>
+        <v>36154</v>
       </c>
       <c r="K18" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M18" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J19">
-        <v>33087</v>
+        <v>66027</v>
       </c>
       <c r="K19" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="M19" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="J20">
-        <v>438900</v>
+        <v>82100</v>
       </c>
       <c r="K20" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="M20" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J21">
-        <v>684540</v>
+        <v>56278</v>
       </c>
       <c r="K21" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M21" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J22">
-        <v>332608</v>
+        <v>2390</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L22" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="M22" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23" s="1">
-        <v>43586</v>
+      <c r="I23" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="J23">
-        <v>71397</v>
+        <v>35180</v>
       </c>
       <c r="K23" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L23" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="M23" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="J24">
-        <v>1433783</v>
+        <v>35498</v>
       </c>
       <c r="K24" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L24" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="M24" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J25">
-        <v>802763</v>
+        <v>23890</v>
       </c>
       <c r="K25" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L25" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="M25" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="J26">
-        <v>663407</v>
+        <v>15000</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L26" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="M26" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27" s="1">
-        <v>43709</v>
+      <c r="I27" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="J27">
-        <v>211674</v>
+        <v>4500</v>
       </c>
       <c r="K27" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L27" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="M27" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28" s="1">
-        <v>43647</v>
+      <c r="I28" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="J28">
-        <v>1000000</v>
+        <v>15092</v>
       </c>
       <c r="K28" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L28" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="M28" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>43800</v>
+        <v>25</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="J29">
-        <v>387613</v>
+        <v>29116</v>
       </c>
       <c r="K29" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L29" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="M29" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J30">
-        <v>538450</v>
+        <v>38241</v>
       </c>
       <c r="K30" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L30" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="M30" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" s="1">
-        <v>43647</v>
+      <c r="I31" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="J31">
-        <v>404000</v>
+        <v>1810</v>
       </c>
       <c r="K31" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L31" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="M31" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="J32">
-        <v>1600000</v>
+        <v>30944</v>
       </c>
       <c r="K32" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L32" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="M32" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="J33">
-        <v>1000000</v>
+        <v>31350</v>
       </c>
       <c r="K33" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L33" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="M33" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1">
-        <v>43586</v>
+        <v>44</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="J34">
-        <v>290164</v>
+        <v>21018</v>
       </c>
       <c r="K34" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L34" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="M34" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35" s="1">
-        <v>43497</v>
+      <c r="I35" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J35">
-        <v>559050</v>
+        <v>49875</v>
       </c>
       <c r="K35" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L35" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="M35" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1">
-        <v>43497</v>
+        <v>7</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="J36">
-        <v>525340</v>
+        <v>36400</v>
       </c>
       <c r="K36" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L36" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="M36" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="J37">
-        <v>60960</v>
+        <v>57200</v>
       </c>
       <c r="K37" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L37" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="M37" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
-      <c r="I38" s="1">
-        <v>43647</v>
+      <c r="I38" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J38">
-        <v>2000000</v>
+        <v>37360</v>
       </c>
       <c r="K38" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L38" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="M38" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J39">
-        <v>341860</v>
+        <v>32148</v>
       </c>
       <c r="K39" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L39" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="M39" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J40">
-        <v>1100000</v>
+        <v>7444</v>
       </c>
       <c r="K40" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L40" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="M40" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41" s="1">
-        <v>43586</v>
+        <v>17</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="J41">
-        <v>137190</v>
+        <v>26313</v>
       </c>
       <c r="K41" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L41" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="M41" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="J42">
-        <v>1279987</v>
+        <v>19100</v>
       </c>
       <c r="K42" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L42" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="M42" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" s="1">
-        <v>43647</v>
+        <v>7</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="J43">
-        <v>201321</v>
+        <v>28385</v>
       </c>
       <c r="K43" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L43" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="M43" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J44">
-        <v>378999</v>
+        <v>42897</v>
       </c>
       <c r="K44" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L44" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="M44" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="J45">
-        <v>7376</v>
+        <v>7922</v>
       </c>
       <c r="K45" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L45" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="M45" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
         <v>166</v>
@@ -3496,1167 +3219,757 @@
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="J46">
-        <v>584040</v>
+        <v>24780</v>
       </c>
       <c r="K46" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="L46" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="M46" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="J47">
-        <v>31087</v>
+        <v>25280</v>
       </c>
       <c r="K47" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="L47" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="M47" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J48">
-        <v>87858</v>
+        <v>10850</v>
       </c>
       <c r="K48" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="L48" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="M48" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J49">
-        <v>74289</v>
+        <v>7374</v>
       </c>
       <c r="K49" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="L49" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="M49" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J50">
-        <v>291100</v>
+        <v>14776</v>
       </c>
       <c r="K50" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="L50" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="M50" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="J51">
-        <v>142218</v>
+        <v>19800</v>
       </c>
       <c r="K51" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="L51" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="M51" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="J52">
-        <v>6670</v>
+        <v>34800</v>
       </c>
       <c r="K52" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="L52" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="M52" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="J53">
-        <v>114600</v>
+        <v>60000</v>
       </c>
       <c r="K53" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="L53" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="M53" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="J54">
-        <v>56800</v>
+        <v>1700</v>
       </c>
       <c r="K54" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="L54" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="M54" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="J55">
-        <v>104030</v>
+        <v>2500</v>
       </c>
       <c r="K55" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="L55" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="M55" t="s">
-        <v>201</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="J56">
-        <v>57920</v>
+        <v>51032</v>
       </c>
       <c r="K56" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="L56" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M56" t="s">
-        <v>201</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="J57">
-        <v>29178</v>
+        <v>1700</v>
       </c>
       <c r="K57" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="L57" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="M57" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58" s="1">
-        <v>43647</v>
+        <v>56</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="J58">
-        <v>990000</v>
+        <v>170000</v>
       </c>
       <c r="K58" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="L58" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="M58" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J59">
-        <v>122444</v>
+        <v>68125</v>
       </c>
       <c r="K59" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="L59" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="M59" t="s">
-        <v>214</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J60">
-        <v>1045377</v>
+        <v>139409</v>
       </c>
       <c r="K60" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L60" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="M60" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61" s="1">
-        <v>43617</v>
+        <v>50</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="J61">
-        <v>2040212</v>
+        <v>35344</v>
       </c>
       <c r="K61" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L61" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="M61" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J62">
-        <v>756108</v>
+        <v>22931</v>
       </c>
       <c r="K62" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L62" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="M62" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="J63">
-        <v>2000000</v>
+        <v>30288</v>
       </c>
       <c r="K63" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L63" t="s">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="M63" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="J64">
-        <v>5000000</v>
+        <v>235110</v>
       </c>
       <c r="K64" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="L64" t="s">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="M64" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>231</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>232</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J65">
-        <v>6338438</v>
-      </c>
-      <c r="K65" t="s">
-        <v>217</v>
-      </c>
-      <c r="L65" t="s">
-        <v>111</v>
-      </c>
-      <c r="M65" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>234</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>235</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66" s="1">
-        <v>43525</v>
-      </c>
-      <c r="J66">
-        <v>520777</v>
-      </c>
-      <c r="K66" t="s">
-        <v>217</v>
-      </c>
-      <c r="L66" t="s">
-        <v>236</v>
-      </c>
-      <c r="M66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>237</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>238</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67" s="1">
-        <v>43647</v>
-      </c>
-      <c r="J67">
-        <v>1320860</v>
-      </c>
-      <c r="K67" t="s">
-        <v>217</v>
-      </c>
-      <c r="L67" t="s">
-        <v>239</v>
-      </c>
-      <c r="M67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>240</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>241</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J68">
-        <v>964698</v>
-      </c>
-      <c r="K68" t="s">
-        <v>217</v>
-      </c>
-      <c r="L68" t="s">
-        <v>242</v>
-      </c>
-      <c r="M68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>243</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>244</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J69">
-        <v>1106358.5</v>
-      </c>
-      <c r="K69" t="s">
-        <v>217</v>
-      </c>
-      <c r="L69" t="s">
-        <v>245</v>
-      </c>
-      <c r="M69" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>247</v>
-      </c>
-      <c r="B70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>248</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70" s="1">
-        <v>43800</v>
-      </c>
-      <c r="J70">
-        <v>722933</v>
-      </c>
-      <c r="K70" t="s">
-        <v>217</v>
-      </c>
-      <c r="L70" t="s">
-        <v>249</v>
-      </c>
-      <c r="M70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>250</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>251</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71" s="1">
-        <v>43647</v>
-      </c>
-      <c r="J71">
-        <v>764516</v>
-      </c>
-      <c r="K71" t="s">
-        <v>217</v>
-      </c>
-      <c r="L71" t="s">
-        <v>252</v>
-      </c>
-      <c r="M71" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>253</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>254</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72" s="1">
-        <v>43525</v>
-      </c>
-      <c r="J72">
-        <v>618578</v>
-      </c>
-      <c r="K72" t="s">
-        <v>217</v>
-      </c>
-      <c r="L72" t="s">
-        <v>252</v>
-      </c>
-      <c r="M72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>255</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>256</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J73">
-        <v>6835656</v>
-      </c>
-      <c r="K73" t="s">
-        <v>217</v>
-      </c>
-      <c r="L73" t="s">
-        <v>257</v>
-      </c>
-      <c r="M73" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>258</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>259</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J74">
-        <v>771809</v>
-      </c>
-      <c r="K74" t="s">
-        <v>217</v>
-      </c>
-      <c r="L74" t="s">
-        <v>260</v>
-      </c>
-      <c r="M74" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/TRACK.xlsx
+++ b/TRACK.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\Abacus\Transaction\Abacas-transaaction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAILY WORK\APRIL\17.04.2019\ABAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="96">
   <si>
     <t>refrence</t>
   </si>
@@ -66,463 +66,247 @@
     <t>Dubai- UAE</t>
   </si>
   <si>
-    <t>TANGSHAN YIFEI TRADING CO.</t>
-  </si>
-  <si>
-    <t>TANGSHAN CITY-CHINA</t>
-  </si>
-  <si>
-    <t>HORIZONE LINE GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>HLG-0586</t>
-  </si>
-  <si>
-    <t>05/03/2019</t>
-  </si>
-  <si>
-    <t>EURO</t>
-  </si>
-  <si>
-    <t>AGM JACTEX AG</t>
-  </si>
-  <si>
-    <t>SWITZERLAND</t>
-  </si>
-  <si>
-    <t>HLG-0587</t>
-  </si>
-  <si>
-    <t>ANHUAI CO LTD</t>
-  </si>
-  <si>
-    <t>HLG-0638</t>
-  </si>
-  <si>
-    <t>18/03/2019</t>
-  </si>
-  <si>
-    <t>ANTOLINI LUIGI &amp; C  SPA</t>
-  </si>
-  <si>
-    <t>ITALY</t>
-  </si>
-  <si>
-    <t>HLG-0624</t>
-  </si>
-  <si>
-    <t>14/03/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZOL GAS,SL </t>
-  </si>
-  <si>
-    <t>SPAIN</t>
-  </si>
-  <si>
-    <t>HLG-0644</t>
-  </si>
-  <si>
-    <t>19/03/2019</t>
-  </si>
-  <si>
-    <t>BIOTECHRABBIT GMBH</t>
-  </si>
-  <si>
-    <t>GERMANY</t>
-  </si>
-  <si>
-    <t>HLG-0610</t>
-  </si>
-  <si>
-    <t>06/03/2019</t>
-  </si>
-  <si>
-    <t>BIOZYM GESELLSCHAFT FUR ENZYMTECHNOLOGIE MBH</t>
-  </si>
-  <si>
-    <t>HLG-0614</t>
-  </si>
-  <si>
-    <t>07/03/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCS INNOVATIVE DIAGNOSTIK SYSTEME </t>
-  </si>
-  <si>
-    <t>HLG-0637</t>
-  </si>
-  <si>
-    <t>DUTCH QUALITY PRODUCTS BV</t>
-  </si>
-  <si>
-    <t>NETHERLAND</t>
-  </si>
-  <si>
-    <t>HLG-0633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-KICOM HB    </t>
-  </si>
-  <si>
-    <t>SWEDEN</t>
-  </si>
-  <si>
-    <t>HLG-0585</t>
-  </si>
-  <si>
-    <t>ELECATIS TRADING AND ENGINEERING</t>
-  </si>
-  <si>
-    <t>HLG-0613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERWEKA GMBH  </t>
-  </si>
-  <si>
-    <t>HLG-0601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETI ELEKTROELEMENT DO O </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLOVENIA </t>
-  </si>
-  <si>
-    <t>HLG-0630</t>
-  </si>
-  <si>
-    <t>EXCISS GMBH</t>
-  </si>
-  <si>
-    <t>HLG-0582</t>
-  </si>
-  <si>
-    <t>04/03/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEDEV CONSULTING  </t>
-  </si>
-  <si>
-    <t>FRANCE</t>
-  </si>
-  <si>
-    <t>HLG-0584</t>
-  </si>
-  <si>
-    <t>FERTIPLANT BV</t>
-  </si>
-  <si>
-    <t>HLG-0588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORBO SARLINO SAS  </t>
-  </si>
-  <si>
-    <t>HLG-0622</t>
-  </si>
-  <si>
-    <t>13/03/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRONIUS INTERNATIONAL GMBH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUSTRIA </t>
-  </si>
-  <si>
-    <t>HLG-0616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAW GMBH   </t>
-  </si>
-  <si>
-    <t>HLG-0597</t>
-  </si>
-  <si>
-    <t>11/03/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEOCLIMA S.R.L  </t>
-  </si>
-  <si>
-    <t>HLG-0611</t>
-  </si>
-  <si>
-    <t>GLASS MOULD SERVICE BVBA</t>
-  </si>
-  <si>
-    <t>BELGIUM</t>
-  </si>
-  <si>
-    <t>HLG-0580</t>
-  </si>
-  <si>
-    <t>GREENTECH SA- BIOPOLE CHERIMONT</t>
-  </si>
-  <si>
-    <t>HLG-0602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBERCHEM S.A    </t>
-  </si>
-  <si>
-    <t>HLG-0599</t>
-  </si>
-  <si>
-    <t>INCO SRL INDUSTRIAL COLORI SPA</t>
-  </si>
-  <si>
-    <t>HLG-0628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INNOVACIO TECNOLOGICA CATALANA SL </t>
-  </si>
-  <si>
-    <t>HLG-0615</t>
-  </si>
-  <si>
-    <t>INTERSHIP EURPOPE N V</t>
-  </si>
-  <si>
-    <t>HLG-0598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITM S.R.L    </t>
-  </si>
-  <si>
-    <t>HLG-0594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KETTLITZ -CHEMIE GMBH AND CO </t>
-  </si>
-  <si>
-    <t>HLG-0600</t>
-  </si>
-  <si>
-    <t>MAHA MASCHINENBAU H</t>
-  </si>
-  <si>
-    <t>HLG-0607</t>
-  </si>
-  <si>
-    <t>MICHEL VAN DE WIELE NV</t>
-  </si>
-  <si>
-    <t>HLG-0612</t>
-  </si>
-  <si>
-    <t>MIDDLE EAST CONSULTING AND TRADING GMBH</t>
-  </si>
-  <si>
-    <t>HLG-0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOL GUMMIVERARBEITUNG GMBH AND CO KG </t>
-  </si>
-  <si>
-    <t>HLG-0593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEXIRA      </t>
-  </si>
-  <si>
-    <t>HLG-0648</t>
-  </si>
-  <si>
-    <t>21/03/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOREVO GMBH  </t>
-  </si>
-  <si>
-    <t>HLG-0606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUREL SA      </t>
-  </si>
-  <si>
-    <t>HLG-0627</t>
-  </si>
-  <si>
-    <t>OXYTOP.SP.ZO.O</t>
-  </si>
-  <si>
-    <t>POLAND</t>
-  </si>
-  <si>
-    <t>HLG-0605</t>
-  </si>
-  <si>
-    <t>PETRONYX  GMBH</t>
-  </si>
-  <si>
-    <t>HLG-0591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREMIER S.R.L    </t>
-  </si>
-  <si>
-    <t>HLG-0617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROVITAL S.A </t>
-  </si>
-  <si>
-    <t>HLG-0631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REINERS +FURST GMBH U CO KG </t>
-  </si>
-  <si>
-    <t>HLG-0646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REISLAGER GMBH   </t>
-  </si>
-  <si>
-    <t>HLG-0642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIPOLL CONSULTING DE INGENIERIA SL </t>
-  </si>
-  <si>
-    <t>HLG-0618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROECHLING ENGINEERING PLASTICS SE AND CO KG </t>
-  </si>
-  <si>
-    <t>HLG-0636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMACO KILIAN GMBH </t>
-  </si>
-  <si>
-    <t>HLG-0629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROYAL INGREDIENTS GROUP BV </t>
-  </si>
-  <si>
-    <t>HLG-0590</t>
-  </si>
-  <si>
-    <t>SAMA MASCHINENBAU GMBH</t>
-  </si>
-  <si>
-    <t>HLG-0649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAS CAPELEC   </t>
-  </si>
-  <si>
-    <t>HLG-0621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAYOP GMBH   </t>
-  </si>
-  <si>
-    <t>HLG-0640</t>
-  </si>
-  <si>
-    <t>SUTHEE UNITRD CARBON CO LTD</t>
-  </si>
-  <si>
-    <t>THAILAND</t>
-  </si>
-  <si>
-    <t>HLG-0592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECHNICARTON   </t>
-  </si>
-  <si>
-    <t>HLG-0583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEM SRL    </t>
-  </si>
-  <si>
-    <t>HLG-0609</t>
-  </si>
-  <si>
-    <t>TRADEX HANDELSGESELLSCHAFT GMBH</t>
-  </si>
-  <si>
-    <t>HLG-0635</t>
-  </si>
-  <si>
-    <t>TS TESTING SERVICES GMBH</t>
-  </si>
-  <si>
-    <t>HLG-0581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VACUTEST KIMA SRL </t>
-  </si>
-  <si>
-    <t>HLG-0634</t>
-  </si>
-  <si>
-    <t>VACUTEST KIMA SRL   -</t>
-  </si>
-  <si>
-    <t>HLG-0647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEXXION INTERNATIONAL BV </t>
-  </si>
-  <si>
-    <t>HLG-0620</t>
-  </si>
-  <si>
-    <t>VONROLL HYDRO SUISSE AG</t>
-  </si>
-  <si>
-    <t>HLG-0651-CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMURFIT KAPPA  NERVION SA </t>
-  </si>
-  <si>
-    <t>HLG-0625-CL</t>
-  </si>
-  <si>
-    <t>RHEIN SCHMIERSTOFFE GMBH</t>
-  </si>
-  <si>
-    <t>HLG-0619-CL</t>
-  </si>
-  <si>
-    <t>PENTAX SPA</t>
-  </si>
-  <si>
-    <t>HLG-0641-CL</t>
-  </si>
-  <si>
-    <t>GRODAB CHEMIE HANDES GMBH</t>
-  </si>
-  <si>
-    <t>HLG-0645-CL</t>
-  </si>
-  <si>
-    <t>GREGOR ZIEGLER GMBH-</t>
-  </si>
-  <si>
-    <t>HLG-0626-CL</t>
-  </si>
-  <si>
-    <t>HLG-0643-CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRALON GMBH  </t>
-  </si>
-  <si>
     <t>MARCH 2019</t>
   </si>
   <si>
-    <t>FOSHAN - CHINA</t>
+    <t>AB100-1309</t>
+  </si>
+  <si>
+    <t>GRAND CRANETRADING LLC</t>
+  </si>
+  <si>
+    <t>AB100-1349-CL</t>
+  </si>
+  <si>
+    <t>AB100-1304</t>
+  </si>
+  <si>
+    <t>BLUE GULF FZE</t>
+  </si>
+  <si>
+    <t>AB100-1330</t>
+  </si>
+  <si>
+    <t>AB100-1318</t>
+  </si>
+  <si>
+    <t>J.M.T TRADING LLC</t>
+  </si>
+  <si>
+    <t>AB100-1315</t>
+  </si>
+  <si>
+    <t>JAZEERAT  QAIS GENERAL TRADING LLC</t>
+  </si>
+  <si>
+    <t>AB100-1331</t>
+  </si>
+  <si>
+    <t>NAGINA  MARKETING FZCO</t>
+  </si>
+  <si>
+    <t>AB100-1363</t>
+  </si>
+  <si>
+    <t>UNITED ENGINEERING CONSTRUCTION CO LLC</t>
+  </si>
+  <si>
+    <t>AB100-1354-CL</t>
+  </si>
+  <si>
+    <t>AB100-1340-CL</t>
+  </si>
+  <si>
+    <t>AB100-1355-CL</t>
+  </si>
+  <si>
+    <t>AB100-1345-CL</t>
+  </si>
+  <si>
+    <t>TEN STARS GENERAL TRADING LLC</t>
+  </si>
+  <si>
+    <t>AB100-1367-CL</t>
+  </si>
+  <si>
+    <t>GULBAHAR INTERNATIONAL FZE</t>
+  </si>
+  <si>
+    <t>AB100-1311-CL</t>
+  </si>
+  <si>
+    <t>BOPGT FZE</t>
+  </si>
+  <si>
+    <t>AB100-1321</t>
+  </si>
+  <si>
+    <t>AL MASHKA INTERNATIONAL FZE</t>
+  </si>
+  <si>
+    <t>AB100-1324</t>
+  </si>
+  <si>
+    <t>AXICOR DWC  LLC</t>
+  </si>
+  <si>
+    <t>AB100-1333</t>
+  </si>
+  <si>
+    <t>CHARMAX TEXTILE TRADING LLC</t>
+  </si>
+  <si>
+    <t>AB100-1334</t>
+  </si>
+  <si>
+    <t>DHALUMAL INTERNATIONAL TRADING LLC</t>
+  </si>
+  <si>
+    <t>AB100-1368</t>
+  </si>
+  <si>
+    <t>FARIDODIN HASSAN AHMADI(PERSONAL)</t>
+  </si>
+  <si>
+    <t>AB100-1306</t>
+  </si>
+  <si>
+    <t>GIVAUDAN MEA FZE</t>
+  </si>
+  <si>
+    <t>AB100-1351</t>
+  </si>
+  <si>
+    <t>IBS INTERNATIONAL GENERAL TRADING LLC</t>
+  </si>
+  <si>
+    <t>AB100-1296</t>
+  </si>
+  <si>
+    <t>MENA REAL ESTATE SOLUTIONS LLC</t>
+  </si>
+  <si>
+    <t>AB100-1314</t>
+  </si>
+  <si>
+    <t>OCEAN PEARL GENERAL TRADING LLC</t>
+  </si>
+  <si>
+    <t>AB100-1358</t>
+  </si>
+  <si>
+    <t>AB100-1338</t>
+  </si>
+  <si>
+    <t>AB100-1310</t>
+  </si>
+  <si>
+    <t>OTAY INTERNATIONAL FZE</t>
+  </si>
+  <si>
+    <t>AB100-1359</t>
+  </si>
+  <si>
+    <t>SOUTH GULF FZE</t>
+  </si>
+  <si>
+    <t>AB100-1360</t>
+  </si>
+  <si>
+    <t>AB100-1332</t>
+  </si>
+  <si>
+    <t>AB100-1350</t>
+  </si>
+  <si>
+    <t>AB100-1322</t>
+  </si>
+  <si>
+    <t>TRISTAR GULF FZCO</t>
+  </si>
+  <si>
+    <t>AB100-1313</t>
+  </si>
+  <si>
+    <t>UNITEX TEXTILE TRADING CO. LLC</t>
+  </si>
+  <si>
+    <t>AB100-1329-cl</t>
+  </si>
+  <si>
+    <t>AB100-1319-CL</t>
+  </si>
+  <si>
+    <t>AB100-1328-CL</t>
+  </si>
+  <si>
+    <t>AB100-1299-CL</t>
+  </si>
+  <si>
+    <t>AB100-1323-CL</t>
+  </si>
+  <si>
+    <t>THYBA INTERNATIONAL FZE</t>
+  </si>
+  <si>
+    <t>AB100-1353</t>
+  </si>
+  <si>
+    <t>AB100-1352</t>
+  </si>
+  <si>
+    <t>GULFGLORY MARINE SERVICES LLC</t>
+  </si>
+  <si>
+    <t>AB100-1305</t>
+  </si>
+  <si>
+    <t>PARS IRNIAN  RESTAURANT</t>
+  </si>
+  <si>
+    <t>AB100-1365</t>
+  </si>
+  <si>
+    <t>PCM TRADING FZE</t>
+  </si>
+  <si>
+    <t>AB100-1339</t>
+  </si>
+  <si>
+    <t>SUROOH TRADING FZE</t>
+  </si>
+  <si>
+    <t>AB100-1364</t>
+  </si>
+  <si>
+    <t>SUZHOU CONSTRUCTION EQUIPMENT AND MACHINERY TRADING LLC</t>
+  </si>
+  <si>
+    <t>AB100-1302-CL</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>DECEMBER 2018</t>
+  </si>
+  <si>
+    <t>JANUARY 2019</t>
+  </si>
+  <si>
+    <t>FEBRUARY 2019</t>
+  </si>
+  <si>
+    <t>ABAN INTERNATIONAL GENERAL TRADING LLC</t>
+  </si>
+  <si>
+    <t>LEMAR INTERNATIONAL SDN BHD</t>
+  </si>
+  <si>
+    <t>KLANG, MALAYSIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharjah- UAE </t>
   </si>
 </sst>
 </file>
@@ -1330,22 +1114,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1373,7 +1160,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1391,2585 +1178,1752 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>43460</v>
+      </c>
+      <c r="J2">
+        <v>140000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2">
-        <v>16058</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="H3">
-        <v>45</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>43454</v>
       </c>
       <c r="J3">
-        <v>9864</v>
+        <v>1392403</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
+      <c r="I4" s="1">
+        <v>43475</v>
       </c>
       <c r="J4">
-        <v>46608</v>
+        <v>100000</v>
       </c>
       <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
         <v>20</v>
       </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>43472</v>
       </c>
       <c r="J5">
-        <v>29424</v>
+        <v>450000</v>
       </c>
       <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="H6">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>43485</v>
       </c>
       <c r="J6">
-        <v>20000</v>
+        <v>295000</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="H7">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>43484</v>
       </c>
       <c r="J7">
-        <v>37000</v>
+        <v>235700</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="H8">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>43493</v>
       </c>
       <c r="J8">
-        <v>9335</v>
+        <v>450000</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="H9">
-        <v>45</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>43496</v>
       </c>
       <c r="J9">
-        <v>34320</v>
+        <v>2800000</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="H10">
-        <v>13</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>43467</v>
       </c>
       <c r="J10">
-        <v>39078</v>
+        <v>1888500</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>19</v>
+      <c r="I11" s="1">
+        <v>43482</v>
       </c>
       <c r="J11">
-        <v>22840</v>
+        <v>3017694</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="H12">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>43496</v>
       </c>
       <c r="J12">
-        <v>27800</v>
+        <v>2845385</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="H13">
-        <v>35</v>
-      </c>
-      <c r="I13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>43482</v>
+      </c>
+      <c r="J13">
+        <v>4000000</v>
+      </c>
+      <c r="K13" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" t="s">
         <v>34</v>
       </c>
-      <c r="J13">
-        <v>186310</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>54</v>
-      </c>
       <c r="M13" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="H14">
-        <v>35</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>43494</v>
       </c>
       <c r="J14">
-        <v>15316</v>
+        <v>10000000</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="H15">
-        <v>44</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>43481</v>
       </c>
       <c r="J15">
-        <v>7447</v>
+        <v>2158250</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M15" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H16">
-        <v>44</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>43509</v>
       </c>
       <c r="J16">
-        <v>2413</v>
+        <v>300000</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L16" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>19</v>
+      <c r="I17" s="1">
+        <v>43516</v>
       </c>
       <c r="J17">
-        <v>23780</v>
+        <v>367400</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="M17" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H18">
-        <v>35</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>43508</v>
       </c>
       <c r="J18">
-        <v>36154</v>
+        <v>552730</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>41</v>
+      <c r="I19" s="1">
+        <v>43498</v>
       </c>
       <c r="J19">
-        <v>66027</v>
+        <v>600000</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="M19" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>73</v>
+      <c r="I20" s="1">
+        <v>43512</v>
       </c>
       <c r="J20">
-        <v>82100</v>
+        <v>20000000</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="M20" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H21">
-        <v>17</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>43501</v>
       </c>
       <c r="J21">
-        <v>56278</v>
+        <v>105500</v>
       </c>
       <c r="K21" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L21" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="M21" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H22">
-        <v>50</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>43517</v>
       </c>
       <c r="J22">
-        <v>2390</v>
+        <v>1335000</v>
       </c>
       <c r="K22" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L22" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M22" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>34</v>
+      <c r="I23" s="1">
+        <v>43522</v>
       </c>
       <c r="J23">
-        <v>35180</v>
+        <v>1300</v>
       </c>
       <c r="K23" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L23" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="M23" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>73</v>
+      <c r="I24" s="1">
+        <v>43514</v>
       </c>
       <c r="J24">
-        <v>35498</v>
+        <v>200000</v>
       </c>
       <c r="K24" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L24" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="M24" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>26</v>
+      <c r="I25" s="1">
+        <v>43514</v>
       </c>
       <c r="J25">
-        <v>23890</v>
+        <v>2000000</v>
       </c>
       <c r="K25" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L25" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M25" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>41</v>
+      <c r="I26" s="1">
+        <v>43515</v>
       </c>
       <c r="J26">
-        <v>15000</v>
+        <v>859550</v>
       </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L26" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="M26" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>73</v>
+      <c r="I27" s="1">
+        <v>43513</v>
       </c>
       <c r="J27">
-        <v>4500</v>
+        <v>145800</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L27" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="M27" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>73</v>
+      <c r="I28" s="1">
+        <v>43516</v>
       </c>
       <c r="J28">
-        <v>15092</v>
+        <v>2000000</v>
       </c>
       <c r="K28" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L28" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="M28" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H29">
-        <v>25</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>43516</v>
       </c>
       <c r="J29">
-        <v>29116</v>
+        <v>2000000</v>
       </c>
       <c r="K29" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L29" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="M29" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>38</v>
+      <c r="I30" s="1">
+        <v>43517</v>
       </c>
       <c r="J30">
-        <v>38241</v>
+        <v>510000</v>
       </c>
       <c r="K30" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L30" t="s">
+        <v>62</v>
+      </c>
+      <c r="M30" t="s">
         <v>95</v>
-      </c>
-      <c r="M30" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>38</v>
+      <c r="I31" s="1">
+        <v>43498</v>
       </c>
       <c r="J31">
-        <v>1810</v>
+        <v>1155610</v>
       </c>
       <c r="K31" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L31" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="M31" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H32">
-        <v>7</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>43515</v>
       </c>
       <c r="J32">
-        <v>30944</v>
+        <v>300000</v>
       </c>
       <c r="K32" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L32" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="M32" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H33">
-        <v>44</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>43505</v>
       </c>
       <c r="J33">
-        <v>31350</v>
+        <v>172680</v>
       </c>
       <c r="K33" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L33" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="M33" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H34">
-        <v>44</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>103</v>
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>43517</v>
       </c>
       <c r="J34">
-        <v>21018</v>
+        <v>4400000</v>
       </c>
       <c r="K34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" t="s">
-        <v>104</v>
-      </c>
-      <c r="M34" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>59</v>
+      <c r="I35" s="1">
+        <v>43512</v>
       </c>
       <c r="J35">
-        <v>49875</v>
+        <v>1699000</v>
       </c>
       <c r="K35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" t="s">
-        <v>106</v>
-      </c>
-      <c r="M35" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H36">
-        <v>7</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>43501</v>
       </c>
       <c r="J36">
-        <v>36400</v>
+        <v>2634125</v>
       </c>
       <c r="K36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" t="s">
-        <v>108</v>
-      </c>
-      <c r="M36" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>59</v>
+      <c r="I37" s="1">
+        <v>43498</v>
       </c>
       <c r="J37">
-        <v>57200</v>
+        <v>1720005</v>
       </c>
       <c r="K37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" t="s">
-        <v>111</v>
-      </c>
-      <c r="M37" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>19</v>
+      <c r="I38" s="1">
+        <v>43499</v>
       </c>
       <c r="J38">
-        <v>37360</v>
+        <v>1270000</v>
       </c>
       <c r="K38" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L38" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="M38" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
       </c>
       <c r="D39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="E39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s">
-        <v>166</v>
-      </c>
       <c r="H39">
-        <v>50</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>43530</v>
       </c>
       <c r="J39">
-        <v>32148</v>
+        <v>1723722</v>
       </c>
       <c r="K39" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L39" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="M39" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
         <v>15</v>
       </c>
-      <c r="E40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s">
-        <v>166</v>
-      </c>
       <c r="H40">
-        <v>25</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>43526</v>
       </c>
       <c r="J40">
-        <v>7444</v>
+        <v>1703553.26</v>
       </c>
       <c r="K40" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L40" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="M40" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
         <v>15</v>
       </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
-        <v>166</v>
-      </c>
       <c r="H41">
-        <v>17</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>43529</v>
       </c>
       <c r="J41">
-        <v>26313</v>
+        <v>100000</v>
       </c>
       <c r="K41" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L41" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="M41" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
         <v>15</v>
       </c>
-      <c r="E42" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
-        <v>166</v>
-      </c>
       <c r="H42">
         <v>1</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>26</v>
+      <c r="I42" s="1">
+        <v>43526</v>
       </c>
       <c r="J42">
-        <v>19100</v>
+        <v>3908535</v>
       </c>
       <c r="K42" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L42" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="M42" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
       <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
         <v>15</v>
       </c>
-      <c r="E43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>166</v>
-      </c>
       <c r="H43">
-        <v>7</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>43526</v>
       </c>
       <c r="J43">
-        <v>28385</v>
+        <v>861789.05</v>
       </c>
       <c r="K43" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L43" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="M43" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
       <c r="D44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
         <v>15</v>
       </c>
-      <c r="E44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
-        <v>166</v>
-      </c>
       <c r="H44">
         <v>1</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>26</v>
+      <c r="I44" s="1">
+        <v>43526</v>
       </c>
       <c r="J44">
-        <v>42897</v>
+        <v>3526122.69</v>
       </c>
       <c r="K44" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="L44" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="M44" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
       <c r="D45" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
         <v>15</v>
       </c>
-      <c r="E45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s">
-        <v>166</v>
-      </c>
       <c r="H45">
-        <v>44</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>43526</v>
       </c>
       <c r="J45">
-        <v>7922</v>
+        <v>827200</v>
       </c>
       <c r="K45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" t="s">
-        <v>127</v>
-      </c>
-      <c r="M45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s">
-        <v>166</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46">
-        <v>24780</v>
-      </c>
-      <c r="K46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" t="s">
-        <v>129</v>
-      </c>
-      <c r="M46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>130</v>
-      </c>
-      <c r="B47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s">
-        <v>166</v>
-      </c>
-      <c r="H47">
-        <v>13</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J47">
-        <v>25280</v>
-      </c>
-      <c r="K47" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" t="s">
-        <v>131</v>
-      </c>
-      <c r="M47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H48">
-        <v>35</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J48">
-        <v>10850</v>
-      </c>
-      <c r="K48" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" t="s">
-        <v>133</v>
-      </c>
-      <c r="M48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s">
-        <v>166</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J49">
-        <v>7374</v>
-      </c>
-      <c r="K49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s">
-        <v>166</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50">
-        <v>14776</v>
-      </c>
-      <c r="K50" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" t="s">
-        <v>138</v>
-      </c>
-      <c r="M50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s">
-        <v>166</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J51">
-        <v>19800</v>
-      </c>
-      <c r="K51" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" t="s">
-        <v>140</v>
-      </c>
-      <c r="M51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s">
-        <v>166</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J52">
-        <v>34800</v>
-      </c>
-      <c r="K52" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" t="s">
-        <v>142</v>
-      </c>
-      <c r="M52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s">
-        <v>166</v>
-      </c>
-      <c r="H53">
-        <v>13</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J53">
-        <v>60000</v>
-      </c>
-      <c r="K53" t="s">
-        <v>20</v>
-      </c>
-      <c r="L53" t="s">
-        <v>144</v>
-      </c>
-      <c r="M53" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s">
-        <v>166</v>
-      </c>
-      <c r="H54">
-        <v>13</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J54">
-        <v>1700</v>
-      </c>
-      <c r="K54" t="s">
-        <v>20</v>
-      </c>
-      <c r="L54" t="s">
-        <v>146</v>
-      </c>
-      <c r="M54" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>147</v>
-      </c>
-      <c r="B55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s">
-        <v>166</v>
-      </c>
-      <c r="H55">
-        <v>13</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J55">
-        <v>2500</v>
-      </c>
-      <c r="K55" t="s">
-        <v>20</v>
-      </c>
-      <c r="L55" t="s">
-        <v>148</v>
-      </c>
-      <c r="M55" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s">
-        <v>166</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J56">
-        <v>51032</v>
-      </c>
-      <c r="K56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L56" t="s">
-        <v>150</v>
-      </c>
-      <c r="M56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>151</v>
-      </c>
-      <c r="B57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s">
-        <v>166</v>
-      </c>
-      <c r="H57">
-        <v>7</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J57">
-        <v>1700</v>
-      </c>
-      <c r="K57" t="s">
-        <v>20</v>
-      </c>
-      <c r="L57" t="s">
-        <v>152</v>
-      </c>
-      <c r="M57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>153</v>
-      </c>
-      <c r="B58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s">
-        <v>166</v>
-      </c>
-      <c r="H58">
-        <v>56</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J58">
-        <v>170000</v>
-      </c>
-      <c r="K58" t="s">
-        <v>20</v>
-      </c>
-      <c r="L58" t="s">
-        <v>154</v>
-      </c>
-      <c r="M58" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>155</v>
-      </c>
-      <c r="B59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s">
-        <v>166</v>
-      </c>
-      <c r="H59">
-        <v>25</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J59">
-        <v>68125</v>
-      </c>
-      <c r="K59" t="s">
-        <v>20</v>
-      </c>
-      <c r="L59" t="s">
-        <v>156</v>
-      </c>
-      <c r="M59" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s">
-        <v>166</v>
-      </c>
-      <c r="H60">
-        <v>26</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J60">
-        <v>139409</v>
-      </c>
-      <c r="K60" t="s">
-        <v>20</v>
-      </c>
-      <c r="L60" t="s">
-        <v>158</v>
-      </c>
-      <c r="M60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>159</v>
-      </c>
-      <c r="B61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s">
-        <v>166</v>
-      </c>
-      <c r="H61">
-        <v>50</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J61">
-        <v>35344</v>
-      </c>
-      <c r="K61" t="s">
-        <v>20</v>
-      </c>
-      <c r="L61" t="s">
-        <v>160</v>
-      </c>
-      <c r="M61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>161</v>
-      </c>
-      <c r="B62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s">
-        <v>166</v>
-      </c>
-      <c r="H62">
-        <v>44</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J62">
-        <v>22931</v>
-      </c>
-      <c r="K62" t="s">
-        <v>20</v>
-      </c>
-      <c r="L62" t="s">
-        <v>162</v>
-      </c>
-      <c r="M62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>163</v>
-      </c>
-      <c r="B63" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s">
-        <v>166</v>
-      </c>
-      <c r="H63">
-        <v>44</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J63">
-        <v>30288</v>
-      </c>
-      <c r="K63" t="s">
-        <v>20</v>
-      </c>
-      <c r="L63" t="s">
-        <v>162</v>
-      </c>
-      <c r="M63" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s">
-        <v>166</v>
-      </c>
-      <c r="H64">
-        <v>7</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J64">
-        <v>235110</v>
-      </c>
-      <c r="K64" t="s">
-        <v>20</v>
-      </c>
-      <c r="L64" t="s">
-        <v>165</v>
-      </c>
-      <c r="M64" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/TRACK.xlsx
+++ b/TRACK.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAILY WORK\APRIL\17.04.2019\ABAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAILY WORK\APRIL\20.04.2019\HORIZON-G-MARCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="172">
   <si>
     <t>refrence</t>
   </si>
@@ -66,247 +66,475 @@
     <t>Dubai- UAE</t>
   </si>
   <si>
+    <t>TANGSHAN YIFEI TRADING CO.</t>
+  </si>
+  <si>
+    <t>TANGSHAN CITY-CHINA</t>
+  </si>
+  <si>
+    <t>HORIZONE LINE GENERAL TRADING LLC</t>
+  </si>
+  <si>
+    <t>05/03/2019</t>
+  </si>
+  <si>
+    <t>EURO</t>
+  </si>
+  <si>
+    <t>18/03/2019</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>14/03/2019</t>
+  </si>
+  <si>
+    <t>19/03/2019</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>06/03/2019</t>
+  </si>
+  <si>
+    <t>07/03/2019</t>
+  </si>
+  <si>
+    <t>04/03/2019</t>
+  </si>
+  <si>
+    <t>13/03/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEOCLIMA S.R.L  </t>
+  </si>
+  <si>
+    <t>21/03/2019</t>
+  </si>
+  <si>
     <t>MARCH 2019</t>
   </si>
   <si>
-    <t>AB100-1309</t>
-  </si>
-  <si>
-    <t>GRAND CRANETRADING LLC</t>
-  </si>
-  <si>
-    <t>AB100-1349-CL</t>
-  </si>
-  <si>
-    <t>AB100-1304</t>
-  </si>
-  <si>
-    <t>BLUE GULF FZE</t>
-  </si>
-  <si>
-    <t>AB100-1330</t>
-  </si>
-  <si>
-    <t>AB100-1318</t>
-  </si>
-  <si>
-    <t>J.M.T TRADING LLC</t>
-  </si>
-  <si>
-    <t>AB100-1315</t>
-  </si>
-  <si>
-    <t>JAZEERAT  QAIS GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>AB100-1331</t>
-  </si>
-  <si>
-    <t>NAGINA  MARKETING FZCO</t>
-  </si>
-  <si>
-    <t>AB100-1363</t>
-  </si>
-  <si>
-    <t>UNITED ENGINEERING CONSTRUCTION CO LLC</t>
-  </si>
-  <si>
-    <t>AB100-1354-CL</t>
-  </si>
-  <si>
-    <t>AB100-1340-CL</t>
-  </si>
-  <si>
-    <t>AB100-1355-CL</t>
-  </si>
-  <si>
-    <t>AB100-1345-CL</t>
-  </si>
-  <si>
-    <t>TEN STARS GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>AB100-1367-CL</t>
-  </si>
-  <si>
-    <t>GULBAHAR INTERNATIONAL FZE</t>
-  </si>
-  <si>
-    <t>AB100-1311-CL</t>
-  </si>
-  <si>
-    <t>BOPGT FZE</t>
-  </si>
-  <si>
-    <t>AB100-1321</t>
-  </si>
-  <si>
-    <t>AL MASHKA INTERNATIONAL FZE</t>
-  </si>
-  <si>
-    <t>AB100-1324</t>
-  </si>
-  <si>
-    <t>AXICOR DWC  LLC</t>
-  </si>
-  <si>
-    <t>AB100-1333</t>
-  </si>
-  <si>
-    <t>CHARMAX TEXTILE TRADING LLC</t>
-  </si>
-  <si>
-    <t>AB100-1334</t>
-  </si>
-  <si>
-    <t>DHALUMAL INTERNATIONAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>AB100-1368</t>
-  </si>
-  <si>
-    <t>FARIDODIN HASSAN AHMADI(PERSONAL)</t>
-  </si>
-  <si>
-    <t>AB100-1306</t>
-  </si>
-  <si>
-    <t>GIVAUDAN MEA FZE</t>
-  </si>
-  <si>
-    <t>AB100-1351</t>
-  </si>
-  <si>
-    <t>IBS INTERNATIONAL GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>AB100-1296</t>
-  </si>
-  <si>
-    <t>MENA REAL ESTATE SOLUTIONS LLC</t>
-  </si>
-  <si>
-    <t>AB100-1314</t>
-  </si>
-  <si>
-    <t>OCEAN PEARL GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>AB100-1358</t>
-  </si>
-  <si>
-    <t>AB100-1338</t>
-  </si>
-  <si>
-    <t>AB100-1310</t>
-  </si>
-  <si>
-    <t>OTAY INTERNATIONAL FZE</t>
-  </si>
-  <si>
-    <t>AB100-1359</t>
-  </si>
-  <si>
-    <t>SOUTH GULF FZE</t>
-  </si>
-  <si>
-    <t>AB100-1360</t>
-  </si>
-  <si>
-    <t>AB100-1332</t>
-  </si>
-  <si>
-    <t>AB100-1350</t>
-  </si>
-  <si>
-    <t>AB100-1322</t>
-  </si>
-  <si>
-    <t>TRISTAR GULF FZCO</t>
-  </si>
-  <si>
-    <t>AB100-1313</t>
-  </si>
-  <si>
-    <t>UNITEX TEXTILE TRADING CO. LLC</t>
-  </si>
-  <si>
-    <t>AB100-1329-cl</t>
-  </si>
-  <si>
-    <t>AB100-1319-CL</t>
-  </si>
-  <si>
-    <t>AB100-1328-CL</t>
-  </si>
-  <si>
-    <t>AB100-1299-CL</t>
-  </si>
-  <si>
-    <t>AB100-1323-CL</t>
-  </si>
-  <si>
-    <t>THYBA INTERNATIONAL FZE</t>
-  </si>
-  <si>
-    <t>AB100-1353</t>
-  </si>
-  <si>
-    <t>AB100-1352</t>
-  </si>
-  <si>
-    <t>GULFGLORY MARINE SERVICES LLC</t>
-  </si>
-  <si>
-    <t>AB100-1305</t>
-  </si>
-  <si>
-    <t>PARS IRNIAN  RESTAURANT</t>
-  </si>
-  <si>
-    <t>AB100-1365</t>
-  </si>
-  <si>
-    <t>PCM TRADING FZE</t>
-  </si>
-  <si>
-    <t>AB100-1339</t>
-  </si>
-  <si>
-    <t>SUROOH TRADING FZE</t>
-  </si>
-  <si>
-    <t>AB100-1364</t>
-  </si>
-  <si>
-    <t>SUZHOU CONSTRUCTION EQUIPMENT AND MACHINERY TRADING LLC</t>
-  </si>
-  <si>
-    <t>AB100-1302-CL</t>
+    <t>HLG-0689</t>
+  </si>
+  <si>
+    <t>02/03/2019</t>
   </si>
   <si>
     <t>AED</t>
   </si>
   <si>
-    <t>DECEMBER 2018</t>
-  </si>
-  <si>
-    <t>JANUARY 2019</t>
-  </si>
-  <si>
-    <t>FEBRUARY 2019</t>
-  </si>
-  <si>
-    <t>ABAN INTERNATIONAL GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>LEMAR INTERNATIONAL SDN BHD</t>
-  </si>
-  <si>
-    <t>KLANG, MALAYSIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharjah- UAE </t>
+    <t>AL FEEL TRADING LLC</t>
+  </si>
+  <si>
+    <t>HLG-0754</t>
+  </si>
+  <si>
+    <t>HLG-0690</t>
+  </si>
+  <si>
+    <t>ALKHALSAN GENERAL TRADING LLC</t>
+  </si>
+  <si>
+    <t>HLG-0725</t>
+  </si>
+  <si>
+    <t>12/03/2019</t>
+  </si>
+  <si>
+    <t>ANVERALLY AND SONS</t>
+  </si>
+  <si>
+    <t>HLG-0756</t>
+  </si>
+  <si>
+    <t>ANWAAR MEDICAL CENTER LLC</t>
+  </si>
+  <si>
+    <t>HLG-0746</t>
+  </si>
+  <si>
+    <t>BGRS TEXTILE SERVICES LLP</t>
+  </si>
+  <si>
+    <t>HLG-0684</t>
+  </si>
+  <si>
+    <t>BRIGHT POINT HEAVY EQUIPMENT TRADING LLC</t>
+  </si>
+  <si>
+    <t>HLG-0713</t>
+  </si>
+  <si>
+    <t>HLG-0714</t>
+  </si>
+  <si>
+    <t>HLG-0761</t>
+  </si>
+  <si>
+    <t>HLG-0764</t>
+  </si>
+  <si>
+    <t>HLG-0673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUZWAIR GENERAL TRADING LLC </t>
+  </si>
+  <si>
+    <t>HLG-0715</t>
+  </si>
+  <si>
+    <t>DMV-Fonterra Excipients GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>HLG-0747</t>
+  </si>
+  <si>
+    <t>HLG-0668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMAC ENGINEERING SERVICES LLC </t>
+  </si>
+  <si>
+    <t>HLG-0672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARAHI GENERAL TRADING LLC </t>
+  </si>
+  <si>
+    <t>HLG-0736</t>
+  </si>
+  <si>
+    <t>HLG-0659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GULF PROMPT PARTNERS GENERAL TRADING LLC </t>
+  </si>
+  <si>
+    <t>HLG-0765</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>HARDY EXPORT COMPANY</t>
+  </si>
+  <si>
+    <t>SRILANKA</t>
+  </si>
+  <si>
+    <t>HLG-0729</t>
+  </si>
+  <si>
+    <t>JET PROFIT CO.,LTD</t>
+  </si>
+  <si>
+    <t>HLG-0667</t>
+  </si>
+  <si>
+    <t>KLEBCHEMIE M. G. Becker GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>HLG-0711</t>
+  </si>
+  <si>
+    <t>17/03/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGIC BRICK BUILDING MATERIAL TRADING LLC </t>
+  </si>
+  <si>
+    <t>HLG-0742</t>
+  </si>
+  <si>
+    <t>20/03/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARBO ITALIA SPA  </t>
+  </si>
+  <si>
+    <t>HLG-0738</t>
+  </si>
+  <si>
+    <t>MONTE STELLA TRADING LLC</t>
+  </si>
+  <si>
+    <t>HLG-0675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEWROZ BANEH TRADING LLC </t>
+  </si>
+  <si>
+    <t>HLG-0702</t>
+  </si>
+  <si>
+    <t>OPAL INTERNATIONALTRADING FZE</t>
+  </si>
+  <si>
+    <t>HLG-0721</t>
+  </si>
+  <si>
+    <t>09/03/2019</t>
+  </si>
+  <si>
+    <t>P&amp;A CORPORATION</t>
+  </si>
+  <si>
+    <t>SOUTH KOREA</t>
+  </si>
+  <si>
+    <t>HLG-0731</t>
+  </si>
+  <si>
+    <t>POINT MOBILE CO.,LTD</t>
+  </si>
+  <si>
+    <t>HLG-0739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMZ AL HAQEEGA GENERAL TRADING LLC </t>
+  </si>
+  <si>
+    <t>HLG-0701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECAZ STAR GENERAL TRADING LLC </t>
+  </si>
+  <si>
+    <t>HLG-0743</t>
+  </si>
+  <si>
+    <t>RENNER ITALIA S.P.A</t>
+  </si>
+  <si>
+    <t>HLG-0722</t>
+  </si>
+  <si>
+    <t>SAMSUNG POLYMER CO</t>
+  </si>
+  <si>
+    <t>HLG-0744</t>
+  </si>
+  <si>
+    <t>SMURFIT KAPPA  UK LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNITED KINGDOM </t>
+  </si>
+  <si>
+    <t>HLG-0691</t>
+  </si>
+  <si>
+    <t>STRONG VIEW TRADING FZE</t>
+  </si>
+  <si>
+    <t>HLG-0728</t>
+  </si>
+  <si>
+    <t>UNITERRA  TRADING GMBH</t>
+  </si>
+  <si>
+    <t>HLG-0724</t>
+  </si>
+  <si>
+    <t>VAN REES CEYLON LTD</t>
+  </si>
+  <si>
+    <t>HLG-0674</t>
+  </si>
+  <si>
+    <t>VIVOTEK MIDDLE EAST</t>
+  </si>
+  <si>
+    <t>HLG-0720</t>
+  </si>
+  <si>
+    <t>ZYTOMED SYSTEM GMBH</t>
+  </si>
+  <si>
+    <t>HLG-0681-CL</t>
+  </si>
+  <si>
+    <t>TUF COMMODITIES DMCC</t>
+  </si>
+  <si>
+    <t>HLG-0763-CL</t>
+  </si>
+  <si>
+    <t>TOURANTO FLAVOURS AND FRAGRANCES FZE</t>
+  </si>
+  <si>
+    <t>HLG-0750-CL</t>
+  </si>
+  <si>
+    <t>HLG-0758-CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAJ AL MULOOK GENERAL TRADING LLC </t>
+  </si>
+  <si>
+    <t>HLG-0692-CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOREN SKY VIEW TRADING LLC </t>
+  </si>
+  <si>
+    <t>HLG-0696-CL</t>
+  </si>
+  <si>
+    <t>POLY BRAND FZCO</t>
+  </si>
+  <si>
+    <t>HLG-0717-CL</t>
+  </si>
+  <si>
+    <t>Petrochemicals &amp; Solvents Middle East DMCC</t>
+  </si>
+  <si>
+    <t>HLG-0727-CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENTAX SPA </t>
+  </si>
+  <si>
+    <t>HLG-0748-CL</t>
+  </si>
+  <si>
+    <t>OTC PHARMA GMBH</t>
+  </si>
+  <si>
+    <t>HLG-0755-CL</t>
+  </si>
+  <si>
+    <t>NORTH WEST TRADING LLC</t>
+  </si>
+  <si>
+    <t>HLG-0654-CL</t>
+  </si>
+  <si>
+    <t>MOON STONE HOME ELECTRICAL APPLIANCES TRADING LLC</t>
+  </si>
+  <si>
+    <t>HLG-0708-CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDKT TRADING FZE                 </t>
+  </si>
+  <si>
+    <t>HLG-0663-CL</t>
+  </si>
+  <si>
+    <t>16/03/2019</t>
+  </si>
+  <si>
+    <t>HLG-0749-CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAKE VIEW BUILDING MATERIALS TRADING LLC  </t>
+  </si>
+  <si>
+    <t>HLG-0700-CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAKE VIEW BUILDING MATERIALS LLC    </t>
+  </si>
+  <si>
+    <t>HLG-0682-CL</t>
+  </si>
+  <si>
+    <t>GREEN CITY GENERAL TRADING LLC</t>
+  </si>
+  <si>
+    <t>HLG-0759-CL</t>
+  </si>
+  <si>
+    <t>HLG-0745-CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBC KOREA CO.,LTD </t>
+  </si>
+  <si>
+    <t>HLG-0737-CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRALON GMBH   </t>
+  </si>
+  <si>
+    <t>HLG-0760-CL</t>
+  </si>
+  <si>
+    <t>DOX TECHNOLOGIES LLC</t>
+  </si>
+  <si>
+    <t>HLG-0676-CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANO INTERNATIONAL TRADING LLC         </t>
+  </si>
+  <si>
+    <t>HLG-0657-CL</t>
+  </si>
+  <si>
+    <t>HLG-0735-CL</t>
+  </si>
+  <si>
+    <t>CY PRECISION INDUSTRY CO LTD</t>
+  </si>
+  <si>
+    <t>HLG-0753-CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTURY LINK GENERAL TRADING LLC </t>
+  </si>
+  <si>
+    <t>HLG-0677-CL</t>
+  </si>
+  <si>
+    <t>HLG-0762-CL</t>
+  </si>
+  <si>
+    <t>BEHOVER INFORMATION TECHNOLOGY LLC</t>
+  </si>
+  <si>
+    <t>HLG-0685-CL</t>
+  </si>
+  <si>
+    <t>ADVANCE  BANKING SOLUTIONS TRADING DMCC</t>
+  </si>
+  <si>
+    <t>HLG-0699-CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABU DHABI FERTILIZER INDUSTRIES CO WLL </t>
+  </si>
+  <si>
+    <t>Abu Dhabi - United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Dubai- U.A.E</t>
+  </si>
+  <si>
+    <t>COLOMBO- SRILANK</t>
+  </si>
+  <si>
+    <t>GUJRAT- INDIA</t>
+  </si>
+  <si>
+    <t>HONGKONG-CHINA</t>
+  </si>
+  <si>
+    <t>SEOUL- SOUTH KOREA</t>
+  </si>
+  <si>
+    <t>RAK- UAE</t>
+  </si>
+  <si>
+    <t>Peliyagoda- Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAIWAN- </t>
   </si>
 </sst>
 </file>
@@ -790,9 +1018,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1114,25 +1343,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:XFD135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1160,7 +1388,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1178,1752 +1406,2702 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>89</v>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>43460</v>
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J2">
-        <v>140000</v>
+        <v>93421</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>89</v>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>43454</v>
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J3">
-        <v>1392403</v>
+        <v>700000</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>90</v>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>43475</v>
+        <v>35</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J4">
-        <v>100000</v>
+        <v>309701</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
-        <v>90</v>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>43472</v>
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="J5">
-        <v>450000</v>
+        <v>94486.59</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
-        <v>90</v>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>43485</v>
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="J6">
-        <v>295000</v>
+        <v>150000</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
-        <v>90</v>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>43484</v>
+        <v>35</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="J7">
-        <v>235700</v>
+        <v>15059.37</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" t="s">
-        <v>90</v>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>43493</v>
+        <v>35</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="J8">
-        <v>450000</v>
+        <v>350000</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
-        <v>90</v>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>43496</v>
+        <v>35</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J9">
-        <v>2800000</v>
+        <v>300000</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10">
+        <v>35</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>43467</v>
-      </c>
       <c r="J10">
-        <v>1888500</v>
+        <v>450000</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s">
-        <v>90</v>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>43482</v>
+        <v>35</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="J11">
-        <v>3017694</v>
+        <v>400000</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" t="s">
-        <v>90</v>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>43496</v>
+        <v>35</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="J12">
-        <v>2845385</v>
+        <v>350000</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="G13" t="s">
-        <v>90</v>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>43482</v>
+        <v>35</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J13">
-        <v>4000000</v>
+        <v>183750</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" t="s">
-        <v>90</v>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>43494</v>
+        <v>35</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J14">
-        <v>10000000</v>
+        <v>220013.55</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="M14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" t="s">
-        <v>90</v>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>43481</v>
+        <v>35</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="J15">
-        <v>2158250</v>
+        <v>285013.37</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="M15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
-      <c r="G16" t="s">
-        <v>91</v>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>43509</v>
+        <v>35</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J16">
-        <v>300000</v>
+        <v>101283</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L16" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="M16" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s">
-        <v>91</v>
+      <c r="G17" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>43516</v>
+        <v>35</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J17">
-        <v>367400</v>
+        <v>139555</v>
       </c>
       <c r="K17" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M17" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
-      <c r="G18" t="s">
-        <v>91</v>
+      <c r="G18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>43508</v>
+        <v>35</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="J18">
-        <v>552730</v>
+        <v>82109.78</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
-      <c r="G19" t="s">
-        <v>91</v>
+      <c r="G19" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>43498</v>
+        <v>35</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J19">
-        <v>600000</v>
+        <v>1042600</v>
       </c>
       <c r="K19" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="M19" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
-      <c r="G20" t="s">
-        <v>91</v>
+      <c r="G20" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>43512</v>
+        <v>35</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="J20">
-        <v>20000000</v>
+        <v>9175.1200000000008</v>
       </c>
       <c r="K20" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="M20" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
-      <c r="G21" t="s">
-        <v>91</v>
+      <c r="G21" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>43501</v>
+        <v>35</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J21">
-        <v>105500</v>
+        <v>32466.5</v>
       </c>
       <c r="K21" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="M21" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
-      <c r="G22" t="s">
-        <v>91</v>
+      <c r="G22" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>43517</v>
+        <v>35</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J22">
-        <v>1335000</v>
+        <v>97560</v>
       </c>
       <c r="K22" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="L22" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="M22" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
-      <c r="G23" t="s">
-        <v>91</v>
+      <c r="G23" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>43522</v>
+        <v>35</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="J23">
-        <v>1300</v>
+        <v>1378000</v>
       </c>
       <c r="K23" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L23" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="M23" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
-      <c r="G24" t="s">
-        <v>91</v>
+      <c r="G24" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
-        <v>43514</v>
+        <v>35</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="J24">
-        <v>200000</v>
+        <v>96617</v>
       </c>
       <c r="K24" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="L24" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="M24" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
-      <c r="G25" t="s">
-        <v>91</v>
+      <c r="G25" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <v>43514</v>
+        <v>35</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J25">
-        <v>2000000</v>
+        <v>95566</v>
       </c>
       <c r="K25" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="L25" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="M25" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
-      <c r="G26" t="s">
-        <v>91</v>
+      <c r="G26" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>43515</v>
+        <v>35</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J26">
-        <v>859550</v>
+        <v>433850</v>
       </c>
       <c r="K26" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L26" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="M26" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
-      <c r="G27" t="s">
-        <v>91</v>
+      <c r="G27" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>43513</v>
+        <v>35</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J27">
-        <v>145800</v>
+        <v>901204</v>
       </c>
       <c r="K27" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L27" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="M27" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
-      <c r="G28" t="s">
-        <v>91</v>
+      <c r="G28" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>43516</v>
+        <v>35</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="J28">
-        <v>2000000</v>
+        <v>111676.7</v>
       </c>
       <c r="K28" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="L28" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="M28" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
       </c>
-      <c r="G29" t="s">
-        <v>91</v>
+      <c r="G29" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>43516</v>
+        <v>35</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J29">
-        <v>2000000</v>
+        <v>65208.5</v>
       </c>
       <c r="K29" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="L29" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="M29" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30">
+        <v>35</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30">
+        <v>20592</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" t="s">
         <v>91</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>43517</v>
-      </c>
-      <c r="J30">
-        <v>510000</v>
-      </c>
-      <c r="K30" t="s">
-        <v>88</v>
-      </c>
-      <c r="L30" t="s">
-        <v>62</v>
-      </c>
       <c r="M30" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31">
+        <v>35</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31">
+        <v>623186</v>
+      </c>
+      <c r="K31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" t="s">
         <v>93</v>
       </c>
-      <c r="E31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1">
-        <v>43498</v>
-      </c>
-      <c r="J31">
-        <v>1155610</v>
-      </c>
-      <c r="K31" t="s">
-        <v>88</v>
-      </c>
-      <c r="L31" t="s">
-        <v>34</v>
-      </c>
       <c r="M31" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
-      <c r="G32" t="s">
-        <v>91</v>
+      <c r="G32" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1">
-        <v>43515</v>
+        <v>35</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="J32">
-        <v>300000</v>
+        <v>50000</v>
       </c>
       <c r="K32" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="L32" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="M32" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
-      <c r="G33" t="s">
-        <v>91</v>
+      <c r="G33" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1">
-        <v>43505</v>
+        <v>35</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="J33">
-        <v>172680</v>
+        <v>241012.78</v>
       </c>
       <c r="K33" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="L33" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="M33" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
-      <c r="G34" t="s">
-        <v>91</v>
+      <c r="G34" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1">
-        <v>43517</v>
+        <v>35</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="J34">
-        <v>4400000</v>
+        <v>160009.37</v>
       </c>
       <c r="K34" t="s">
-        <v>88</v>
+        <v>19</v>
+      </c>
+      <c r="L34" t="s">
+        <v>99</v>
+      </c>
+      <c r="M34" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
       </c>
-      <c r="G35" t="s">
-        <v>91</v>
+      <c r="G35" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1">
-        <v>43512</v>
+        <v>35</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="J35">
-        <v>1699000</v>
+        <v>225200</v>
       </c>
       <c r="K35" t="s">
-        <v>88</v>
+        <v>34</v>
+      </c>
+      <c r="L35" t="s">
+        <v>102</v>
+      </c>
+      <c r="M35" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
-      <c r="G36" t="s">
-        <v>91</v>
+      <c r="G36" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1">
-        <v>43501</v>
+        <v>35</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J36">
-        <v>2634125</v>
+        <v>102804.86</v>
       </c>
       <c r="K36" t="s">
-        <v>88</v>
+        <v>19</v>
+      </c>
+      <c r="L36" t="s">
+        <v>104</v>
+      </c>
+      <c r="M36" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
       </c>
-      <c r="G37" t="s">
-        <v>91</v>
+      <c r="G37" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1">
-        <v>43498</v>
+        <v>35</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="J37">
-        <v>1720005</v>
+        <v>104805.59</v>
       </c>
       <c r="K37" t="s">
-        <v>88</v>
+        <v>19</v>
+      </c>
+      <c r="L37" t="s">
+        <v>106</v>
+      </c>
+      <c r="M37" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
       </c>
-      <c r="G38" t="s">
-        <v>91</v>
+      <c r="G38" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38" s="1">
-        <v>43499</v>
+        <v>35</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J38">
-        <v>1270000</v>
+        <v>400000</v>
       </c>
       <c r="K38" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L38" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="M38" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
       </c>
-      <c r="G39" t="s">
-        <v>15</v>
+      <c r="G39" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39" s="1">
-        <v>43530</v>
+        <v>35</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="J39">
-        <v>1723722</v>
+        <v>38377.85</v>
       </c>
       <c r="K39" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="L39" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="M39" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
       </c>
-      <c r="G40" t="s">
-        <v>15</v>
+      <c r="G40" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40" s="1">
-        <v>43526</v>
+        <v>35</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="J40">
-        <v>1703553.26</v>
+        <v>730880</v>
       </c>
       <c r="K40" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L40" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="M40" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
       </c>
-      <c r="G41" t="s">
-        <v>15</v>
+      <c r="G41" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41" s="1">
-        <v>43529</v>
+        <v>35</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J41">
-        <v>100000</v>
+        <v>1433602</v>
       </c>
       <c r="K41" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L41" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="M41" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
       </c>
-      <c r="G42" t="s">
-        <v>15</v>
+      <c r="G42" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42" s="1">
-        <v>43526</v>
+        <v>35</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="J42">
-        <v>3908535</v>
+        <v>1523268</v>
       </c>
       <c r="K42" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L42" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="M42" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
       </c>
-      <c r="G43" t="s">
-        <v>15</v>
+      <c r="G43" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" s="1">
-        <v>43526</v>
+        <v>35</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J43">
-        <v>861789.05</v>
+        <v>578366</v>
       </c>
       <c r="K43" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L43" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="M43" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
       </c>
-      <c r="G44" t="s">
-        <v>15</v>
+      <c r="G44" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44" s="1">
-        <v>43526</v>
+        <v>35</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J44">
-        <v>3526122.69</v>
+        <v>1500000</v>
       </c>
       <c r="K44" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="L44" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="M44" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45">
+        <v>35</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45">
+        <v>878647</v>
+      </c>
+      <c r="K45" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" t="s">
+        <v>121</v>
+      </c>
+      <c r="M45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46">
+        <v>35</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46">
+        <v>138208</v>
+      </c>
+      <c r="K46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" t="s">
+        <v>123</v>
+      </c>
+      <c r="M46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47">
+        <v>35</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47">
+        <v>293495.46000000002</v>
+      </c>
+      <c r="K47" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" t="s">
+        <v>125</v>
+      </c>
+      <c r="M47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48">
+        <v>35</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48">
+        <v>741711.29</v>
+      </c>
+      <c r="K48" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" t="s">
+        <v>127</v>
+      </c>
+      <c r="M48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49">
+        <v>35</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49">
+        <v>743980</v>
+      </c>
+      <c r="K49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" t="s">
+        <v>129</v>
+      </c>
+      <c r="M49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50">
+        <v>35</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50">
+        <v>3000000</v>
+      </c>
+      <c r="K50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" t="s">
+        <v>131</v>
+      </c>
+      <c r="M50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51">
+        <v>35</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51">
+        <v>4362955</v>
+      </c>
+      <c r="K51" t="s">
+        <v>34</v>
+      </c>
+      <c r="L51" t="s">
+        <v>133</v>
+      </c>
+      <c r="M51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52">
+        <v>35</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J52">
+        <v>4204435</v>
+      </c>
+      <c r="K52" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" t="s">
+        <v>133</v>
+      </c>
+      <c r="M52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53">
+        <v>35</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53">
+        <v>2827000</v>
+      </c>
+      <c r="K53" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" t="s">
+        <v>137</v>
+      </c>
+      <c r="M53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54">
+        <v>35</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54">
+        <v>759440</v>
+      </c>
+      <c r="K54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" t="s">
+        <v>139</v>
+      </c>
+      <c r="M54" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55">
+        <v>35</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55">
+        <v>877000</v>
+      </c>
+      <c r="K55" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" t="s">
+        <v>141</v>
+      </c>
+      <c r="M55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56">
+        <v>35</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56">
+        <v>1600000</v>
+      </c>
+      <c r="K56" t="s">
+        <v>34</v>
+      </c>
+      <c r="L56" t="s">
+        <v>141</v>
+      </c>
+      <c r="M56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57">
+        <v>35</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57">
+        <v>491655.15</v>
+      </c>
+      <c r="K57" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" t="s">
+        <v>144</v>
+      </c>
+      <c r="M57" t="s">
         <v>87</v>
       </c>
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" t="s">
-        <v>94</v>
-      </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45" s="1">
-        <v>43526</v>
-      </c>
-      <c r="J45">
-        <v>827200</v>
-      </c>
-      <c r="K45" t="s">
-        <v>88</v>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58">
+        <v>35</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J58">
+        <v>145019.4</v>
+      </c>
+      <c r="K58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" t="s">
+        <v>146</v>
+      </c>
+      <c r="M58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59">
+        <v>35</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J59">
+        <v>1000000</v>
+      </c>
+      <c r="K59" t="s">
+        <v>34</v>
+      </c>
+      <c r="L59" t="s">
+        <v>148</v>
+      </c>
+      <c r="M59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60">
+        <v>35</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60">
+        <v>4610000</v>
+      </c>
+      <c r="K60" t="s">
+        <v>34</v>
+      </c>
+      <c r="L60" t="s">
+        <v>150</v>
+      </c>
+      <c r="M60" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61">
+        <v>35</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61">
+        <v>5684238</v>
+      </c>
+      <c r="K61" t="s">
+        <v>34</v>
+      </c>
+      <c r="L61" t="s">
+        <v>150</v>
+      </c>
+      <c r="M61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62">
+        <v>35</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62">
+        <v>205448.94</v>
+      </c>
+      <c r="K62" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" t="s">
+        <v>153</v>
+      </c>
+      <c r="M62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63">
+        <v>35</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63">
+        <v>1054691</v>
+      </c>
+      <c r="K63" t="s">
+        <v>34</v>
+      </c>
+      <c r="L63" t="s">
+        <v>155</v>
+      </c>
+      <c r="M63" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64">
+        <v>35</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64">
+        <v>5500000</v>
+      </c>
+      <c r="K64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65">
+        <v>35</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J65">
+        <v>3736859</v>
+      </c>
+      <c r="K65" t="s">
+        <v>34</v>
+      </c>
+      <c r="L65" t="s">
+        <v>158</v>
+      </c>
+      <c r="M65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66">
+        <v>35</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66">
+        <v>649842</v>
+      </c>
+      <c r="K66" t="s">
+        <v>34</v>
+      </c>
+      <c r="L66" t="s">
+        <v>160</v>
+      </c>
+      <c r="M66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67">
+        <v>35</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J67">
+        <v>635764</v>
+      </c>
+      <c r="K67" t="s">
+        <v>34</v>
+      </c>
+      <c r="L67" t="s">
+        <v>162</v>
+      </c>
+      <c r="M67" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/TRACK.xlsx
+++ b/TRACK.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="181">
   <si>
     <t>refrence</t>
   </si>
@@ -69,9 +69,6 @@
     <t>TANGSHAN YIFEI TRADING CO.</t>
   </si>
   <si>
-    <t>TANGSHAN CITY-CHINA</t>
-  </si>
-  <si>
     <t>HORIZONE LINE GENERAL TRADING LLC</t>
   </si>
   <si>
@@ -84,18 +81,12 @@
     <t>18/03/2019</t>
   </si>
   <si>
-    <t>ITALY</t>
-  </si>
-  <si>
     <t>14/03/2019</t>
   </si>
   <si>
     <t>19/03/2019</t>
   </si>
   <si>
-    <t>GERMANY</t>
-  </si>
-  <si>
     <t>06/03/2019</t>
   </si>
   <si>
@@ -186,9 +177,6 @@
     <t>HLG-0715</t>
   </si>
   <si>
-    <t>DMV-Fonterra Excipients GmbH &amp; Co. KG</t>
-  </si>
-  <si>
     <t>HLG-0747</t>
   </si>
   <si>
@@ -219,12 +207,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>HARDY EXPORT COMPANY</t>
-  </si>
-  <si>
-    <t>SRILANKA</t>
-  </si>
-  <si>
     <t>HLG-0729</t>
   </si>
   <si>
@@ -234,9 +216,6 @@
     <t>HLG-0667</t>
   </si>
   <si>
-    <t>KLEBCHEMIE M. G. Becker GmbH &amp; Co. KG</t>
-  </si>
-  <si>
     <t>HLG-0711</t>
   </si>
   <si>
@@ -282,9 +261,6 @@
     <t>P&amp;A CORPORATION</t>
   </si>
   <si>
-    <t>SOUTH KOREA</t>
-  </si>
-  <si>
     <t>HLG-0731</t>
   </si>
   <si>
@@ -321,9 +297,6 @@
     <t>SMURFIT KAPPA  UK LTD</t>
   </si>
   <si>
-    <t xml:space="preserve">UNITED KINGDOM </t>
-  </si>
-  <si>
     <t>HLG-0691</t>
   </si>
   <si>
@@ -390,21 +363,12 @@
     <t>HLG-0717-CL</t>
   </si>
   <si>
-    <t>Petrochemicals &amp; Solvents Middle East DMCC</t>
-  </si>
-  <si>
     <t>HLG-0727-CL</t>
   </si>
   <si>
-    <t xml:space="preserve">PENTAX SPA </t>
-  </si>
-  <si>
     <t>HLG-0748-CL</t>
   </si>
   <si>
-    <t>OTC PHARMA GMBH</t>
-  </si>
-  <si>
     <t>HLG-0755-CL</t>
   </si>
   <si>
@@ -516,25 +480,88 @@
     <t>Dubai- U.A.E</t>
   </si>
   <si>
-    <t>COLOMBO- SRILANK</t>
-  </si>
-  <si>
-    <t>GUJRAT- INDIA</t>
-  </si>
-  <si>
-    <t>HONGKONG-CHINA</t>
-  </si>
-  <si>
-    <t>SEOUL- SOUTH KOREA</t>
-  </si>
-  <si>
-    <t>RAK- UAE</t>
-  </si>
-  <si>
     <t>Peliyagoda- Sri Lanka</t>
   </si>
   <si>
-    <t xml:space="preserve">TAIWAN- </t>
+    <t>DMV-FONTERRA EXCIPIENTS GMBH &amp; CO. KG</t>
+  </si>
+  <si>
+    <t>HARDY EXPORT COMPANY (PVT) LTD</t>
+  </si>
+  <si>
+    <t>KLEBCHEMIE M. G. BECKER GMBH &amp; CO. KG</t>
+  </si>
+  <si>
+    <t>PETROCHEMICALS &amp; SOLVENTS MIDDLE EAST DMCC</t>
+  </si>
+  <si>
+    <t>PENTAX INDUSTRIES SPA</t>
+  </si>
+  <si>
+    <t>EURO OTC PHARMA GMBH</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tangshan City- China</t>
+  </si>
+  <si>
+    <t>Colombo- Sri Lanka</t>
+  </si>
+  <si>
+    <t>Gujarat- India</t>
+  </si>
+  <si>
+    <t>Goch- Germany</t>
+  </si>
+  <si>
+    <t>Gorizia- Italy</t>
+  </si>
+  <si>
+    <t>Panadura- Sri Lanka</t>
+  </si>
+  <si>
+    <t>Hong Kong- China</t>
+  </si>
+  <si>
+    <t>Weingarten- Germany</t>
+  </si>
+  <si>
+    <t>Pavia- Italy</t>
+  </si>
+  <si>
+    <t>Seoul- South Korea</t>
+  </si>
+  <si>
+    <t>Minerbio- Italy</t>
+  </si>
+  <si>
+    <t>Liverpool- England</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ras Al Khaimah- U.A.E </t>
+  </si>
+  <si>
+    <t>Stuttgart- Germany</t>
+  </si>
+  <si>
+    <t>Berlin- Germany</t>
+  </si>
+  <si>
+    <t>Verona- Italy</t>
+  </si>
+  <si>
+    <t>Bönen- Germany</t>
+  </si>
+  <si>
+    <t>Gyeonggi-do- South Korea</t>
+  </si>
+  <si>
+    <t>Lingen- Germany</t>
+  </si>
+  <si>
+    <t>Taipei- Taiwan</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1045,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1346,7 +1372,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:XFD135"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1386,7 @@
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1406,51 +1432,51 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
+      <c r="G2" t="s">
+        <v>28</v>
       </c>
       <c r="H2">
         <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>93421</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -1459,39 +1485,39 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
+      <c r="G3" t="s">
+        <v>28</v>
       </c>
       <c r="H3">
         <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J3">
         <v>700000</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1500,39 +1526,39 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
+      <c r="G4" t="s">
+        <v>28</v>
       </c>
       <c r="H4">
         <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>309701</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1541,39 +1567,39 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
+      <c r="G5" t="s">
+        <v>28</v>
       </c>
       <c r="H5">
         <v>35</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J5">
         <v>94486.59</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1582,39 +1608,39 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
+      <c r="G6" t="s">
+        <v>28</v>
       </c>
       <c r="H6">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J6">
         <v>150000</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M6" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1623,39 +1649,39 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
+      <c r="G7" t="s">
+        <v>28</v>
       </c>
       <c r="H7">
         <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J7">
         <v>15059.37</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1664,39 +1690,39 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
+      <c r="G8" t="s">
+        <v>28</v>
       </c>
       <c r="H8">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8">
         <v>350000</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1705,39 +1731,39 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>31</v>
+      <c r="G9" t="s">
+        <v>28</v>
       </c>
       <c r="H9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J9">
         <v>300000</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -1746,39 +1772,39 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>31</v>
+      <c r="G10" t="s">
+        <v>28</v>
       </c>
       <c r="H10">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J10">
         <v>450000</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1787,39 +1813,39 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>31</v>
+      <c r="G11" t="s">
+        <v>28</v>
       </c>
       <c r="H11">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J11">
         <v>400000</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1828,39 +1854,39 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>31</v>
+      <c r="G12" t="s">
+        <v>28</v>
       </c>
       <c r="H12">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J12">
         <v>350000</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1869,39 +1895,39 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>31</v>
+      <c r="G13" t="s">
+        <v>28</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J13">
         <v>183750</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M13" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1910,39 +1936,39 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>31</v>
+      <c r="G14" t="s">
+        <v>28</v>
       </c>
       <c r="H14">
         <v>35</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J14">
         <v>220013.55</v>
       </c>
       <c r="K14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1951,39 +1977,39 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>31</v>
+      <c r="G15" t="s">
+        <v>28</v>
       </c>
       <c r="H15">
         <v>35</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J15">
         <v>285013.37</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="M15" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1992,39 +2018,39 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>31</v>
+      <c r="G16" t="s">
+        <v>28</v>
       </c>
       <c r="H16">
         <v>35</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J16">
         <v>101283</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M16" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -2033,39 +2059,39 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>31</v>
+      <c r="G17" t="s">
+        <v>28</v>
       </c>
       <c r="H17">
         <v>35</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J17">
         <v>139555</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M17" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -2074,39 +2100,39 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>31</v>
+      <c r="G18" t="s">
+        <v>28</v>
       </c>
       <c r="H18">
         <v>35</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18">
         <v>82109.78</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M18" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -2115,39 +2141,39 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>31</v>
+      <c r="G19" t="s">
+        <v>28</v>
       </c>
       <c r="H19">
         <v>35</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J19">
         <v>1042600</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M19" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -2156,39 +2182,39 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>31</v>
+      <c r="G20" t="s">
+        <v>28</v>
       </c>
       <c r="H20">
         <v>35</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J20">
         <v>9175.1200000000008</v>
       </c>
       <c r="K20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="M20" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -2197,28 +2223,28 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>31</v>
+      <c r="G21" t="s">
+        <v>28</v>
       </c>
       <c r="H21">
         <v>35</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J21">
         <v>32466.5</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M21" t="s">
         <v>167</v>
@@ -2226,10 +2252,10 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -2238,39 +2264,39 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>31</v>
+      <c r="G22" t="s">
+        <v>28</v>
       </c>
       <c r="H22">
         <v>35</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J22">
         <v>97560</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L22" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="M22" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -2279,39 +2305,39 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>31</v>
+      <c r="G23" t="s">
+        <v>28</v>
       </c>
       <c r="H23">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J23">
         <v>1378000</v>
       </c>
       <c r="K23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L23" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="M23" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -2320,39 +2346,39 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>31</v>
+      <c r="G24" t="s">
+        <v>28</v>
       </c>
       <c r="H24">
         <v>35</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J24">
         <v>96617</v>
       </c>
       <c r="K24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L24" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="M24" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -2361,39 +2387,39 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>31</v>
+      <c r="G25" t="s">
+        <v>28</v>
       </c>
       <c r="H25">
         <v>35</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J25">
         <v>95566</v>
       </c>
       <c r="K25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L25" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M25" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -2402,39 +2428,39 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>31</v>
+      <c r="G26" t="s">
+        <v>28</v>
       </c>
       <c r="H26">
         <v>35</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J26">
         <v>433850</v>
       </c>
       <c r="K26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M26" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -2443,39 +2469,39 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>31</v>
+      <c r="G27" t="s">
+        <v>28</v>
       </c>
       <c r="H27">
         <v>35</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J27">
         <v>901204</v>
       </c>
       <c r="K27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M27" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -2484,39 +2510,39 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>31</v>
+      <c r="G28" t="s">
+        <v>28</v>
       </c>
       <c r="H28">
         <v>35</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J28">
         <v>111676.7</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L28" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="M28" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -2525,39 +2551,39 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>31</v>
+      <c r="G29" t="s">
+        <v>28</v>
       </c>
       <c r="H29">
         <v>35</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J29">
         <v>65208.5</v>
       </c>
       <c r="K29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L29" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="M29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -2566,39 +2592,39 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>31</v>
+      <c r="G30" t="s">
+        <v>28</v>
       </c>
       <c r="H30">
         <v>35</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J30">
         <v>20592</v>
       </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L30" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="M30" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -2607,39 +2633,39 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>31</v>
+      <c r="G31" t="s">
+        <v>28</v>
       </c>
       <c r="H31">
         <v>35</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J31">
         <v>623186</v>
       </c>
       <c r="K31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L31" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M31" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -2648,39 +2674,39 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>31</v>
+      <c r="G32" t="s">
+        <v>28</v>
       </c>
       <c r="H32">
         <v>35</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J32">
         <v>50000</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L32" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="M32" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -2689,39 +2715,39 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>31</v>
+      <c r="G33" t="s">
+        <v>28</v>
       </c>
       <c r="H33">
         <v>35</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J33">
         <v>241012.78</v>
       </c>
       <c r="K33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L33" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M33" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -2730,39 +2756,39 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>31</v>
+      <c r="G34" t="s">
+        <v>28</v>
       </c>
       <c r="H34">
         <v>35</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J34">
         <v>160009.37</v>
       </c>
       <c r="K34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M34" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -2771,39 +2797,39 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>31</v>
+      <c r="G35" t="s">
+        <v>28</v>
       </c>
       <c r="H35">
         <v>35</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J35">
         <v>225200</v>
       </c>
       <c r="K35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L35" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M35" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -2812,39 +2838,39 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>31</v>
+      <c r="G36" t="s">
+        <v>28</v>
       </c>
       <c r="H36">
         <v>35</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J36">
         <v>102804.86</v>
       </c>
       <c r="K36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M36" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2853,39 +2879,39 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>31</v>
+      <c r="G37" t="s">
+        <v>28</v>
       </c>
       <c r="H37">
         <v>35</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J37">
         <v>104805.59</v>
       </c>
       <c r="K37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M37" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2894,39 +2920,39 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>31</v>
+      <c r="G38" t="s">
+        <v>28</v>
       </c>
       <c r="H38">
         <v>35</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J38">
         <v>400000</v>
       </c>
       <c r="K38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L38" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M38" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2935,39 +2961,39 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>31</v>
+      <c r="G39" t="s">
+        <v>28</v>
       </c>
       <c r="H39">
         <v>35</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J39">
         <v>38377.85</v>
       </c>
       <c r="K39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L39" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M39" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2976,39 +3002,39 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>31</v>
+      <c r="G40" t="s">
+        <v>28</v>
       </c>
       <c r="H40">
         <v>35</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J40">
         <v>730880</v>
       </c>
       <c r="K40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L40" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M40" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -3017,39 +3043,39 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>31</v>
+      <c r="G41" t="s">
+        <v>28</v>
       </c>
       <c r="H41">
         <v>35</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J41">
         <v>1433602</v>
       </c>
       <c r="K41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L41" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="M41" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -3058,80 +3084,80 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>31</v>
+      <c r="G42" t="s">
+        <v>28</v>
       </c>
       <c r="H42">
         <v>35</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J42">
         <v>1523268</v>
       </c>
       <c r="K42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L42" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="M42" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43">
+        <v>35</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43">
-        <v>35</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="J43">
         <v>578366</v>
       </c>
       <c r="K43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L43" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M43" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -3140,39 +3166,39 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>31</v>
+      <c r="G44" t="s">
+        <v>28</v>
       </c>
       <c r="H44">
         <v>35</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J44">
         <v>1500000</v>
       </c>
       <c r="K44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L44" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M44" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -3181,39 +3207,39 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>31</v>
+      <c r="G45" t="s">
+        <v>28</v>
       </c>
       <c r="H45">
         <v>35</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J45">
         <v>878647</v>
       </c>
       <c r="K45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L45" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M45" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -3222,39 +3248,39 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>31</v>
+      <c r="G46" t="s">
+        <v>28</v>
       </c>
       <c r="H46">
         <v>35</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J46">
         <v>138208</v>
       </c>
       <c r="K46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L46" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="M46" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -3263,39 +3289,39 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>31</v>
+      <c r="G47" t="s">
+        <v>28</v>
       </c>
       <c r="H47">
         <v>35</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J47">
         <v>293495.46000000002</v>
       </c>
       <c r="K47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L47" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="M47" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -3304,39 +3330,39 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>31</v>
+      <c r="G48" t="s">
+        <v>28</v>
       </c>
       <c r="H48">
         <v>35</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J48">
         <v>741711.29</v>
       </c>
       <c r="K48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L48" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="M48" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -3345,39 +3371,39 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>31</v>
+      <c r="G49" t="s">
+        <v>28</v>
       </c>
       <c r="H49">
         <v>35</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J49">
         <v>743980</v>
       </c>
       <c r="K49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L49" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M49" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -3386,80 +3412,80 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>31</v>
+      <c r="G50" t="s">
+        <v>28</v>
       </c>
       <c r="H50">
         <v>35</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J50">
         <v>3000000</v>
       </c>
       <c r="K50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L50" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M50" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51">
+        <v>35</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51">
-        <v>35</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="J51">
         <v>4362955</v>
       </c>
       <c r="K51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L51" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="M51" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -3468,39 +3494,39 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>31</v>
+      <c r="G52" t="s">
+        <v>28</v>
       </c>
       <c r="H52">
         <v>35</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J52">
         <v>4204435</v>
       </c>
       <c r="K52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L52" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="M52" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -3509,39 +3535,39 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>31</v>
+      <c r="G53" t="s">
+        <v>28</v>
       </c>
       <c r="H53">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J53">
         <v>2827000</v>
       </c>
       <c r="K53" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L53" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="M53" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -3550,39 +3576,39 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>31</v>
+      <c r="G54" t="s">
+        <v>28</v>
       </c>
       <c r="H54">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J54">
         <v>759440</v>
       </c>
       <c r="K54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L54" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M54" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -3591,39 +3617,39 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>31</v>
+      <c r="G55" t="s">
+        <v>28</v>
       </c>
       <c r="H55">
         <v>35</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J55">
         <v>877000</v>
       </c>
       <c r="K55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L55" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="M55" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -3632,39 +3658,39 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>31</v>
+      <c r="G56" t="s">
+        <v>28</v>
       </c>
       <c r="H56">
         <v>35</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J56">
         <v>1600000</v>
       </c>
       <c r="K56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L56" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="M56" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -3673,39 +3699,39 @@
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>31</v>
+      <c r="G57" t="s">
+        <v>28</v>
       </c>
       <c r="H57">
         <v>35</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J57">
         <v>491655.15</v>
       </c>
       <c r="K57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L57" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M57" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -3714,39 +3740,39 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>31</v>
+      <c r="G58" t="s">
+        <v>28</v>
       </c>
       <c r="H58">
         <v>35</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J58">
         <v>145019.4</v>
       </c>
       <c r="K58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L58" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="M58" t="s">
-        <v>24</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -3755,121 +3781,121 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>31</v>
+      <c r="G59" t="s">
+        <v>28</v>
       </c>
       <c r="H59">
         <v>35</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J59">
         <v>1000000</v>
       </c>
       <c r="K59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L59" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="M59" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>161</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60">
+        <v>35</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H60">
-        <v>35</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="J60">
         <v>4610000</v>
       </c>
       <c r="K60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L60" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="M60" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>161</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61">
+        <v>35</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61">
-        <v>35</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="J61">
         <v>5684238</v>
       </c>
       <c r="K61" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L61" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="M61" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3878,39 +3904,39 @@
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>31</v>
+      <c r="G62" t="s">
+        <v>28</v>
       </c>
       <c r="H62">
         <v>35</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J62">
         <v>205448.94</v>
       </c>
       <c r="K62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L62" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="M62" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3919,39 +3945,39 @@
         <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>31</v>
+      <c r="G63" t="s">
+        <v>28</v>
       </c>
       <c r="H63">
         <v>35</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J63">
         <v>1054691</v>
       </c>
       <c r="K63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L63" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="M63" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3960,33 +3986,36 @@
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>31</v>
+      <c r="G64" t="s">
+        <v>28</v>
       </c>
       <c r="H64">
         <v>35</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J64">
         <v>5500000</v>
       </c>
       <c r="K64" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="L64" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -3995,39 +4024,39 @@
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F65" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>31</v>
+      <c r="G65" t="s">
+        <v>28</v>
       </c>
       <c r="H65">
         <v>35</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J65">
         <v>3736859</v>
       </c>
       <c r="K65" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L65" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="M65" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -4036,39 +4065,39 @@
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>31</v>
+      <c r="G66" t="s">
+        <v>28</v>
       </c>
       <c r="H66">
         <v>35</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J66">
         <v>649842</v>
       </c>
       <c r="K66" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L66" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="M66" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -4077,31 +4106,31 @@
         <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="F67" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>31</v>
+      <c r="G67" t="s">
+        <v>28</v>
       </c>
       <c r="H67">
         <v>35</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J67">
         <v>635764</v>
       </c>
       <c r="K67" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L67" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="M67" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/TRACK.xlsx
+++ b/TRACK.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAILY WORK\APRIL\20.04.2019\HORIZON-G-MARCH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Amin\Abacas-transaaction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,9 +63,6 @@
     <t>GOODS IN TRUST</t>
   </si>
   <si>
-    <t>Dubai- UAE</t>
-  </si>
-  <si>
     <t>TANGSHAN YIFEI TRADING CO.</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>MARCH 2019</t>
   </si>
   <si>
-    <t>HLG-0689</t>
-  </si>
-  <si>
     <t>02/03/2019</t>
   </si>
   <si>
@@ -120,372 +114,165 @@
     <t>AL FEEL TRADING LLC</t>
   </si>
   <si>
-    <t>HLG-0754</t>
-  </si>
-  <si>
-    <t>HLG-0690</t>
-  </si>
-  <si>
     <t>ALKHALSAN GENERAL TRADING LLC</t>
   </si>
   <si>
-    <t>HLG-0725</t>
-  </si>
-  <si>
     <t>12/03/2019</t>
   </si>
   <si>
     <t>ANVERALLY AND SONS</t>
   </si>
   <si>
-    <t>HLG-0756</t>
-  </si>
-  <si>
     <t>ANWAAR MEDICAL CENTER LLC</t>
   </si>
   <si>
-    <t>HLG-0746</t>
-  </si>
-  <si>
     <t>BGRS TEXTILE SERVICES LLP</t>
   </si>
   <si>
-    <t>HLG-0684</t>
-  </si>
-  <si>
     <t>BRIGHT POINT HEAVY EQUIPMENT TRADING LLC</t>
   </si>
   <si>
-    <t>HLG-0713</t>
-  </si>
-  <si>
-    <t>HLG-0714</t>
-  </si>
-  <si>
-    <t>HLG-0761</t>
-  </si>
-  <si>
-    <t>HLG-0764</t>
-  </si>
-  <si>
-    <t>HLG-0673</t>
-  </si>
-  <si>
     <t xml:space="preserve">BUZWAIR GENERAL TRADING LLC </t>
   </si>
   <si>
-    <t>HLG-0715</t>
-  </si>
-  <si>
-    <t>HLG-0747</t>
-  </si>
-  <si>
-    <t>HLG-0668</t>
-  </si>
-  <si>
     <t xml:space="preserve">EMAC ENGINEERING SERVICES LLC </t>
   </si>
   <si>
-    <t>HLG-0672</t>
-  </si>
-  <si>
     <t xml:space="preserve">FARAHI GENERAL TRADING LLC </t>
   </si>
   <si>
-    <t>HLG-0736</t>
-  </si>
-  <si>
-    <t>HLG-0659</t>
-  </si>
-  <si>
     <t xml:space="preserve">GULF PROMPT PARTNERS GENERAL TRADING LLC </t>
   </si>
   <si>
-    <t>HLG-0765</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
-    <t>HLG-0729</t>
-  </si>
-  <si>
     <t>JET PROFIT CO.,LTD</t>
   </si>
   <si>
-    <t>HLG-0667</t>
-  </si>
-  <si>
-    <t>HLG-0711</t>
-  </si>
-  <si>
     <t>17/03/2019</t>
   </si>
   <si>
     <t xml:space="preserve">MAGIC BRICK BUILDING MATERIAL TRADING LLC </t>
   </si>
   <si>
-    <t>HLG-0742</t>
-  </si>
-  <si>
     <t>20/03/2019</t>
   </si>
   <si>
     <t xml:space="preserve">MARBO ITALIA SPA  </t>
   </si>
   <si>
-    <t>HLG-0738</t>
-  </si>
-  <si>
     <t>MONTE STELLA TRADING LLC</t>
   </si>
   <si>
-    <t>HLG-0675</t>
-  </si>
-  <si>
     <t xml:space="preserve">NEWROZ BANEH TRADING LLC </t>
   </si>
   <si>
-    <t>HLG-0702</t>
-  </si>
-  <si>
     <t>OPAL INTERNATIONALTRADING FZE</t>
   </si>
   <si>
-    <t>HLG-0721</t>
-  </si>
-  <si>
     <t>09/03/2019</t>
   </si>
   <si>
     <t>P&amp;A CORPORATION</t>
   </si>
   <si>
-    <t>HLG-0731</t>
-  </si>
-  <si>
     <t>POINT MOBILE CO.,LTD</t>
   </si>
   <si>
-    <t>HLG-0739</t>
-  </si>
-  <si>
     <t xml:space="preserve">RAMZ AL HAQEEGA GENERAL TRADING LLC </t>
   </si>
   <si>
-    <t>HLG-0701</t>
-  </si>
-  <si>
     <t xml:space="preserve">RECAZ STAR GENERAL TRADING LLC </t>
   </si>
   <si>
-    <t>HLG-0743</t>
-  </si>
-  <si>
     <t>RENNER ITALIA S.P.A</t>
   </si>
   <si>
-    <t>HLG-0722</t>
-  </si>
-  <si>
     <t>SAMSUNG POLYMER CO</t>
   </si>
   <si>
-    <t>HLG-0744</t>
-  </si>
-  <si>
     <t>SMURFIT KAPPA  UK LTD</t>
   </si>
   <si>
-    <t>HLG-0691</t>
-  </si>
-  <si>
     <t>STRONG VIEW TRADING FZE</t>
   </si>
   <si>
-    <t>HLG-0728</t>
-  </si>
-  <si>
     <t>UNITERRA  TRADING GMBH</t>
   </si>
   <si>
-    <t>HLG-0724</t>
-  </si>
-  <si>
     <t>VAN REES CEYLON LTD</t>
   </si>
   <si>
-    <t>HLG-0674</t>
-  </si>
-  <si>
     <t>VIVOTEK MIDDLE EAST</t>
   </si>
   <si>
-    <t>HLG-0720</t>
-  </si>
-  <si>
     <t>ZYTOMED SYSTEM GMBH</t>
   </si>
   <si>
-    <t>HLG-0681-CL</t>
-  </si>
-  <si>
     <t>TUF COMMODITIES DMCC</t>
   </si>
   <si>
-    <t>HLG-0763-CL</t>
-  </si>
-  <si>
     <t>TOURANTO FLAVOURS AND FRAGRANCES FZE</t>
   </si>
   <si>
-    <t>HLG-0750-CL</t>
-  </si>
-  <si>
-    <t>HLG-0758-CL</t>
-  </si>
-  <si>
     <t xml:space="preserve">TAJ AL MULOOK GENERAL TRADING LLC </t>
   </si>
   <si>
-    <t>HLG-0692-CL</t>
-  </si>
-  <si>
     <t xml:space="preserve">SOREN SKY VIEW TRADING LLC </t>
   </si>
   <si>
-    <t>HLG-0696-CL</t>
-  </si>
-  <si>
     <t>POLY BRAND FZCO</t>
   </si>
   <si>
-    <t>HLG-0717-CL</t>
-  </si>
-  <si>
-    <t>HLG-0727-CL</t>
-  </si>
-  <si>
-    <t>HLG-0748-CL</t>
-  </si>
-  <si>
-    <t>HLG-0755-CL</t>
-  </si>
-  <si>
     <t>NORTH WEST TRADING LLC</t>
   </si>
   <si>
-    <t>HLG-0654-CL</t>
-  </si>
-  <si>
     <t>MOON STONE HOME ELECTRICAL APPLIANCES TRADING LLC</t>
   </si>
   <si>
-    <t>HLG-0708-CL</t>
-  </si>
-  <si>
     <t xml:space="preserve">MDKT TRADING FZE                 </t>
   </si>
   <si>
-    <t>HLG-0663-CL</t>
-  </si>
-  <si>
     <t>16/03/2019</t>
   </si>
   <si>
-    <t>HLG-0749-CL</t>
-  </si>
-  <si>
     <t xml:space="preserve">LAKE VIEW BUILDING MATERIALS TRADING LLC  </t>
   </si>
   <si>
-    <t>HLG-0700-CL</t>
-  </si>
-  <si>
     <t xml:space="preserve">LAKE VIEW BUILDING MATERIALS LLC    </t>
   </si>
   <si>
-    <t>HLG-0682-CL</t>
-  </si>
-  <si>
     <t>GREEN CITY GENERAL TRADING LLC</t>
   </si>
   <si>
-    <t>HLG-0759-CL</t>
-  </si>
-  <si>
-    <t>HLG-0745-CL</t>
-  </si>
-  <si>
     <t xml:space="preserve">EBC KOREA CO.,LTD </t>
   </si>
   <si>
-    <t>HLG-0737-CL</t>
-  </si>
-  <si>
     <t xml:space="preserve">DRALON GMBH   </t>
   </si>
   <si>
-    <t>HLG-0760-CL</t>
-  </si>
-  <si>
     <t>DOX TECHNOLOGIES LLC</t>
   </si>
   <si>
-    <t>HLG-0676-CL</t>
-  </si>
-  <si>
     <t xml:space="preserve">DANO INTERNATIONAL TRADING LLC         </t>
   </si>
   <si>
-    <t>HLG-0657-CL</t>
-  </si>
-  <si>
-    <t>HLG-0735-CL</t>
-  </si>
-  <si>
     <t>CY PRECISION INDUSTRY CO LTD</t>
   </si>
   <si>
-    <t>HLG-0753-CL</t>
-  </si>
-  <si>
     <t xml:space="preserve">CENTURY LINK GENERAL TRADING LLC </t>
   </si>
   <si>
-    <t>HLG-0677-CL</t>
-  </si>
-  <si>
-    <t>HLG-0762-CL</t>
-  </si>
-  <si>
     <t>BEHOVER INFORMATION TECHNOLOGY LLC</t>
   </si>
   <si>
-    <t>HLG-0685-CL</t>
-  </si>
-  <si>
     <t>ADVANCE  BANKING SOLUTIONS TRADING DMCC</t>
   </si>
   <si>
-    <t>HLG-0699-CL</t>
-  </si>
-  <si>
     <t xml:space="preserve">ABU DHABI FERTILIZER INDUSTRIES CO WLL </t>
   </si>
   <si>
-    <t>Abu Dhabi - United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Dubai- U.A.E</t>
-  </si>
-  <si>
-    <t>Peliyagoda- Sri Lanka</t>
-  </si>
-  <si>
-    <t>DMV-FONTERRA EXCIPIENTS GMBH &amp; CO. KG</t>
-  </si>
-  <si>
     <t>HARDY EXPORT COMPANY (PVT) LTD</t>
   </si>
   <si>
@@ -504,64 +291,277 @@
     <t/>
   </si>
   <si>
-    <t>Tangshan City- China</t>
-  </si>
-  <si>
-    <t>Colombo- Sri Lanka</t>
-  </si>
-  <si>
-    <t>Gujarat- India</t>
-  </si>
-  <si>
-    <t>Goch- Germany</t>
-  </si>
-  <si>
-    <t>Gorizia- Italy</t>
-  </si>
-  <si>
-    <t>Panadura- Sri Lanka</t>
-  </si>
-  <si>
-    <t>Hong Kong- China</t>
-  </si>
-  <si>
-    <t>Weingarten- Germany</t>
-  </si>
-  <si>
-    <t>Pavia- Italy</t>
-  </si>
-  <si>
-    <t>Seoul- South Korea</t>
-  </si>
-  <si>
-    <t>Minerbio- Italy</t>
-  </si>
-  <si>
-    <t>Liverpool- England</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ras Al Khaimah- U.A.E </t>
-  </si>
-  <si>
-    <t>Stuttgart- Germany</t>
-  </si>
-  <si>
-    <t>Berlin- Germany</t>
-  </si>
-  <si>
-    <t>Verona- Italy</t>
-  </si>
-  <si>
-    <t>Bönen- Germany</t>
-  </si>
-  <si>
-    <t>Gyeonggi-do- South Korea</t>
-  </si>
-  <si>
-    <t>Lingen- Germany</t>
-  </si>
-  <si>
-    <t>Taipei- Taiwan</t>
+    <t>HLG,0689</t>
+  </si>
+  <si>
+    <t>Dubai, U.A.E</t>
+  </si>
+  <si>
+    <t>Tangshan City, China</t>
+  </si>
+  <si>
+    <t>HLG,0754</t>
+  </si>
+  <si>
+    <t>Dubai, UAE</t>
+  </si>
+  <si>
+    <t>HLG,0690</t>
+  </si>
+  <si>
+    <t>HLG,0725</t>
+  </si>
+  <si>
+    <t>Colombo, Sri Lanka</t>
+  </si>
+  <si>
+    <t>HLG,0756</t>
+  </si>
+  <si>
+    <t>HLG,0746</t>
+  </si>
+  <si>
+    <t>Gujarat, India</t>
+  </si>
+  <si>
+    <t>HLG,0684</t>
+  </si>
+  <si>
+    <t>HLG,0713</t>
+  </si>
+  <si>
+    <t>HLG,0714</t>
+  </si>
+  <si>
+    <t>HLG,0761</t>
+  </si>
+  <si>
+    <t>HLG,0764</t>
+  </si>
+  <si>
+    <t>HLG,0673</t>
+  </si>
+  <si>
+    <t>HLG,0715</t>
+  </si>
+  <si>
+    <t>DMV,FONTERRA EXCIPIENTS GMBH &amp; CO. KG</t>
+  </si>
+  <si>
+    <t>Goch, Germany</t>
+  </si>
+  <si>
+    <t>HLG,0747</t>
+  </si>
+  <si>
+    <t>HLG,0668</t>
+  </si>
+  <si>
+    <t>HLG,0672</t>
+  </si>
+  <si>
+    <t>HLG,0736</t>
+  </si>
+  <si>
+    <t>Gorizia, Italy</t>
+  </si>
+  <si>
+    <t>HLG,0659</t>
+  </si>
+  <si>
+    <t>HLG,0765</t>
+  </si>
+  <si>
+    <t>Panadura, Sri Lanka</t>
+  </si>
+  <si>
+    <t>HLG,0729</t>
+  </si>
+  <si>
+    <t>Hong Kong, China</t>
+  </si>
+  <si>
+    <t>HLG,0667</t>
+  </si>
+  <si>
+    <t>Weingarten, Germany</t>
+  </si>
+  <si>
+    <t>HLG,0711</t>
+  </si>
+  <si>
+    <t>HLG,0742</t>
+  </si>
+  <si>
+    <t>Pavia, Italy</t>
+  </si>
+  <si>
+    <t>HLG,0738</t>
+  </si>
+  <si>
+    <t>HLG,0675</t>
+  </si>
+  <si>
+    <t>HLG,0702</t>
+  </si>
+  <si>
+    <t>HLG,0721</t>
+  </si>
+  <si>
+    <t>Seoul, South Korea</t>
+  </si>
+  <si>
+    <t>HLG,0731</t>
+  </si>
+  <si>
+    <t>HLG,0739</t>
+  </si>
+  <si>
+    <t>HLG,0701</t>
+  </si>
+  <si>
+    <t>HLG,0743</t>
+  </si>
+  <si>
+    <t>Minerbio, Italy</t>
+  </si>
+  <si>
+    <t>HLG,0722</t>
+  </si>
+  <si>
+    <t>HLG,0744</t>
+  </si>
+  <si>
+    <t>Liverpool, England</t>
+  </si>
+  <si>
+    <t>HLG,0691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ras Al Khaimah, U.A.E </t>
+  </si>
+  <si>
+    <t>HLG,0728</t>
+  </si>
+  <si>
+    <t>Stuttgart, Germany</t>
+  </si>
+  <si>
+    <t>HLG,0724</t>
+  </si>
+  <si>
+    <t>Peliyagoda, Sri Lanka</t>
+  </si>
+  <si>
+    <t>HLG,0674</t>
+  </si>
+  <si>
+    <t>HLG,0720</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>HLG,0681,CL</t>
+  </si>
+  <si>
+    <t>HLG,0763,CL</t>
+  </si>
+  <si>
+    <t>HLG,0750,CL</t>
+  </si>
+  <si>
+    <t>HLG,0758,CL</t>
+  </si>
+  <si>
+    <t>HLG,0692,CL</t>
+  </si>
+  <si>
+    <t>HLG,0696,CL</t>
+  </si>
+  <si>
+    <t>HLG,0717,CL</t>
+  </si>
+  <si>
+    <t>HLG,0727,CL</t>
+  </si>
+  <si>
+    <t>Verona, Italy</t>
+  </si>
+  <si>
+    <t>HLG,0748,CL</t>
+  </si>
+  <si>
+    <t>Bönen, Germany</t>
+  </si>
+  <si>
+    <t>HLG,0755,CL</t>
+  </si>
+  <si>
+    <t>HLG,0654,CL</t>
+  </si>
+  <si>
+    <t>HLG,0708,CL</t>
+  </si>
+  <si>
+    <t>HLG,0663,CL</t>
+  </si>
+  <si>
+    <t>HLG,0749,CL</t>
+  </si>
+  <si>
+    <t>HLG,0700,CL</t>
+  </si>
+  <si>
+    <t>HLG,0682,CL</t>
+  </si>
+  <si>
+    <t>HLG,0759,CL</t>
+  </si>
+  <si>
+    <t>HLG,0745,CL</t>
+  </si>
+  <si>
+    <t>Gyeonggi,do, South Korea</t>
+  </si>
+  <si>
+    <t>HLG,0737,CL</t>
+  </si>
+  <si>
+    <t>Lingen, Germany</t>
+  </si>
+  <si>
+    <t>HLG,0760,CL</t>
+  </si>
+  <si>
+    <t>HLG,0676,CL</t>
+  </si>
+  <si>
+    <t>HLG,0657,CL</t>
+  </si>
+  <si>
+    <t>HLG,0735,CL</t>
+  </si>
+  <si>
+    <t>Taipei, Taiwan</t>
+  </si>
+  <si>
+    <t>HLG,0753,CL</t>
+  </si>
+  <si>
+    <t>HLG,0677,CL</t>
+  </si>
+  <si>
+    <t>HLG,0762,CL</t>
+  </si>
+  <si>
+    <t>HLG,0685,CL</t>
+  </si>
+  <si>
+    <t>HLG,0699,CL</t>
+  </si>
+  <si>
+    <t>Abu Dhabi , United Arab Emirates</t>
   </si>
 </sst>
 </file>
@@ -1371,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,2705 +1432,2705 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H2">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="J2">
         <v>93421</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>700000</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H4">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="J4">
         <v>309701</v>
       </c>
       <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
         <v>31</v>
       </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
       <c r="M4" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>35</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J5">
         <v>94486.59</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6">
         <v>150000</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7">
         <v>15059.37</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>25</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8">
         <v>350000</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9">
         <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9">
         <v>300000</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10">
         <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10">
         <v>450000</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11">
         <v>25</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J11">
         <v>400000</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12">
         <v>25</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12">
         <v>350000</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13">
         <v>183750</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M13" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14">
         <v>35</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14">
         <v>220013.55</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="M14" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15">
         <v>35</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J15">
         <v>285013.37</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="M15" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16">
+        <v>35</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H16">
-        <v>35</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="J16">
         <v>101283</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="M16" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17">
         <v>35</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17">
         <v>139555</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M17" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18">
         <v>35</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18">
         <v>82109.78</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M18" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19">
         <v>35</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J19">
         <v>1042600</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L19" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="M19" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20">
         <v>35</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J20">
         <v>9175.1200000000008</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="L20" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="M20" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H21">
         <v>35</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21">
         <v>32466.5</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="M21" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22">
         <v>35</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J22">
         <v>97560</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="M22" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="J23">
         <v>1378000</v>
       </c>
       <c r="K23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L23" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="M23" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24">
         <v>35</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="J24">
         <v>96617</v>
       </c>
       <c r="K24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="M24" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H25">
         <v>35</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25">
         <v>95566</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="M25" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H26">
         <v>35</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J26">
         <v>433850</v>
       </c>
       <c r="K26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L26" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="M26" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27">
         <v>35</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J27">
         <v>901204</v>
       </c>
       <c r="K27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L27" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="M27" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H28">
         <v>35</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J28">
         <v>111676.7</v>
       </c>
       <c r="K28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="M28" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H29">
         <v>35</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J29">
         <v>65208.5</v>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L29" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="M29" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30">
         <v>35</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J30">
         <v>20592</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M30" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H31">
         <v>35</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J31">
         <v>623186</v>
       </c>
       <c r="K31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L31" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="M31" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H32">
         <v>35</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="J32">
         <v>50000</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L32" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="M32" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H33">
         <v>35</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J33">
         <v>241012.78</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L33" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="M33" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H34">
         <v>35</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J34">
         <v>160009.37</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L34" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="M34" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
       </c>
       <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35">
+        <v>35</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H35">
-        <v>35</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="J35">
         <v>225200</v>
       </c>
       <c r="K35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L35" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="M35" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H36">
         <v>35</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J36">
         <v>102804.86</v>
       </c>
       <c r="K36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L36" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="M36" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H37">
         <v>35</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J37">
         <v>104805.59</v>
       </c>
       <c r="K37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L37" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="M37" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H38">
         <v>35</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J38">
         <v>400000</v>
       </c>
       <c r="K38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L38" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="M38" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H39">
         <v>35</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J39">
         <v>38377.85</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L39" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="M39" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H40">
         <v>35</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J40">
         <v>730880</v>
       </c>
       <c r="K40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L40" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="M40" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H41">
         <v>35</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J41">
         <v>1433602</v>
       </c>
       <c r="K41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L41" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="M41" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H42">
         <v>35</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J42">
         <v>1523268</v>
       </c>
       <c r="K42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L42" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="M42" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43">
+        <v>35</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43">
-        <v>35</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J43">
         <v>578366</v>
       </c>
       <c r="K43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L43" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="M43" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H44">
         <v>35</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J44">
         <v>1500000</v>
       </c>
       <c r="K44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L44" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="M44" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H45">
         <v>35</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J45">
         <v>878647</v>
       </c>
       <c r="K45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L45" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="M45" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H46">
         <v>35</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J46">
         <v>138208</v>
       </c>
       <c r="K46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L46" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="M46" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H47">
         <v>35</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J47">
         <v>293495.46000000002</v>
       </c>
       <c r="K47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L47" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="M47" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H48">
         <v>35</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J48">
         <v>741711.29</v>
       </c>
       <c r="K48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L48" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="M48" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H49">
         <v>35</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J49">
         <v>743980</v>
       </c>
       <c r="K49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L49" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="M49" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H50">
         <v>35</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J50">
         <v>3000000</v>
       </c>
       <c r="K50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L50" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="M50" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51">
+        <v>35</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" t="s">
-        <v>161</v>
-      </c>
-      <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51">
-        <v>35</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J51">
         <v>4362955</v>
       </c>
       <c r="K51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L51" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="M51" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H52">
         <v>35</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="J52">
         <v>4204435</v>
       </c>
       <c r="K52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L52" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="M52" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J53">
         <v>2827000</v>
       </c>
       <c r="K53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L53" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="M53" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J54">
         <v>759440</v>
       </c>
       <c r="K54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L54" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="M54" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H55">
         <v>35</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J55">
         <v>877000</v>
       </c>
       <c r="K55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L55" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="M55" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H56">
         <v>35</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J56">
         <v>1600000</v>
       </c>
       <c r="K56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L56" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="M56" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H57">
         <v>35</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J57">
         <v>491655.15</v>
       </c>
       <c r="K57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L57" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="M57" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H58">
         <v>35</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="J58">
         <v>145019.4</v>
       </c>
       <c r="K58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L58" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="M58" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H59">
         <v>35</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J59">
         <v>1000000</v>
       </c>
       <c r="K59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L59" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="M59" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60">
+        <v>35</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" t="s">
-        <v>161</v>
-      </c>
-      <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s">
-        <v>28</v>
-      </c>
-      <c r="H60">
-        <v>35</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J60">
         <v>4610000</v>
       </c>
       <c r="K60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L60" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="M60" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61">
+        <v>35</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" t="s">
-        <v>161</v>
-      </c>
-      <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s">
-        <v>28</v>
-      </c>
-      <c r="H61">
-        <v>35</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J61">
         <v>5684238</v>
       </c>
       <c r="K61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L61" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="M61" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H62">
         <v>35</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J62">
         <v>205448.94</v>
       </c>
       <c r="K62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L62" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="M62" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H63">
         <v>35</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J63">
         <v>1054691</v>
       </c>
       <c r="K63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L63" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="M63" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H64">
         <v>35</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J64">
         <v>5500000</v>
       </c>
       <c r="K64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L64" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F65" t="s">
         <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H65">
         <v>35</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="J65">
         <v>3736859</v>
       </c>
       <c r="K65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L65" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="M65" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H66">
         <v>35</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J66">
         <v>649842</v>
       </c>
       <c r="K66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L66" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="M66" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F67" t="s">
         <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H67">
         <v>35</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J67">
         <v>635764</v>
       </c>
       <c r="K67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L67" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="M67" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/TRACK.xlsx
+++ b/TRACK.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="40">
   <si>
     <t>refrence</t>
   </si>
@@ -63,61 +63,82 @@
     <t>GOODS IN TRUST</t>
   </si>
   <si>
-    <t>JANUARY 2018</t>
-  </si>
-  <si>
     <t>Dubai, U.A.E</t>
   </si>
   <si>
     <t>AED</t>
   </si>
   <si>
-    <t>Hong Kong, China</t>
-  </si>
-  <si>
-    <t>SPG 213</t>
-  </si>
-  <si>
-    <t>BAHMANI GROUP LLC</t>
-  </si>
-  <si>
-    <t>SPG 216</t>
-  </si>
-  <si>
-    <t>TIARA JEWELS GENERAL TRADING LLC</t>
-  </si>
-  <si>
-    <t>SPG 215-CL</t>
-  </si>
-  <si>
-    <t>SYSNY POWER GENERATION EQUIPMENT TRADING LLC</t>
-  </si>
-  <si>
-    <t>SUNSHOW MACHINERY AND ELECTRICAL CO LTD</t>
-  </si>
-  <si>
-    <t>FUTURE EARTH ENERGY SYSTEMS</t>
-  </si>
-  <si>
-    <t>SPG 223</t>
-  </si>
-  <si>
-    <t>SPG 224</t>
-  </si>
-  <si>
-    <t>ACS TRADING LLC</t>
-  </si>
-  <si>
-    <t>SPG 225</t>
-  </si>
-  <si>
-    <t>VODO FZ LLC</t>
-  </si>
-  <si>
-    <t>SPG 222-CL</t>
-  </si>
-  <si>
-    <t>SPG 218-CL</t>
+    <t>EURO</t>
+  </si>
+  <si>
+    <t>SARPEKS TEKSTIL GIDA LOJISTIK SANAYI VE DIS TICARET ANONIM SIRKETI</t>
+  </si>
+  <si>
+    <t>Istanbul, Turkey</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>JANUARY 2019</t>
+  </si>
+  <si>
+    <t>PH-04</t>
+  </si>
+  <si>
+    <t>PH-03</t>
+  </si>
+  <si>
+    <t>PH-05</t>
+  </si>
+  <si>
+    <t>HAYAT KABLO SAN  VE TIC</t>
+  </si>
+  <si>
+    <t>PH-14</t>
+  </si>
+  <si>
+    <t>PH-10</t>
+  </si>
+  <si>
+    <t>PH-17</t>
+  </si>
+  <si>
+    <t>PH-22</t>
+  </si>
+  <si>
+    <t>PH-06-CL</t>
+  </si>
+  <si>
+    <t>PH-12</t>
+  </si>
+  <si>
+    <t>PH-21</t>
+  </si>
+  <si>
+    <t>PH-23</t>
+  </si>
+  <si>
+    <t>PH-27-CL</t>
+  </si>
+  <si>
+    <t>MAKO DOVIZ TIC A.S</t>
+  </si>
+  <si>
+    <t>YAMATA YATIRIM INS</t>
+  </si>
+  <si>
+    <t>Sivas, Turkey</t>
+  </si>
+  <si>
+    <t>GALANTHUS CONSTRUCTION</t>
+  </si>
+  <si>
+    <t>ITR LOGISTICS</t>
+  </si>
+  <si>
+    <t>PHARCO MEDICAL EQUIPMENTS DWC LLC</t>
   </si>
 </sst>
 </file>
@@ -608,12 +629,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -937,29 +955,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="36.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -993,362 +1011,504 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1">
+        <v>43562</v>
+      </c>
+      <c r="J2">
+        <v>343013</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1">
+        <v>43563</v>
+      </c>
+      <c r="J3">
+        <v>68673</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>43562</v>
+      </c>
+      <c r="J4">
+        <v>23560</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1">
+        <v>43563</v>
+      </c>
+      <c r="J5">
+        <v>35000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1">
+        <v>43582</v>
+      </c>
+      <c r="J6">
+        <v>120000</v>
+      </c>
+      <c r="K6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1">
-        <v>43501</v>
-      </c>
-      <c r="J2">
-        <v>1445000</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>43580</v>
+      </c>
+      <c r="J7">
+        <v>59000</v>
+      </c>
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
+        <v>43582</v>
+      </c>
+      <c r="J8">
+        <v>7963</v>
+      </c>
+      <c r="K8" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1">
+        <v>43563</v>
+      </c>
+      <c r="J9">
+        <v>610000</v>
+      </c>
+      <c r="K9" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1">
+        <v>43596</v>
+      </c>
+      <c r="J10">
+        <v>184610</v>
+      </c>
+      <c r="K10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1">
-        <v>43514</v>
-      </c>
-      <c r="J3">
-        <v>599500</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1">
+        <v>43594</v>
+      </c>
+      <c r="J11">
+        <v>50300</v>
+      </c>
+      <c r="K11" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1">
+        <v>43599</v>
+      </c>
+      <c r="J12">
+        <v>28170</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1">
+        <v>43599</v>
+      </c>
+      <c r="J13">
+        <v>3583133</v>
+      </c>
+      <c r="K13" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1">
-        <v>43507</v>
-      </c>
-      <c r="J4">
-        <v>400868.5</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1">
-        <v>43541</v>
-      </c>
-      <c r="J5">
-        <v>7000</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="3">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1">
-        <v>43545</v>
-      </c>
-      <c r="J6">
-        <v>3990000</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1">
-        <v>43545</v>
-      </c>
-      <c r="J7">
-        <v>870000</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="3">
-        <v>25</v>
-      </c>
-      <c r="I8" s="1">
-        <v>43540</v>
-      </c>
-      <c r="J8">
-        <v>20000</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1">
-        <v>43536</v>
-      </c>
-      <c r="J9">
-        <v>800000</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="M12" s="4"/>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
